--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2509de95a29fd27c/Documentos/Master/Lusku/TFM/Repositorio compartido/kschool_master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_7CDDD7865B50D76BAFBB2011595ED87656CD444C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21B59B92-CFAB-4816-82CF-BAF44FD910D4}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_738D17805BC0561DA3F93C11595ED87656CC9D5C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4019BB9-3C97-4F58-8D2C-0E93192C1F21}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,116 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7D3904E1-F4B8-467D-9050-B2EE34817348}</author>
+    <author>tc={91B284A7-25C2-4CB3-87A5-86FDFAE6F99D}</author>
+  </authors>
+  <commentList>
+    <comment ref="A74" authorId="0" shapeId="0" xr:uid="{7D3904E1-F4B8-467D-9050-B2EE34817348}">
+      <text>
+        <t xml:space="preserve">[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    # HIPERPARAMETROS
+best_params_knn = {
+    'algorithm': 'brute',
+    'leaf_size': 10,
+    'metric': 'hamming',
+    'n_neighbors': 3,
+    'weights': 'uniform'
+}
+# Best parameters for KNN (enfoque 2)
+best_params_knn_2 = {
+    'algorithm': 'brute',
+    'leaf_size': 10,
+    'metric': 'hamming',
+    'n_neighbors': 2,
+    'weights': 'distance'
+}
+# Mejores parámetros para Gradient Boosting (enfoque 1)
+best_params_gb_1 = {
+    'learning_rate': 0.015,  # Reducir la tasa de aprendizaje
+    'max_depth': 3,  # Reducir la profundidad máxima
+    'min_samples_leaf': 4,
+    'min_samples_split': 10,
+    'n_estimators': 200,
+    'subsample': 0.8,  # Añadir subsampling
+    'validation_fraction': 0.2,  # Usar 20% de los datos para validación
+    'n_iter_no_change': 10,  # Detener si no hay mejora en 10 iteraciones
+    'tol': 1e-4  # Tolerancia para el cambio
+}
+# Mejores parámetros para Gradient Boosting (enfoque 2)
+best_params_gb_2 = {
+    'learning_rate': 0.05,  # Reducir la tasa de aprendizaje
+    'max_depth': 2,  # Reducir la profundidad máxima
+    'min_samples_leaf': 1,
+    'min_samples_split': 5,
+    'n_estimators': 100,
+}
+# Mejores parámetros para AdaBoost
+best_params_ada = {
+    'learning_rate': 0.07,
+    'n_estimators': 100  # Reducir el número de estimadores
+}
+</t>
+      </text>
+    </comment>
+    <comment ref="A80" authorId="1" shapeId="0" xr:uid="{91B284A7-25C2-4CB3-87A5-86FDFAE6F99D}">
+      <text>
+        <t>[Comentario encadenado]
+Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
+Comentario:
+    HIPERPARAMETROS
+best_params_knn = {
+    'algorithm': 'brute',
+    'leaf_size': 10,
+    'metric': 'hamming',
+    'n_neighbors': 3,
+    'weights': 'uniform'
+}
+# Best parameters for KNN (enfoque 2)
+best_params_knn_2 = {
+    'algorithm': 'brute',
+    'leaf_size': 10,
+    'metric': 'hamming',
+    'n_neighbors': 2,
+    'weights': 'distance'
+}
+# Mejores parámetros para Gradient Boosting (enfoque 1)
+best_params_gb_1 = {
+    'learning_rate': 0.015,  # Reducir la tasa de aprendizaje
+    'max_depth': 3,  # Reducir la profundidad máxima
+    'min_samples_leaf': 4,
+    'min_samples_split': 10,
+    'n_estimators': 200,
+    'subsample': 0.8,  # Añadir subsampling
+    'validation_fraction': 0.2,  # Usar 20% de los datos para validación
+    'n_iter_no_change': 10,  # Detener si no hay mejora en 10 iteraciones
+    'tol': 1e-4  # Tolerancia para el cambio
+}
+# Mejores parámetros para Gradient Boosting (enfoque 2)
+best_params_gb_2 = {
+    'learning_rate': 0.015,  # Reducir la tasa de aprendizaje
+    'max_depth': 3,  # Reducir la profundidad máxima
+    'min_samples_leaf': 4,
+    'min_samples_split': 10,
+    'n_estimators': 200,
+}
+# Mejores parámetros para AdaBoost
+best_params_ada = {
+    'learning_rate': 0.07,
+    'n_estimators': 100  # Reducir el número de estimadores
+}</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="34">
   <si>
     <t>Model</t>
   </si>
@@ -70,6 +178,9 @@
     <t>Global Score</t>
   </si>
   <si>
+    <t>KNN</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -85,7 +196,28 @@
     <t>2</t>
   </si>
   <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Naive Bayes - Bernoulli</t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>Regresión polinomial</t>
+  </si>
+  <si>
+    <t>SVR</t>
+  </si>
+  <si>
     <t>Perceptrón Multicapa (MLP)</t>
+  </si>
+  <si>
+    <t>Voting Classifier (KNN + Gradient Boosting + AdaBoost)</t>
+  </si>
+  <si>
+    <t>Regresion Lineal</t>
   </si>
   <si>
     <t>Regresión Logística</t>
@@ -97,32 +229,14 @@
     <t>Random Forest</t>
   </si>
   <si>
-    <t>KNN</t>
-  </si>
-  <si>
-    <t>SVM</t>
-  </si>
-  <si>
-    <t>Naive Bayes - Bernoulli</t>
-  </si>
-  <si>
     <t>AdaBoost 2</t>
-  </si>
-  <si>
-    <t>Gradient Boosting</t>
-  </si>
-  <si>
-    <t>SVR</t>
-  </si>
-  <si>
-    <t>Regresión polinomial</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,7 +248,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,7 +314,9 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Dani del Río Alonso" id="{D3B44849-38EE-4151-BD21-99F72E7A5887}" userId="2509de95a29fd27c" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,17 +602,109 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A74" dT="2024-07-01T17:03:21.83" personId="{D3B44849-38EE-4151-BD21-99F72E7A5887}" id="{7D3904E1-F4B8-467D-9050-B2EE34817348}">
+    <text xml:space="preserve"># HIPERPARAMETROS
+best_params_knn = {
+    'algorithm': 'brute',
+    'leaf_size': 10,
+    'metric': 'hamming',
+    'n_neighbors': 3,
+    'weights': 'uniform'
+}
+# Best parameters for KNN (enfoque 2)
+best_params_knn_2 = {
+    'algorithm': 'brute',
+    'leaf_size': 10,
+    'metric': 'hamming',
+    'n_neighbors': 2,
+    'weights': 'distance'
+}
+# Mejores parámetros para Gradient Boosting (enfoque 1)
+best_params_gb_1 = {
+    'learning_rate': 0.015,  # Reducir la tasa de aprendizaje
+    'max_depth': 3,  # Reducir la profundidad máxima
+    'min_samples_leaf': 4,
+    'min_samples_split': 10,
+    'n_estimators': 200,
+    'subsample': 0.8,  # Añadir subsampling
+    'validation_fraction': 0.2,  # Usar 20% de los datos para validación
+    'n_iter_no_change': 10,  # Detener si no hay mejora en 10 iteraciones
+    'tol': 1e-4  # Tolerancia para el cambio
+}
+# Mejores parámetros para Gradient Boosting (enfoque 2)
+best_params_gb_2 = {
+    'learning_rate': 0.05,  # Reducir la tasa de aprendizaje
+    'max_depth': 2,  # Reducir la profundidad máxima
+    'min_samples_leaf': 1,
+    'min_samples_split': 5,
+    'n_estimators': 100,
+}
+# Mejores parámetros para AdaBoost
+best_params_ada = {
+    'learning_rate': 0.07,
+    'n_estimators': 100  # Reducir el número de estimadores
+}
+</text>
+  </threadedComment>
+  <threadedComment ref="A80" dT="2024-07-01T17:05:15.18" personId="{D3B44849-38EE-4151-BD21-99F72E7A5887}" id="{91B284A7-25C2-4CB3-87A5-86FDFAE6F99D}">
+    <text>HIPERPARAMETROS
+best_params_knn = {
+    'algorithm': 'brute',
+    'leaf_size': 10,
+    'metric': 'hamming',
+    'n_neighbors': 3,
+    'weights': 'uniform'
+}
+# Best parameters for KNN (enfoque 2)
+best_params_knn_2 = {
+    'algorithm': 'brute',
+    'leaf_size': 10,
+    'metric': 'hamming',
+    'n_neighbors': 2,
+    'weights': 'distance'
+}
+# Mejores parámetros para Gradient Boosting (enfoque 1)
+best_params_gb_1 = {
+    'learning_rate': 0.015,  # Reducir la tasa de aprendizaje
+    'max_depth': 3,  # Reducir la profundidad máxima
+    'min_samples_leaf': 4,
+    'min_samples_split': 10,
+    'n_estimators': 200,
+    'subsample': 0.8,  # Añadir subsampling
+    'validation_fraction': 0.2,  # Usar 20% de los datos para validación
+    'n_iter_no_change': 10,  # Detener si no hay mejora en 10 iteraciones
+    'tol': 1e-4  # Tolerancia para el cambio
+}
+# Mejores parámetros para Gradient Boosting (enfoque 2)
+best_params_gb_2 = {
+    'learning_rate': 0.015,  # Reducir la tasa de aprendizaje
+    'max_depth': 3,  # Reducir la profundidad máxima
+    'min_samples_leaf': 4,
+    'min_samples_split': 10,
+    'n_estimators': 200,
+}
+# Mejores parámetros para AdaBoost
+best_params_ada = {
+    'learning_rate': 0.07,
+    'n_estimators': 100  # Reducir el número de estimadores
+}</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R79" sqref="R79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -546,463 +759,463 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>0.84297520661157022</v>
+        <v>0.80257116620752988</v>
       </c>
       <c r="E2">
-        <v>0.84879892137551605</v>
+        <v>0.83029608405112343</v>
       </c>
       <c r="F2">
-        <v>0.84297520661157022</v>
+        <v>0.80257116620752988</v>
       </c>
       <c r="G2">
-        <v>0.84341384078207071</v>
+        <v>0.80184644029381424</v>
       </c>
       <c r="H2">
-        <v>0.47004627024609069</v>
+        <v>0.36545267979281232</v>
       </c>
       <c r="I2">
-        <v>0.15702479338842981</v>
+        <v>0.19742883379247009</v>
       </c>
       <c r="J2">
-        <v>0.36481748040412859</v>
+        <v>0.2013787034320916</v>
       </c>
       <c r="K2">
-        <v>0.8469901833041128</v>
+        <v>0.81456404728932308</v>
       </c>
       <c r="L2">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="M2">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="N2">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="O2">
-        <v>487</v>
+        <v>422</v>
       </c>
       <c r="P2">
-        <v>80.31</v>
+        <v>76.599999999999994</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>0.83241758241758246</v>
+        <v>0.77472527472527475</v>
       </c>
       <c r="E3">
-        <v>0.84480124467369355</v>
+        <v>0.81631772195777474</v>
       </c>
       <c r="F3">
-        <v>0.83241758241758246</v>
+        <v>0.77472527472527475</v>
       </c>
       <c r="G3">
-        <v>0.83253521784471984</v>
+        <v>0.7717560925469088</v>
       </c>
       <c r="H3">
-        <v>0.44045796145294219</v>
+        <v>0.29972700481378761</v>
       </c>
       <c r="I3">
-        <v>0.1675824175824176</v>
+        <v>0.22527472527472531</v>
       </c>
       <c r="J3">
-        <v>0.32377036698644751</v>
+        <v>9.0970001522765465E-2</v>
       </c>
       <c r="K3">
-        <v>0.83896756509821846</v>
+        <v>0.78879244708390439</v>
       </c>
       <c r="L3">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N3">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="O3">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="P3">
-        <v>79.459999999999994</v>
+        <v>73.86</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>0.80219780219780223</v>
+        <v>0.76098901098901095</v>
       </c>
       <c r="E4">
-        <v>0.81727653789509447</v>
+        <v>0.79696735127939866</v>
       </c>
       <c r="F4">
-        <v>0.80219780219780223</v>
+        <v>0.76098901098901095</v>
       </c>
       <c r="G4">
-        <v>0.80270576880746369</v>
+        <v>0.75965060580445187</v>
       </c>
       <c r="H4">
-        <v>0.3635333961546513</v>
+        <v>0.27015873237742077</v>
       </c>
       <c r="I4">
-        <v>0.19780219780219779</v>
+        <v>0.23901098901098899</v>
       </c>
       <c r="J4">
-        <v>0.19705882352941151</v>
+        <v>2.9779411764705551E-2</v>
       </c>
       <c r="K4">
-        <v>0.81072303921568623</v>
+        <v>0.77665441176470584</v>
       </c>
       <c r="L4">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M4">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N4">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="O4">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="P4">
-        <v>75.89</v>
+        <v>72.02</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>0.84022038567493118</v>
+        <v>0.82460973370064283</v>
       </c>
       <c r="E5">
-        <v>0.84587798953078841</v>
+        <v>0.8463025189053508</v>
       </c>
       <c r="F5">
-        <v>0.84022038567493118</v>
+        <v>0.82460973370064283</v>
       </c>
       <c r="G5">
-        <v>0.84066702802797466</v>
+        <v>0.82442485096296636</v>
       </c>
       <c r="H5">
-        <v>0.46251113226749219</v>
+        <v>0.42086840196670611</v>
       </c>
       <c r="I5">
-        <v>0.1597796143250689</v>
+        <v>0.17539026629935719</v>
       </c>
       <c r="J5">
-        <v>0.35367392742876252</v>
+        <v>0.29052712723502089</v>
       </c>
       <c r="K5">
-        <v>0.84410623042971067</v>
+        <v>0.83488986062884152</v>
       </c>
       <c r="L5">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="M5">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="N5">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="O5">
-        <v>486</v>
+        <v>444</v>
       </c>
       <c r="P5">
-        <v>79.95</v>
+        <v>78.98</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>0.84890109890109888</v>
+        <v>0.7994505494505495</v>
       </c>
       <c r="E6">
-        <v>0.86304007237742175</v>
+        <v>0.82705299373523677</v>
       </c>
       <c r="F6">
-        <v>0.84890109890109888</v>
+        <v>0.7994505494505495</v>
       </c>
       <c r="G6">
-        <v>0.84893873250037644</v>
+        <v>0.79833614155952382</v>
       </c>
       <c r="H6">
-        <v>0.48549908131073649</v>
+        <v>0.35680692041710887</v>
       </c>
       <c r="I6">
-        <v>0.15109890109890109</v>
+        <v>0.20054945054945059</v>
       </c>
       <c r="J6">
-        <v>0.39028475711892813</v>
+        <v>0.19074158672148631</v>
       </c>
       <c r="K6">
-        <v>0.85611390284757116</v>
+        <v>0.81037003197807222</v>
       </c>
       <c r="L6">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N6">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="O6">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="P6">
-        <v>81.59</v>
+        <v>76.23</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
       <c r="D7">
-        <v>0.84340659340659341</v>
+        <v>0.79395604395604391</v>
       </c>
       <c r="E7">
-        <v>0.85128324563158364</v>
+        <v>0.81295689235387736</v>
       </c>
       <c r="F7">
-        <v>0.84340659340659341</v>
+        <v>0.79395604395604391</v>
       </c>
       <c r="G7">
-        <v>0.8439793442708895</v>
+        <v>0.79425934484022664</v>
       </c>
       <c r="H7">
-        <v>0.47027418649701008</v>
+        <v>0.34379118473672388</v>
       </c>
       <c r="I7">
-        <v>0.15659340659340659</v>
+        <v>0.20604395604395601</v>
       </c>
       <c r="J7">
-        <v>0.36433823529411741</v>
+        <v>0.1636029411764702</v>
       </c>
       <c r="K7">
-        <v>0.84883578431372553</v>
+        <v>0.80404411764705885</v>
       </c>
       <c r="L7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N7">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="O7">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="P7">
-        <v>80.47</v>
+        <v>75.12</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>0.91092745638200179</v>
+        <v>0.84297520661157022</v>
       </c>
       <c r="E8">
-        <v>0.91094632042933554</v>
+        <v>0.84879892137551605</v>
       </c>
       <c r="F8">
-        <v>0.91092745638200179</v>
+        <v>0.84297520661157022</v>
       </c>
       <c r="G8">
-        <v>0.91093611360217575</v>
+        <v>0.84341384078207071</v>
       </c>
       <c r="H8">
-        <v>0.67511438921916422</v>
+        <v>0.47004627024609069</v>
       </c>
       <c r="I8">
-        <v>8.9072543617998157E-2</v>
+        <v>0.15702479338842981</v>
       </c>
       <c r="J8">
-        <v>0.63969178712982733</v>
+        <v>0.36481748040412859</v>
       </c>
       <c r="K8">
-        <v>0.9100210114130175</v>
+        <v>0.8469901833041128</v>
       </c>
       <c r="L8">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N8">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="O8">
-        <v>553</v>
+        <v>487</v>
       </c>
       <c r="P8">
-        <v>88.17</v>
+        <v>80.31</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>0.85989010989010994</v>
+        <v>0.83241758241758246</v>
       </c>
       <c r="E9">
-        <v>0.85982846421870818</v>
+        <v>0.84480124467369355</v>
       </c>
       <c r="F9">
-        <v>0.85989010989010994</v>
+        <v>0.83241758241758246</v>
       </c>
       <c r="G9">
-        <v>0.85985275322981281</v>
+        <v>0.83253521784471984</v>
       </c>
       <c r="H9">
-        <v>0.51673553934589023</v>
+        <v>0.44045796145294219</v>
       </c>
       <c r="I9">
-        <v>0.14010989010989011</v>
+        <v>0.1675824175824176</v>
       </c>
       <c r="J9">
-        <v>0.43462768387391509</v>
+        <v>0.32377036698644751</v>
       </c>
       <c r="K9">
-        <v>0.85839805086036236</v>
+        <v>0.83896756509821846</v>
       </c>
       <c r="L9">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="M9">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N9">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="O9">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="P9">
-        <v>81.650000000000006</v>
+        <v>79.459999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0.80219780219780223</v>
+      </c>
+      <c r="E10">
+        <v>0.81727653789509447</v>
+      </c>
+      <c r="F10">
+        <v>0.80219780219780223</v>
+      </c>
+      <c r="G10">
+        <v>0.80270576880746369</v>
+      </c>
+      <c r="H10">
+        <v>0.3635333961546513</v>
+      </c>
+      <c r="I10">
+        <v>0.19780219780219779</v>
+      </c>
+      <c r="J10">
+        <v>0.19705882352941151</v>
+      </c>
+      <c r="K10">
+        <v>0.81072303921568623</v>
+      </c>
+      <c r="L10">
+        <v>141</v>
+      </c>
+      <c r="M10">
         <v>19</v>
       </c>
-      <c r="D10">
-        <v>0.85164835164835162</v>
-      </c>
-      <c r="E10">
-        <v>0.85153649726638803</v>
-      </c>
-      <c r="F10">
-        <v>0.85164835164835162</v>
-      </c>
-      <c r="G10">
-        <v>0.85117286559594252</v>
-      </c>
-      <c r="H10">
-        <v>0.49308633918608918</v>
-      </c>
-      <c r="I10">
-        <v>0.14835164835164841</v>
-      </c>
-      <c r="J10">
-        <v>0.39779411764705858</v>
-      </c>
-      <c r="K10">
-        <v>0.8467524509803922</v>
-      </c>
-      <c r="L10">
-        <v>129</v>
-      </c>
-      <c r="M10">
-        <v>31</v>
-      </c>
       <c r="N10">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="O10">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="P10">
-        <v>80.3</v>
+        <v>75.89</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>0.84022038567493118</v>
@@ -1046,13 +1259,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>0.84890109890109888</v>
@@ -1096,13 +1309,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
       </c>
       <c r="D13">
         <v>0.84340659340659341</v>
@@ -1146,463 +1359,463 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.91092745638200179</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.91094632042933554</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.91092745638200179</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.91093611360217575</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.67511438921916422</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>8.9072543617998157E-2</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.63969178712982733</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.9100210114130175</v>
       </c>
       <c r="L14">
-        <v>487</v>
+        <v>439</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="O14">
-        <v>602</v>
+        <v>553</v>
       </c>
       <c r="P14">
-        <v>100</v>
+        <v>88.17</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>0.91758241758241754</v>
+        <v>0.85989010989010994</v>
       </c>
       <c r="E15">
-        <v>0.9180598625350771</v>
+        <v>0.85982846421870818</v>
       </c>
       <c r="F15">
-        <v>0.91758241758241754</v>
+        <v>0.85989010989010994</v>
       </c>
       <c r="G15">
-        <v>0.91737059256870779</v>
+        <v>0.85985275322981281</v>
       </c>
       <c r="H15">
-        <v>0.69663757447978814</v>
+        <v>0.51673553934589023</v>
       </c>
       <c r="I15">
-        <v>8.2417582417582416E-2</v>
+        <v>0.14010989010989011</v>
       </c>
       <c r="J15">
-        <v>0.66742804933759714</v>
+        <v>0.43462768387391509</v>
       </c>
       <c r="K15">
-        <v>0.91478605146946856</v>
+        <v>0.85839805086036236</v>
       </c>
       <c r="L15">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M15">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="N15">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="O15">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="P15">
-        <v>88.77</v>
+        <v>81.650000000000006</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>0.90109890109890112</v>
+        <v>0.85164835164835162</v>
       </c>
       <c r="E16">
-        <v>0.90135534773072001</v>
+        <v>0.85153649726638803</v>
       </c>
       <c r="F16">
-        <v>0.90109890109890112</v>
+        <v>0.85164835164835162</v>
       </c>
       <c r="G16">
-        <v>0.90078191039729494</v>
+        <v>0.85117286559594252</v>
       </c>
       <c r="H16">
-        <v>0.64243509516782205</v>
+        <v>0.49308633918608918</v>
       </c>
       <c r="I16">
-        <v>9.8901098901098897E-2</v>
+        <v>0.14835164835164841</v>
       </c>
       <c r="J16">
-        <v>0.59852941176470575</v>
+        <v>0.39779411764705858</v>
       </c>
       <c r="K16">
-        <v>0.89693627450980407</v>
+        <v>0.8467524509803922</v>
       </c>
       <c r="L16">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N16">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="O16">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="P16">
-        <v>86.58</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.84022038567493118</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.84587798953078841</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.84022038567493118</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0.84066702802797466</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0.46251113226749219</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1597796143250689</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0.35367392742876252</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0.84410623042971067</v>
       </c>
       <c r="L17">
-        <v>487</v>
+        <v>429</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="O17">
-        <v>602</v>
+        <v>486</v>
       </c>
       <c r="P17">
-        <v>100</v>
+        <v>79.95</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>0.92032967032967028</v>
+        <v>0.84890109890109888</v>
       </c>
       <c r="E18">
-        <v>0.92032110720229543</v>
+        <v>0.86304007237742175</v>
       </c>
       <c r="F18">
-        <v>0.92032967032967028</v>
+        <v>0.84890109890109888</v>
       </c>
       <c r="G18">
-        <v>0.92026222879136466</v>
+        <v>0.84893873250037644</v>
       </c>
       <c r="H18">
-        <v>0.70588366945388237</v>
+        <v>0.48549908131073649</v>
       </c>
       <c r="I18">
-        <v>7.9670329670329665E-2</v>
+        <v>0.15109890109890109</v>
       </c>
       <c r="J18">
-        <v>0.67851378102634397</v>
+        <v>0.39028475711892813</v>
       </c>
       <c r="K18">
-        <v>0.91885183493223699</v>
+        <v>0.85611390284757116</v>
       </c>
       <c r="L18">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N18">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="O18">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="P18">
-        <v>89.29</v>
+        <v>81.59</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
       <c r="D19">
-        <v>0.9505494505494505</v>
+        <v>0.84340659340659341</v>
       </c>
       <c r="E19">
-        <v>0.95084915084915089</v>
+        <v>0.85128324563158364</v>
       </c>
       <c r="F19">
-        <v>0.9505494505494505</v>
+        <v>0.84340659340659341</v>
       </c>
       <c r="G19">
-        <v>0.95043533038548267</v>
+        <v>0.8439793442708895</v>
       </c>
       <c r="H19">
-        <v>0.81141419659759362</v>
+        <v>0.47027418649701008</v>
       </c>
       <c r="I19">
-        <v>4.9450549450549448E-2</v>
+        <v>0.15659340659340659</v>
       </c>
       <c r="J19">
-        <v>0.79926470588235288</v>
+        <v>0.36433823529411741</v>
       </c>
       <c r="K19">
-        <v>0.9477941176470589</v>
+        <v>0.84883578431372553</v>
       </c>
       <c r="L19">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N19">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="O19">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="P19">
-        <v>93.12</v>
+        <v>80.47</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>0.967860422405877</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0.96831173124451297</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.967860422405877</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.96790141951911091</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0.87545253015789537</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>3.2139577594123052E-2</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.86999188195406141</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0.96896893994692579</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>577</v>
+        <v>602</v>
       </c>
       <c r="P20">
-        <v>95.83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>0.93956043956043955</v>
+        <v>0.91758241758241754</v>
       </c>
       <c r="E21">
-        <v>0.94259647946798797</v>
+        <v>0.9180598625350771</v>
       </c>
       <c r="F21">
-        <v>0.93956043956043955</v>
+        <v>0.91758241758241754</v>
       </c>
       <c r="G21">
-        <v>0.93968855151631314</v>
+        <v>0.91737059256870779</v>
       </c>
       <c r="H21">
-        <v>0.77223116127261637</v>
+        <v>0.69663757447978814</v>
       </c>
       <c r="I21">
-        <v>6.043956043956044E-2</v>
+        <v>8.2417582417582416E-2</v>
       </c>
       <c r="J21">
-        <v>0.75611390284757118</v>
+        <v>0.66742804933759714</v>
       </c>
       <c r="K21">
-        <v>0.9426526572255215</v>
+        <v>0.91478605146946856</v>
       </c>
       <c r="L21">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N21">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="O21">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P21">
-        <v>92.41</v>
+        <v>88.77</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>0.9285714285714286</v>
+        <v>0.90109890109890112</v>
       </c>
       <c r="E22">
-        <v>0.92932770041203772</v>
+        <v>0.90135534773072001</v>
       </c>
       <c r="F22">
-        <v>0.9285714285714286</v>
+        <v>0.90109890109890112</v>
       </c>
       <c r="G22">
-        <v>0.92869569767289761</v>
+        <v>0.90078191039729494</v>
       </c>
       <c r="H22">
-        <v>0.73394719609214454</v>
+        <v>0.64243509516782205</v>
       </c>
       <c r="I22">
-        <v>7.1428571428571425E-2</v>
+        <v>9.8901098901098897E-2</v>
       </c>
       <c r="J22">
-        <v>0.71004901960784306</v>
+        <v>0.59852941176470575</v>
       </c>
       <c r="K22">
-        <v>0.92953431372549011</v>
+        <v>0.89693627450980407</v>
       </c>
       <c r="L22">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="M22">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="N22">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O22">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P22">
-        <v>90.65</v>
+        <v>86.58</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1646,463 +1859,463 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>0.9505494505494505</v>
+        <v>0.92032967032967028</v>
       </c>
       <c r="E24">
-        <v>0.95216582359439506</v>
+        <v>0.92032110720229543</v>
       </c>
       <c r="F24">
-        <v>0.9505494505494505</v>
+        <v>0.92032967032967028</v>
       </c>
       <c r="G24">
-        <v>0.95063941516336903</v>
+        <v>0.92026222879136466</v>
       </c>
       <c r="H24">
-        <v>0.81146270287091515</v>
+        <v>0.70588366945388237</v>
       </c>
       <c r="I24">
-        <v>4.9450549450549448E-2</v>
+        <v>7.9670329670329665E-2</v>
       </c>
       <c r="J24">
-        <v>0.80045682960255826</v>
+        <v>0.67851378102634397</v>
       </c>
       <c r="K24">
-        <v>0.95270290848180283</v>
+        <v>0.91885183493223699</v>
       </c>
       <c r="L24">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="M24">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O24">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P24">
-        <v>93.71</v>
+        <v>89.29</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
         <v>20</v>
       </c>
-      <c r="C25" t="s">
-        <v>19</v>
-      </c>
       <c r="D25">
-        <v>0.95329670329670335</v>
+        <v>0.9505494505494505</v>
       </c>
       <c r="E25">
-        <v>0.95530109983341505</v>
+        <v>0.95084915084915089</v>
       </c>
       <c r="F25">
-        <v>0.95329670329670335</v>
+        <v>0.9505494505494505</v>
       </c>
       <c r="G25">
-        <v>0.9534257169466861</v>
+        <v>0.95043533038548267</v>
       </c>
       <c r="H25">
-        <v>0.82141907370338085</v>
+        <v>0.81141419659759362</v>
       </c>
       <c r="I25">
-        <v>4.6703296703296697E-2</v>
+        <v>4.9450549450549448E-2</v>
       </c>
       <c r="J25">
-        <v>0.81041666666666656</v>
+        <v>0.79926470588235288</v>
       </c>
       <c r="K25">
-        <v>0.95631127450980391</v>
+        <v>0.9477941176470589</v>
       </c>
       <c r="L25">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N25">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O25">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="P25">
-        <v>94.11</v>
+        <v>93.12</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <v>0.967860422405877</v>
+      </c>
+      <c r="E26">
+        <v>0.96831173124451297</v>
+      </c>
+      <c r="F26">
+        <v>0.967860422405877</v>
+      </c>
+      <c r="G26">
+        <v>0.96790141951911091</v>
+      </c>
+      <c r="H26">
+        <v>0.87545253015789537</v>
+      </c>
+      <c r="I26">
+        <v>3.2139577594123052E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.86999188195406141</v>
+      </c>
+      <c r="K26">
+        <v>0.96896893994692579</v>
+      </c>
+      <c r="L26">
+        <v>477</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>25</v>
+      </c>
+      <c r="O26">
+        <v>577</v>
+      </c>
+      <c r="P26">
+        <v>95.83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
         <v>17</v>
       </c>
-      <c r="D26">
-        <v>0.85491276400367311</v>
-      </c>
-      <c r="E26">
-        <v>0.8590227534757009</v>
-      </c>
-      <c r="F26">
-        <v>0.85491276400367311</v>
-      </c>
-      <c r="G26">
-        <v>0.85530770891033225</v>
-      </c>
-      <c r="H26">
-        <v>0.50339938745040691</v>
-      </c>
-      <c r="I26">
-        <v>0.14508723599632689</v>
-      </c>
-      <c r="J26">
-        <v>0.41310620996404868</v>
-      </c>
-      <c r="K26">
-        <v>0.85798365475792537</v>
-      </c>
-      <c r="L26">
-        <v>432</v>
-      </c>
-      <c r="M26">
-        <v>55</v>
-      </c>
-      <c r="N26">
-        <v>103</v>
-      </c>
-      <c r="O26">
-        <v>499</v>
-      </c>
-      <c r="P26">
-        <v>81.650000000000006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
       <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="E27">
+        <v>0.94259647946798797</v>
+      </c>
+      <c r="F27">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="G27">
+        <v>0.93968855151631314</v>
+      </c>
+      <c r="H27">
+        <v>0.77223116127261637</v>
+      </c>
+      <c r="I27">
+        <v>6.043956043956044E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.75611390284757118</v>
+      </c>
+      <c r="K27">
+        <v>0.9426526572255215</v>
+      </c>
+      <c r="L27">
+        <v>161</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
         <v>18</v>
       </c>
-      <c r="D27">
-        <v>0.84890109890109888</v>
-      </c>
-      <c r="E27">
-        <v>0.85243470297818114</v>
-      </c>
-      <c r="F27">
-        <v>0.84890109890109888</v>
-      </c>
-      <c r="G27">
-        <v>0.84922700185499578</v>
-      </c>
-      <c r="H27">
-        <v>0.48552260735961161</v>
-      </c>
-      <c r="I27">
-        <v>0.15109890109890109</v>
-      </c>
-      <c r="J27">
-        <v>0.39028475711892813</v>
-      </c>
-      <c r="K27">
-        <v>0.85145424090147703</v>
-      </c>
-      <c r="L27">
-        <v>145</v>
-      </c>
-      <c r="M27">
-        <v>20</v>
-      </c>
-      <c r="N27">
-        <v>35</v>
-      </c>
       <c r="O27">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="P27">
-        <v>80.86</v>
+        <v>92.41</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="E28">
+        <v>0.92932770041203772</v>
+      </c>
+      <c r="F28">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G28">
+        <v>0.92869569767289761</v>
+      </c>
+      <c r="H28">
+        <v>0.73394719609214454</v>
+      </c>
+      <c r="I28">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="J28">
+        <v>0.71004901960784306</v>
+      </c>
+      <c r="K28">
+        <v>0.92953431372549011</v>
+      </c>
+      <c r="L28">
+        <v>150</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
         <v>16</v>
       </c>
-      <c r="C28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28">
-        <v>0.80494505494505497</v>
-      </c>
-      <c r="E28">
-        <v>0.81172572559222311</v>
-      </c>
-      <c r="F28">
-        <v>0.80494505494505497</v>
-      </c>
-      <c r="G28">
-        <v>0.80565895719684166</v>
-      </c>
-      <c r="H28">
-        <v>0.37025623759627979</v>
-      </c>
-      <c r="I28">
-        <v>0.19505494505494511</v>
-      </c>
-      <c r="J28">
-        <v>0.20821078431372519</v>
-      </c>
-      <c r="K28">
-        <v>0.80912990196078427</v>
-      </c>
-      <c r="L28">
-        <v>135</v>
-      </c>
-      <c r="M28">
-        <v>25</v>
-      </c>
-      <c r="N28">
-        <v>46</v>
-      </c>
       <c r="O28">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="P28">
-        <v>75.67</v>
+        <v>90.65</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>0.88429752066115708</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0.88896977874545757</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.88429752066115708</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.8846182116218001</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0.59036560587357911</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0.11570247933884301</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>0.53197077503462109</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>0.88809205454781115</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>513</v>
+        <v>602</v>
       </c>
       <c r="P29">
-        <v>85.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>0.8571428571428571</v>
+        <v>0.9505494505494505</v>
       </c>
       <c r="E30">
-        <v>0.86397949010112507</v>
+        <v>0.95216582359439506</v>
       </c>
       <c r="F30">
-        <v>0.8571428571428571</v>
+        <v>0.9505494505494505</v>
       </c>
       <c r="G30">
-        <v>0.85742781155015202</v>
+        <v>0.95063941516336903</v>
       </c>
       <c r="H30">
-        <v>0.50886066348440584</v>
+        <v>0.81146270287091515</v>
       </c>
       <c r="I30">
-        <v>0.14285714285714279</v>
+        <v>4.9450549450549448E-2</v>
       </c>
       <c r="J30">
-        <v>0.42354195218516832</v>
+        <v>0.80045682960255826</v>
       </c>
       <c r="K30">
-        <v>0.86158063042485156</v>
+        <v>0.95270290848180283</v>
       </c>
       <c r="L30">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="O30">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="P30">
-        <v>82.16</v>
+        <v>93.71</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
         <v>20</v>
       </c>
-      <c r="C31" t="s">
-        <v>19</v>
-      </c>
       <c r="D31">
-        <v>0.84065934065934067</v>
+        <v>0.95329670329670335</v>
       </c>
       <c r="E31">
-        <v>0.84689042841216755</v>
+        <v>0.95530109983341505</v>
       </c>
       <c r="F31">
-        <v>0.84065934065934067</v>
+        <v>0.95329670329670335</v>
       </c>
       <c r="G31">
-        <v>0.8412391126157045</v>
+        <v>0.9534257169466861</v>
       </c>
       <c r="H31">
-        <v>0.4627359337122437</v>
+        <v>0.82141907370338085</v>
       </c>
       <c r="I31">
-        <v>0.1593406593406593</v>
+        <v>4.6703296703296697E-2</v>
       </c>
       <c r="J31">
-        <v>0.35318627450980372</v>
+        <v>0.81041666666666656</v>
       </c>
       <c r="K31">
-        <v>0.84503676470588229</v>
+        <v>0.95631127450980391</v>
       </c>
       <c r="L31">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="O31">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="P31">
-        <v>80.010000000000005</v>
+        <v>94.11</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>0.82460973370064283</v>
+        <v>0.85491276400367311</v>
       </c>
       <c r="E32">
-        <v>0.83042796628934246</v>
+        <v>0.8590227534757009</v>
       </c>
       <c r="F32">
-        <v>0.82460973370064283</v>
+        <v>0.85491276400367311</v>
       </c>
       <c r="G32">
-        <v>0.82509967011330709</v>
+        <v>0.85530770891033225</v>
       </c>
       <c r="H32">
-        <v>0.42095960058141257</v>
+        <v>0.50339938745040691</v>
       </c>
       <c r="I32">
-        <v>0.17539026629935719</v>
+        <v>0.14508723599632689</v>
       </c>
       <c r="J32">
-        <v>0.29052712723502089</v>
+        <v>0.41310620996404868</v>
       </c>
       <c r="K32">
-        <v>0.82841759501183598</v>
+        <v>0.85798365475792537</v>
       </c>
       <c r="L32">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="M32">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N32">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="O32">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="P32">
-        <v>78.05</v>
+        <v>81.650000000000006</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <v>0.84890109890109888</v>
@@ -2146,28 +2359,28 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D34">
         <v>0.80494505494505497</v>
       </c>
       <c r="E34">
-        <v>0.81783975791783803</v>
+        <v>0.81172572559222311</v>
       </c>
       <c r="F34">
         <v>0.80494505494505497</v>
       </c>
       <c r="G34">
-        <v>0.80553909201124063</v>
+        <v>0.80565895719684166</v>
       </c>
       <c r="H34">
-        <v>0.3702380929371849</v>
+        <v>0.37025623759627979</v>
       </c>
       <c r="I34">
         <v>0.19505494505494511</v>
@@ -2176,233 +2389,233 @@
         <v>0.20821078431372519</v>
       </c>
       <c r="K34">
-        <v>0.8125</v>
+        <v>0.80912990196078427</v>
       </c>
       <c r="L34">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N34">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O34">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P34">
-        <v>76.099999999999994</v>
+        <v>75.67</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>0.81450872359963267</v>
+        <v>0.88429752066115708</v>
       </c>
       <c r="E35">
-        <v>0.82222897283070961</v>
+        <v>0.88896977874545757</v>
       </c>
       <c r="F35">
-        <v>0.81450872359963267</v>
+        <v>0.88429752066115708</v>
       </c>
       <c r="G35">
-        <v>0.81500226147851829</v>
+        <v>0.8846182116218001</v>
       </c>
       <c r="H35">
-        <v>0.3951099183994628</v>
+        <v>0.59036560587357911</v>
       </c>
       <c r="I35">
-        <v>0.18549127640036731</v>
+        <v>0.11570247933884301</v>
       </c>
       <c r="J35">
-        <v>0.24966743299201169</v>
+        <v>0.53197077503462109</v>
       </c>
       <c r="K35">
-        <v>0.81928138238725123</v>
+        <v>0.88809205454781115</v>
       </c>
       <c r="L35">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="M35">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="N35">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="O35">
-        <v>466</v>
+        <v>513</v>
       </c>
       <c r="P35">
-        <v>76.959999999999994</v>
+        <v>85.4</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>0.81593406593406592</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E36">
-        <v>0.82427304999900286</v>
+        <v>0.86397949010112507</v>
       </c>
       <c r="F36">
-        <v>0.81593406593406592</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G36">
-        <v>0.81624683136974041</v>
+        <v>0.85742781155015202</v>
       </c>
       <c r="H36">
-        <v>0.39760534890694249</v>
+        <v>0.50886066348440584</v>
       </c>
       <c r="I36">
-        <v>0.18406593406593411</v>
+        <v>0.14285714285714279</v>
       </c>
       <c r="J36">
-        <v>0.25725597685396701</v>
+        <v>0.42354195218516832</v>
       </c>
       <c r="K36">
-        <v>0.82078574691640027</v>
+        <v>0.86158063042485156</v>
       </c>
       <c r="L36">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="N36">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="O36">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="P36">
-        <v>77.2</v>
+        <v>82.16</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
         <v>20</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37">
+        <v>0.84065934065934067</v>
+      </c>
+      <c r="E37">
+        <v>0.84689042841216755</v>
+      </c>
+      <c r="F37">
+        <v>0.84065934065934067</v>
+      </c>
+      <c r="G37">
+        <v>0.8412391126157045</v>
+      </c>
+      <c r="H37">
+        <v>0.4627359337122437</v>
+      </c>
+      <c r="I37">
+        <v>0.1593406593406593</v>
+      </c>
+      <c r="J37">
+        <v>0.35318627450980372</v>
+      </c>
+      <c r="K37">
+        <v>0.84503676470588229</v>
+      </c>
+      <c r="L37">
+        <v>141</v>
+      </c>
+      <c r="M37">
         <v>19</v>
       </c>
-      <c r="D37">
-        <v>0.79395604395604391</v>
-      </c>
-      <c r="E37">
-        <v>0.8017983586319789</v>
-      </c>
-      <c r="F37">
-        <v>0.79395604395604391</v>
-      </c>
-      <c r="G37">
-        <v>0.79470966351432837</v>
-      </c>
-      <c r="H37">
-        <v>0.34385924866122031</v>
-      </c>
-      <c r="I37">
-        <v>0.20604395604395601</v>
-      </c>
-      <c r="J37">
-        <v>0.1636029411764702</v>
-      </c>
-      <c r="K37">
-        <v>0.79865196078431377</v>
-      </c>
-      <c r="L37">
-        <v>134</v>
-      </c>
-      <c r="M37">
-        <v>26</v>
-      </c>
       <c r="N37">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="O37">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="P37">
-        <v>74.430000000000007</v>
+        <v>80.010000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.82460973370064283</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0.83042796628934246</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.82460973370064283</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0.82509967011330709</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0.42095960058141257</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>0.17539026629935719</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>0.29052712723502089</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0.82841759501183598</v>
       </c>
       <c r="L38">
-        <v>487</v>
+        <v>421</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="O38">
-        <v>602</v>
+        <v>477</v>
       </c>
       <c r="P38">
-        <v>100</v>
+        <v>78.05</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39">
         <v>0.84890109890109888</v>
@@ -2446,213 +2659,213 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40">
-        <v>0.92307692307692313</v>
+        <v>0.80494505494505497</v>
       </c>
       <c r="E40">
-        <v>0.92307692307692313</v>
+        <v>0.81783975791783803</v>
       </c>
       <c r="F40">
-        <v>0.92307692307692313</v>
+        <v>0.80494505494505497</v>
       </c>
       <c r="G40">
-        <v>0.92296348115446047</v>
+        <v>0.80553909201124063</v>
       </c>
       <c r="H40">
-        <v>0.71513387739973777</v>
+        <v>0.3702380929371849</v>
       </c>
       <c r="I40">
-        <v>7.6923076923076927E-2</v>
+        <v>0.19505494505494511</v>
       </c>
       <c r="J40">
-        <v>0.68774509803921557</v>
+        <v>0.20821078431372519</v>
       </c>
       <c r="K40">
-        <v>0.92058823529411771</v>
+        <v>0.8125</v>
       </c>
       <c r="L40">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N40">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="O40">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="P40">
-        <v>89.57</v>
+        <v>76.099999999999994</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.81450872359963267</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.82222897283070961</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.81450872359963267</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0.81500226147851829</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0.3951099183994628</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>0.18549127640036731</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0.24966743299201169</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>0.81928138238725123</v>
       </c>
       <c r="L41">
-        <v>487</v>
+        <v>421</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O41">
-        <v>602</v>
+        <v>466</v>
       </c>
       <c r="P41">
-        <v>100</v>
+        <v>76.959999999999994</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D42">
-        <v>0.9642857142857143</v>
+        <v>0.81593406593406592</v>
       </c>
       <c r="E42">
-        <v>0.96446793002915465</v>
+        <v>0.82427304999900286</v>
       </c>
       <c r="F42">
-        <v>0.9642857142857143</v>
+        <v>0.81593406593406592</v>
       </c>
       <c r="G42">
-        <v>0.96431096557678841</v>
+        <v>0.81624683136974041</v>
       </c>
       <c r="H42">
-        <v>0.86186277542118572</v>
+        <v>0.39760534890694249</v>
       </c>
       <c r="I42">
-        <v>3.5714285714285712E-2</v>
+        <v>0.18406593406593411</v>
       </c>
       <c r="J42">
-        <v>0.85588548804629205</v>
+        <v>0.25725597685396701</v>
       </c>
       <c r="K42">
-        <v>0.96474798233592207</v>
+        <v>0.82078574691640027</v>
       </c>
       <c r="L42">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="N42">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="O42">
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="P42">
-        <v>95.28</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
         <v>20</v>
       </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
       <c r="D43">
-        <v>0.96153846153846156</v>
+        <v>0.79395604395604391</v>
       </c>
       <c r="E43">
-        <v>0.96153846153846156</v>
+        <v>0.8017983586319789</v>
       </c>
       <c r="F43">
-        <v>0.96153846153846156</v>
+        <v>0.79395604395604391</v>
       </c>
       <c r="G43">
-        <v>0.96153846153846156</v>
+        <v>0.79470966351432837</v>
       </c>
       <c r="H43">
-        <v>0.85164248902756223</v>
+        <v>0.34385924866122031</v>
       </c>
       <c r="I43">
-        <v>3.8461538461538457E-2</v>
+        <v>0.20604395604395601</v>
       </c>
       <c r="J43">
-        <v>0.84387254901960773</v>
+        <v>0.1636029411764702</v>
       </c>
       <c r="K43">
-        <v>0.96096813725490204</v>
+        <v>0.79865196078431377</v>
       </c>
       <c r="L43">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="M43">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N43">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="O43">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="P43">
-        <v>94.8</v>
+        <v>74.430000000000007</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2696,13 +2909,13 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45">
         <v>0.84890109890109888</v>
@@ -2746,63 +2959,63 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="E46">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="F46">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="G46">
+        <v>0.92296348115446047</v>
+      </c>
+      <c r="H46">
+        <v>0.71513387739973777</v>
+      </c>
+      <c r="I46">
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="J46">
+        <v>0.68774509803921557</v>
+      </c>
+      <c r="K46">
+        <v>0.92058823529411771</v>
+      </c>
+      <c r="L46">
+        <v>144</v>
+      </c>
+      <c r="M46">
         <v>16</v>
       </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46">
-        <v>0.92582417582417587</v>
-      </c>
-      <c r="E46">
-        <v>0.92578717493581753</v>
-      </c>
-      <c r="F46">
-        <v>0.92582417582417587</v>
-      </c>
-      <c r="G46">
-        <v>0.92579859226853578</v>
-      </c>
-      <c r="H46">
-        <v>0.72450471958723672</v>
-      </c>
-      <c r="I46">
-        <v>7.4175824175824176E-2</v>
-      </c>
-      <c r="J46">
-        <v>0.69889705882352926</v>
-      </c>
-      <c r="K46">
-        <v>0.92438725490196083</v>
-      </c>
-      <c r="L46">
-        <v>146</v>
-      </c>
-      <c r="M46">
-        <v>14</v>
-      </c>
       <c r="N46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O46">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P46">
-        <v>90.04</v>
+        <v>89.57</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -2846,43 +3059,43 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48">
-        <v>0.95329670329670335</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="E48">
-        <v>0.9532863173411954</v>
+        <v>0.96446793002915465</v>
       </c>
       <c r="F48">
-        <v>0.95329670329670335</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="G48">
-        <v>0.95328425107660431</v>
+        <v>0.96431096557678841</v>
       </c>
       <c r="H48">
-        <v>0.82141345277212341</v>
+        <v>0.86186277542118572</v>
       </c>
       <c r="I48">
-        <v>4.6703296703296697E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="J48">
-        <v>0.81154256129130498</v>
+        <v>0.85588548804629205</v>
       </c>
       <c r="K48">
-        <v>0.95262677021470987</v>
+        <v>0.96474798233592207</v>
       </c>
       <c r="L48">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M48">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N48">
         <v>8</v>
@@ -2891,892 +3104,892 @@
         <v>191</v>
       </c>
       <c r="P48">
-        <v>93.69</v>
+        <v>95.28</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" t="s">
         <v>20</v>
       </c>
-      <c r="C49" t="s">
-        <v>19</v>
-      </c>
       <c r="D49">
-        <v>0.96978021978021978</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="E49">
-        <v>0.96977423558187492</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="F49">
-        <v>0.96978021978021978</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="G49">
-        <v>0.96976979685014431</v>
+        <v>0.96153846153846156</v>
       </c>
       <c r="H49">
-        <v>0.88243233609816907</v>
+        <v>0.85164248902756223</v>
       </c>
       <c r="I49">
-        <v>3.021978021978022E-2</v>
+        <v>3.8461538461538457E-2</v>
       </c>
       <c r="J49">
-        <v>0.87732843137254901</v>
+        <v>0.84387254901960773</v>
       </c>
       <c r="K49">
-        <v>0.9689950980392158</v>
+        <v>0.96096813725490204</v>
       </c>
       <c r="L49">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O49">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P49">
-        <v>95.87</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50">
-        <v>0.83930211202938476</v>
+        <v>1</v>
       </c>
       <c r="E50">
-        <v>0.84768271674097417</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0.83930211202938476</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>0.83971818838118428</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>0.46000842986300722</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0.16069788797061521</v>
+        <v>0</v>
       </c>
       <c r="J50">
-        <v>0.34995940977030721</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>0.84464857047350717</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="M50">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="O50">
-        <v>478</v>
+        <v>602</v>
       </c>
       <c r="P50">
-        <v>80.05</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D51">
-        <v>0.82692307692307687</v>
+        <v>0.84890109890109888</v>
       </c>
       <c r="E51">
-        <v>0.84070898980537534</v>
+        <v>0.85243470297818114</v>
       </c>
       <c r="F51">
-        <v>0.82692307692307687</v>
+        <v>0.84890109890109888</v>
       </c>
       <c r="G51">
-        <v>0.82696618450043113</v>
+        <v>0.84922700185499578</v>
       </c>
       <c r="H51">
-        <v>0.42592051067346259</v>
+        <v>0.48552260735961161</v>
       </c>
       <c r="I51">
-        <v>0.1730769230769231</v>
+        <v>0.15109890109890109</v>
       </c>
       <c r="J51">
-        <v>0.30159890360895392</v>
+        <v>0.39028475711892813</v>
       </c>
       <c r="K51">
-        <v>0.83394243947007751</v>
+        <v>0.85145424090147703</v>
       </c>
       <c r="L51">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N51">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="O51">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="P51">
-        <v>78.87</v>
+        <v>80.86</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52">
-        <v>0.78296703296703296</v>
+        <v>0.92582417582417587</v>
       </c>
       <c r="E52">
-        <v>0.79855647311268618</v>
+        <v>0.92578717493581753</v>
       </c>
       <c r="F52">
-        <v>0.78296703296703296</v>
+        <v>0.92582417582417587</v>
       </c>
       <c r="G52">
-        <v>0.7834833293429373</v>
+        <v>0.92579859226853578</v>
       </c>
       <c r="H52">
-        <v>0.31838971569436381</v>
+        <v>0.72450471958723672</v>
       </c>
       <c r="I52">
-        <v>0.21703296703296701</v>
+        <v>7.4175824175824176E-2</v>
       </c>
       <c r="J52">
-        <v>0.1189950980392154</v>
+        <v>0.69889705882352926</v>
       </c>
       <c r="K52">
-        <v>0.7915441176470589</v>
+        <v>0.92438725490196083</v>
       </c>
       <c r="L52">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M52">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N52">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="O52">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="P52">
-        <v>73.63</v>
+        <v>90.04</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>0.86868686868686873</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>0.87847500537607226</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0.86868686868686873</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0.86900211996508281</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>0.54329765298960075</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>0.1313131313131313</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>0.46882397484087962</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>0.8749530995245145</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="M53">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="O53">
-        <v>491</v>
+        <v>602</v>
       </c>
       <c r="P53">
-        <v>83.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D54">
-        <v>0.82692307692307687</v>
+        <v>0.95329670329670335</v>
       </c>
       <c r="E54">
-        <v>0.8439265935140523</v>
+        <v>0.9532863173411954</v>
       </c>
       <c r="F54">
-        <v>0.82692307692307687</v>
+        <v>0.95329670329670335</v>
       </c>
       <c r="G54">
-        <v>0.82677806995287195</v>
+        <v>0.95328425107660431</v>
       </c>
       <c r="H54">
-        <v>0.42590550940339389</v>
+        <v>0.82141345277212341</v>
       </c>
       <c r="I54">
-        <v>0.1730769230769231</v>
+        <v>4.6703296703296697E-2</v>
       </c>
       <c r="J54">
-        <v>0.30159890360895392</v>
+        <v>0.81154256129130498</v>
       </c>
       <c r="K54">
-        <v>0.83497791990254311</v>
+        <v>0.95262677021470987</v>
       </c>
       <c r="L54">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M54">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N54">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="O54">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="P54">
-        <v>79.040000000000006</v>
+        <v>93.69</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" t="s">
         <v>20</v>
       </c>
-      <c r="C55" t="s">
-        <v>19</v>
-      </c>
       <c r="D55">
-        <v>0.83241758241758246</v>
+        <v>0.96978021978021978</v>
       </c>
       <c r="E55">
-        <v>0.84147484706143927</v>
+        <v>0.96977423558187492</v>
       </c>
       <c r="F55">
-        <v>0.83241758241758246</v>
+        <v>0.96978021978021978</v>
       </c>
       <c r="G55">
-        <v>0.83302000908993756</v>
+        <v>0.96976979685014431</v>
       </c>
       <c r="H55">
-        <v>0.44048514654560739</v>
+        <v>0.88243233609816907</v>
       </c>
       <c r="I55">
-        <v>0.1675824175824176</v>
+        <v>3.021978021978022E-2</v>
       </c>
       <c r="J55">
-        <v>0.3197303921568625</v>
+        <v>0.87732843137254901</v>
       </c>
       <c r="K55">
-        <v>0.83835784313725481</v>
+        <v>0.9689950980392158</v>
       </c>
       <c r="L55">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="M55">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N55">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="O55">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="P55">
-        <v>79.2</v>
+        <v>95.87</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>0.84297520661157022</v>
+        <v>0.83930211202938476</v>
       </c>
       <c r="E56">
-        <v>0.8446460234525629</v>
+        <v>0.84768271674097417</v>
       </c>
       <c r="F56">
-        <v>0.84297520661157022</v>
+        <v>0.83930211202938476</v>
       </c>
       <c r="G56">
-        <v>0.8432918745732525</v>
+        <v>0.83971818838118428</v>
       </c>
       <c r="H56">
-        <v>0.47002926363344899</v>
+        <v>0.46000842986300722</v>
       </c>
       <c r="I56">
-        <v>0.15702479338842981</v>
+        <v>0.16069788797061521</v>
       </c>
       <c r="J56">
-        <v>0.36481748040412859</v>
+        <v>0.34995940977030721</v>
       </c>
       <c r="K56">
-        <v>0.84385211512617087</v>
+        <v>0.84464857047350717</v>
       </c>
       <c r="L56">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="M56">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="N56">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="O56">
-        <v>503</v>
+        <v>478</v>
       </c>
       <c r="P56">
-        <v>79.89</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D57">
-        <v>0.83791208791208793</v>
+        <v>0.82692307692307687</v>
       </c>
       <c r="E57">
-        <v>0.84006385901332725</v>
+        <v>0.84070898980537534</v>
       </c>
       <c r="F57">
-        <v>0.83791208791208793</v>
+        <v>0.82692307692307687</v>
       </c>
       <c r="G57">
-        <v>0.83822283409680265</v>
+        <v>0.82696618450043113</v>
       </c>
       <c r="H57">
-        <v>0.45524716461861858</v>
+        <v>0.42592051067346259</v>
       </c>
       <c r="I57">
-        <v>0.16208791208791209</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="J57">
-        <v>0.34594183036394099</v>
+        <v>0.30159890360895392</v>
       </c>
       <c r="K57">
-        <v>0.83933302878026494</v>
+        <v>0.83394243947007751</v>
       </c>
       <c r="L57">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N57">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="O57">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="P57">
-        <v>79.349999999999994</v>
+        <v>78.87</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58">
-        <v>0.7857142857142857</v>
+        <v>0.78296703296703296</v>
       </c>
       <c r="E58">
-        <v>0.79107337026873081</v>
+        <v>0.79855647311268618</v>
       </c>
       <c r="F58">
-        <v>0.7857142857142857</v>
+        <v>0.78296703296703296</v>
       </c>
       <c r="G58">
-        <v>0.78647506339814033</v>
+        <v>0.7834833293429373</v>
       </c>
       <c r="H58">
-        <v>0.32469356609631589</v>
+        <v>0.31838971569436381</v>
       </c>
       <c r="I58">
-        <v>0.2142857142857143</v>
+        <v>0.21703296703296701</v>
       </c>
       <c r="J58">
-        <v>0.13014705882352909</v>
+        <v>0.1189950980392154</v>
       </c>
       <c r="K58">
-        <v>0.78860294117647056</v>
+        <v>0.7915441176470589</v>
       </c>
       <c r="L58">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="M58">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N58">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="O58">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="P58">
-        <v>73.23</v>
+        <v>73.63</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>0.88705234159779611</v>
+        <v>0.86868686868686873</v>
       </c>
       <c r="E59">
-        <v>0.8901478322358245</v>
+        <v>0.87847500537607226</v>
       </c>
       <c r="F59">
-        <v>0.88705234159779611</v>
+        <v>0.86868686868686873</v>
       </c>
       <c r="G59">
-        <v>0.88734264160804011</v>
+        <v>0.86900211996508281</v>
       </c>
       <c r="H59">
-        <v>0.59886971317452597</v>
+        <v>0.54329765298960075</v>
       </c>
       <c r="I59">
-        <v>0.1129476584022039</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="J59">
-        <v>0.54311432800998727</v>
+        <v>0.46882397484087962</v>
       </c>
       <c r="K59">
-        <v>0.88979923185548515</v>
+        <v>0.8749530995245145</v>
       </c>
       <c r="L59">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="M59">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N59">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="O59">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="P59">
-        <v>85.61</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D60">
-        <v>0.83791208791208793</v>
+        <v>0.82692307692307687</v>
       </c>
       <c r="E60">
-        <v>0.84416086812788504</v>
+        <v>0.8439265935140523</v>
       </c>
       <c r="F60">
-        <v>0.83791208791208793</v>
+        <v>0.82692307692307687</v>
       </c>
       <c r="G60">
-        <v>0.83824648678760094</v>
+        <v>0.82677806995287195</v>
       </c>
       <c r="H60">
-        <v>0.45524914155521168</v>
+        <v>0.42590550940339389</v>
       </c>
       <c r="I60">
-        <v>0.16208791208791209</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="J60">
-        <v>0.34594183036394099</v>
+        <v>0.30159890360895392</v>
       </c>
       <c r="K60">
-        <v>0.84192172986142844</v>
+        <v>0.83497791990254311</v>
       </c>
       <c r="L60">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M60">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N60">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O60">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="P60">
-        <v>79.739999999999995</v>
+        <v>79.040000000000006</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" t="s">
         <v>20</v>
       </c>
-      <c r="C61" t="s">
-        <v>19</v>
-      </c>
       <c r="D61">
-        <v>0.8351648351648352</v>
+        <v>0.83241758241758246</v>
       </c>
       <c r="E61">
-        <v>0.84140255879386305</v>
+        <v>0.84147484706143927</v>
       </c>
       <c r="F61">
-        <v>0.8351648351648352</v>
+        <v>0.83241758241758246</v>
       </c>
       <c r="G61">
-        <v>0.83576459925762536</v>
+        <v>0.83302000908993756</v>
       </c>
       <c r="H61">
-        <v>0.44784220367992589</v>
+        <v>0.44048514654560739</v>
       </c>
       <c r="I61">
-        <v>0.1648351648351648</v>
+        <v>0.1675824175824176</v>
       </c>
       <c r="J61">
-        <v>0.33088235294117618</v>
+        <v>0.3197303921568625</v>
       </c>
       <c r="K61">
-        <v>0.83946078431372551</v>
+        <v>0.83835784313725481</v>
       </c>
       <c r="L61">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N61">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O61">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P61">
-        <v>79.33</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D62">
-        <v>0.84848484848484851</v>
+        <v>0.84297520661157022</v>
       </c>
       <c r="E62">
-        <v>0.84838401861114887</v>
+        <v>0.8446460234525629</v>
       </c>
       <c r="F62">
-        <v>0.84848484848484851</v>
+        <v>0.84297520661157022</v>
       </c>
       <c r="G62">
-        <v>0.84811418032824126</v>
+        <v>0.8432918745732525</v>
       </c>
       <c r="H62">
-        <v>0.48518926367205989</v>
+        <v>0.47002926363344899</v>
       </c>
       <c r="I62">
-        <v>0.15151515151515149</v>
+        <v>0.15702479338842981</v>
       </c>
       <c r="J62">
-        <v>0.387104586354861</v>
+        <v>0.36481748040412859</v>
       </c>
       <c r="K62">
-        <v>0.84471678934694072</v>
+        <v>0.84385211512617087</v>
       </c>
       <c r="L62">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="M62">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="N62">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="O62">
-        <v>530</v>
+        <v>503</v>
       </c>
       <c r="P62">
-        <v>80</v>
+        <v>79.89</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63">
-        <v>0.84065934065934067</v>
+        <v>0.83791208791208793</v>
       </c>
       <c r="E63">
-        <v>0.84155621451582641</v>
+        <v>0.84006385901332725</v>
       </c>
       <c r="F63">
-        <v>0.84065934065934067</v>
+        <v>0.83791208791208793</v>
       </c>
       <c r="G63">
-        <v>0.83983688672148793</v>
+        <v>0.83822283409680265</v>
       </c>
       <c r="H63">
-        <v>0.46263426734242741</v>
+        <v>0.45524716461861858</v>
       </c>
       <c r="I63">
-        <v>0.1593406593406593</v>
+        <v>0.16208791208791209</v>
       </c>
       <c r="J63">
-        <v>0.35702756205268782</v>
+        <v>0.34594183036394099</v>
       </c>
       <c r="K63">
-        <v>0.83563270899954323</v>
+        <v>0.83933302878026494</v>
       </c>
       <c r="L63">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M63">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N63">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="O63">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="P63">
-        <v>78.83</v>
+        <v>79.349999999999994</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D64">
-        <v>0.7994505494505495</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E64">
-        <v>0.79912619458451639</v>
+        <v>0.79107337026873081</v>
       </c>
       <c r="F64">
-        <v>0.7994505494505495</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="G64">
-        <v>0.7992335095883415</v>
+        <v>0.78647506339814033</v>
       </c>
       <c r="H64">
-        <v>0.35679210592435889</v>
+        <v>0.32469356609631589</v>
       </c>
       <c r="I64">
-        <v>0.20054945054945059</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="J64">
-        <v>0.18590686274509771</v>
+        <v>0.13014705882352909</v>
       </c>
       <c r="K64">
-        <v>0.79546568627450986</v>
+        <v>0.78860294117647056</v>
       </c>
       <c r="L64">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="M64">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N64">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="O64">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="P64">
-        <v>74.06</v>
+        <v>73.23</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
         <v>21</v>
       </c>
-      <c r="B65" t="s">
-        <v>20</v>
-      </c>
       <c r="C65" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>0.87235996326905418</v>
+        <v>0.88705234159779611</v>
       </c>
       <c r="E65">
-        <v>0.87476901449965416</v>
+        <v>0.8901478322358245</v>
       </c>
       <c r="F65">
-        <v>0.87235996326905418</v>
+        <v>0.88705234159779611</v>
       </c>
       <c r="G65">
-        <v>0.8726629609289912</v>
+        <v>0.88734264160804011</v>
       </c>
       <c r="H65">
-        <v>0.55419479381738479</v>
+        <v>0.59886971317452597</v>
       </c>
       <c r="I65">
-        <v>0.12764003673094579</v>
+        <v>0.1129476584022039</v>
       </c>
       <c r="J65">
-        <v>0.48368204547470112</v>
+        <v>0.54311432800998727</v>
       </c>
       <c r="K65">
-        <v>0.87435277343829942</v>
+        <v>0.88979923185548515</v>
       </c>
       <c r="L65">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="M65">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N65">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="O65">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="P65">
-        <v>83.67</v>
+        <v>85.61</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
         <v>21</v>
       </c>
-      <c r="B66" t="s">
-        <v>20</v>
-      </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>0.8571428571428571</v>
+        <v>0.83791208791208793</v>
       </c>
       <c r="E66">
-        <v>0.86028342788119316</v>
+        <v>0.84416086812788504</v>
       </c>
       <c r="F66">
-        <v>0.8571428571428571</v>
+        <v>0.83791208791208793</v>
       </c>
       <c r="G66">
-        <v>0.85744566722037663</v>
+        <v>0.83824648678760094</v>
       </c>
       <c r="H66">
-        <v>0.5088620893789112</v>
+        <v>0.45524914155521168</v>
       </c>
       <c r="I66">
-        <v>0.14285714285714279</v>
+        <v>0.16208791208791209</v>
       </c>
       <c r="J66">
-        <v>0.42354195218516832</v>
+        <v>0.34594183036394099</v>
       </c>
       <c r="K66">
-        <v>0.85950966955992081</v>
+        <v>0.84192172986142844</v>
       </c>
       <c r="L66">
         <v>146</v>
@@ -3785,66 +3998,967 @@
         <v>19</v>
       </c>
       <c r="N66">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O66">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="P66">
-        <v>81.849999999999994</v>
+        <v>79.739999999999995</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" t="s">
         <v>21</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>20</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67">
+        <v>0.8351648351648352</v>
+      </c>
+      <c r="E67">
+        <v>0.84140255879386305</v>
+      </c>
+      <c r="F67">
+        <v>0.8351648351648352</v>
+      </c>
+      <c r="G67">
+        <v>0.83576459925762536</v>
+      </c>
+      <c r="H67">
+        <v>0.44784220367992589</v>
+      </c>
+      <c r="I67">
+        <v>0.1648351648351648</v>
+      </c>
+      <c r="J67">
+        <v>0.33088235294117618</v>
+      </c>
+      <c r="K67">
+        <v>0.83946078431372551</v>
+      </c>
+      <c r="L67">
+        <v>140</v>
+      </c>
+      <c r="M67">
+        <v>20</v>
+      </c>
+      <c r="N67">
+        <v>40</v>
+      </c>
+      <c r="O67">
+        <v>164</v>
+      </c>
+      <c r="P67">
+        <v>79.33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68">
+        <v>0.84848484848484851</v>
+      </c>
+      <c r="E68">
+        <v>0.84838401861114887</v>
+      </c>
+      <c r="F68">
+        <v>0.84848484848484851</v>
+      </c>
+      <c r="G68">
+        <v>0.84811418032824126</v>
+      </c>
+      <c r="H68">
+        <v>0.48518926367205989</v>
+      </c>
+      <c r="I68">
+        <v>0.15151515151515149</v>
+      </c>
+      <c r="J68">
+        <v>0.387104586354861</v>
+      </c>
+      <c r="K68">
+        <v>0.84471678934694072</v>
+      </c>
+      <c r="L68">
+        <v>394</v>
+      </c>
+      <c r="M68">
+        <v>93</v>
+      </c>
+      <c r="N68">
+        <v>72</v>
+      </c>
+      <c r="O68">
+        <v>530</v>
+      </c>
+      <c r="P68">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
         <v>19</v>
       </c>
-      <c r="D67">
+      <c r="D69">
+        <v>0.84065934065934067</v>
+      </c>
+      <c r="E69">
+        <v>0.84155621451582641</v>
+      </c>
+      <c r="F69">
+        <v>0.84065934065934067</v>
+      </c>
+      <c r="G69">
+        <v>0.83983688672148793</v>
+      </c>
+      <c r="H69">
+        <v>0.46263426734242741</v>
+      </c>
+      <c r="I69">
+        <v>0.1593406593406593</v>
+      </c>
+      <c r="J69">
+        <v>0.35702756205268782</v>
+      </c>
+      <c r="K69">
+        <v>0.83563270899954323</v>
+      </c>
+      <c r="L69">
+        <v>129</v>
+      </c>
+      <c r="M69">
+        <v>36</v>
+      </c>
+      <c r="N69">
+        <v>22</v>
+      </c>
+      <c r="O69">
+        <v>177</v>
+      </c>
+      <c r="P69">
+        <v>78.83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70">
+        <v>0.7994505494505495</v>
+      </c>
+      <c r="E70">
+        <v>0.79912619458451639</v>
+      </c>
+      <c r="F70">
+        <v>0.7994505494505495</v>
+      </c>
+      <c r="G70">
+        <v>0.7992335095883415</v>
+      </c>
+      <c r="H70">
+        <v>0.35679210592435889</v>
+      </c>
+      <c r="I70">
+        <v>0.20054945054945059</v>
+      </c>
+      <c r="J70">
+        <v>0.18590686274509771</v>
+      </c>
+      <c r="K70">
+        <v>0.79546568627450986</v>
+      </c>
+      <c r="L70">
+        <v>122</v>
+      </c>
+      <c r="M70">
+        <v>38</v>
+      </c>
+      <c r="N70">
+        <v>35</v>
+      </c>
+      <c r="O70">
+        <v>169</v>
+      </c>
+      <c r="P70">
+        <v>74.06</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <v>0.87235996326905418</v>
+      </c>
+      <c r="E71">
+        <v>0.87476901449965416</v>
+      </c>
+      <c r="F71">
+        <v>0.87235996326905418</v>
+      </c>
+      <c r="G71">
+        <v>0.8726629609289912</v>
+      </c>
+      <c r="H71">
+        <v>0.55419479381738479</v>
+      </c>
+      <c r="I71">
+        <v>0.12764003673094579</v>
+      </c>
+      <c r="J71">
+        <v>0.48368204547470112</v>
+      </c>
+      <c r="K71">
+        <v>0.87435277343829942</v>
+      </c>
+      <c r="L71">
+        <v>435</v>
+      </c>
+      <c r="M71">
+        <v>52</v>
+      </c>
+      <c r="N71">
+        <v>87</v>
+      </c>
+      <c r="O71">
+        <v>515</v>
+      </c>
+      <c r="P71">
+        <v>83.67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E72">
+        <v>0.86028342788119316</v>
+      </c>
+      <c r="F72">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G72">
+        <v>0.85744566722037663</v>
+      </c>
+      <c r="H72">
+        <v>0.5088620893789112</v>
+      </c>
+      <c r="I72">
+        <v>0.14285714285714279</v>
+      </c>
+      <c r="J72">
+        <v>0.42354195218516832</v>
+      </c>
+      <c r="K72">
+        <v>0.85950966955992081</v>
+      </c>
+      <c r="L72">
+        <v>146</v>
+      </c>
+      <c r="M72">
+        <v>19</v>
+      </c>
+      <c r="N72">
+        <v>33</v>
+      </c>
+      <c r="O72">
+        <v>166</v>
+      </c>
+      <c r="P72">
+        <v>81.849999999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73">
         <v>0.84890109890109888</v>
       </c>
-      <c r="E67">
+      <c r="E73">
         <v>0.8519933898985439</v>
       </c>
-      <c r="F67">
+      <c r="F73">
         <v>0.84890109890109888</v>
       </c>
-      <c r="G67">
+      <c r="G73">
         <v>0.84936403923745696</v>
       </c>
-      <c r="H67">
+      <c r="H73">
         <v>0.48551633848326958</v>
       </c>
-      <c r="I67">
+      <c r="I73">
         <v>0.15109890109890109</v>
       </c>
-      <c r="J67">
+      <c r="J73">
         <v>0.38664215686274478</v>
       </c>
-      <c r="K67">
+      <c r="K73">
         <v>0.8510416666666667</v>
       </c>
-      <c r="L67">
+      <c r="L73">
         <v>139</v>
       </c>
-      <c r="M67">
+      <c r="M73">
         <v>21</v>
       </c>
-      <c r="N67">
+      <c r="N73">
         <v>34</v>
       </c>
-      <c r="O67">
+      <c r="O73">
         <v>170</v>
       </c>
-      <c r="P67">
+      <c r="P73">
         <v>80.75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74">
+        <v>0.97612488521579432</v>
+      </c>
+      <c r="E74">
+        <v>0.97614073435601612</v>
+      </c>
+      <c r="F74">
+        <v>0.97612488521579432</v>
+      </c>
+      <c r="G74">
+        <v>0.97612948459928539</v>
+      </c>
+      <c r="H74">
+        <v>0.90668488390022894</v>
+      </c>
+      <c r="I74">
+        <v>2.3875114784205689E-2</v>
+      </c>
+      <c r="J74">
+        <v>0.90342254088015994</v>
+      </c>
+      <c r="K74">
+        <v>0.97605176448116138</v>
+      </c>
+      <c r="L74">
+        <v>475</v>
+      </c>
+      <c r="M74">
+        <v>12</v>
+      </c>
+      <c r="N74">
+        <v>14</v>
+      </c>
+      <c r="O74">
+        <v>588</v>
+      </c>
+      <c r="P74">
+        <v>96.79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="E75">
+        <v>0.95119374762134523</v>
+      </c>
+      <c r="F75">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="G75">
+        <v>0.95061252522987227</v>
+      </c>
+      <c r="H75">
+        <v>0.81146023966174408</v>
+      </c>
+      <c r="I75">
+        <v>4.9450549450549448E-2</v>
+      </c>
+      <c r="J75">
+        <v>0.80045682960255826</v>
+      </c>
+      <c r="K75">
+        <v>0.95166742804933757</v>
+      </c>
+      <c r="L75">
+        <v>159</v>
+      </c>
+      <c r="M75">
+        <v>6</v>
+      </c>
+      <c r="N75">
+        <v>12</v>
+      </c>
+      <c r="O75">
+        <v>187</v>
+      </c>
+      <c r="P75">
+        <v>93.57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="s">
+        <v>20</v>
+      </c>
+      <c r="D76">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="E76">
+        <v>0.94823288411244921</v>
+      </c>
+      <c r="F76">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="G76">
+        <v>0.94765873873614737</v>
+      </c>
+      <c r="H76">
+        <v>0.80150845762577216</v>
+      </c>
+      <c r="I76">
+        <v>5.21978021978022E-2</v>
+      </c>
+      <c r="J76">
+        <v>0.78811274509803919</v>
+      </c>
+      <c r="K76">
+        <v>0.94466911764705885</v>
+      </c>
+      <c r="L76">
+        <v>147</v>
+      </c>
+      <c r="M76">
+        <v>13</v>
+      </c>
+      <c r="N76">
+        <v>6</v>
+      </c>
+      <c r="O76">
+        <v>198</v>
+      </c>
+      <c r="P76">
+        <v>92.72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>487</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>602</v>
+      </c>
+      <c r="P77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="E78">
+        <v>0.96764430006862501</v>
+      </c>
+      <c r="F78">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="G78">
+        <v>0.96707501681991481</v>
+      </c>
+      <c r="H78">
+        <v>0.87212717603262802</v>
+      </c>
+      <c r="I78">
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="J78">
+        <v>0.86697121973503888</v>
+      </c>
+      <c r="K78">
+        <v>0.96829602558245775</v>
+      </c>
+      <c r="L78">
+        <v>162</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>9</v>
+      </c>
+      <c r="O78">
+        <v>190</v>
+      </c>
+      <c r="P78">
+        <v>95.76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79">
+        <v>0.97252747252747251</v>
+      </c>
+      <c r="E79">
+        <v>0.97262217064197265</v>
+      </c>
+      <c r="F79">
+        <v>0.97252747252747251</v>
+      </c>
+      <c r="G79">
+        <v>0.97254512461194831</v>
+      </c>
+      <c r="H79">
+        <v>0.89282251053769246</v>
+      </c>
+      <c r="I79">
+        <v>2.7472527472527469E-2</v>
+      </c>
+      <c r="J79">
+        <v>0.8884803921568627</v>
+      </c>
+      <c r="K79">
+        <v>0.97279411764705881</v>
+      </c>
+      <c r="L79">
+        <v>156</v>
+      </c>
+      <c r="M79">
+        <v>4</v>
+      </c>
+      <c r="N79">
+        <v>6</v>
+      </c>
+      <c r="O79">
+        <v>198</v>
+      </c>
+      <c r="P79">
+        <v>96.34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80">
+        <v>0.97612488521579432</v>
+      </c>
+      <c r="E80">
+        <v>0.97614073435601612</v>
+      </c>
+      <c r="F80">
+        <v>0.97612488521579432</v>
+      </c>
+      <c r="G80">
+        <v>0.97612948459928539</v>
+      </c>
+      <c r="H80">
+        <v>0.90668488390022894</v>
+      </c>
+      <c r="I80">
+        <v>2.3875114784205689E-2</v>
+      </c>
+      <c r="J80">
+        <v>0.90342254088015994</v>
+      </c>
+      <c r="K80">
+        <v>0.97605176448116138</v>
+      </c>
+      <c r="L80">
+        <v>475</v>
+      </c>
+      <c r="M80">
+        <v>12</v>
+      </c>
+      <c r="N80">
+        <v>14</v>
+      </c>
+      <c r="O80">
+        <v>588</v>
+      </c>
+      <c r="P80">
+        <v>96.79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="E81">
+        <v>0.95119374762134523</v>
+      </c>
+      <c r="F81">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="G81">
+        <v>0.95061252522987227</v>
+      </c>
+      <c r="H81">
+        <v>0.81146023966174408</v>
+      </c>
+      <c r="I81">
+        <v>4.9450549450549448E-2</v>
+      </c>
+      <c r="J81">
+        <v>0.80045682960255826</v>
+      </c>
+      <c r="K81">
+        <v>0.95166742804933757</v>
+      </c>
+      <c r="L81">
+        <v>159</v>
+      </c>
+      <c r="M81">
+        <v>6</v>
+      </c>
+      <c r="N81">
+        <v>12</v>
+      </c>
+      <c r="O81">
+        <v>187</v>
+      </c>
+      <c r="P81">
+        <v>93.57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="E82">
+        <v>0.945638770365682</v>
+      </c>
+      <c r="F82">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="G82">
+        <v>0.94487883910960846</v>
+      </c>
+      <c r="H82">
+        <v>0.7916627248267798</v>
+      </c>
+      <c r="I82">
+        <v>5.4945054945054937E-2</v>
+      </c>
+      <c r="J82">
+        <v>0.77696078431372539</v>
+      </c>
+      <c r="K82">
+        <v>0.94154411764705892</v>
+      </c>
+      <c r="L82">
+        <v>146</v>
+      </c>
+      <c r="M82">
+        <v>14</v>
+      </c>
+      <c r="N82">
+        <v>6</v>
+      </c>
+      <c r="O82">
+        <v>198</v>
+      </c>
+      <c r="P82">
+        <v>92.33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83">
+        <v>0.99908172635445358</v>
+      </c>
+      <c r="E83">
+        <v>0.99908324919632019</v>
+      </c>
+      <c r="F83">
+        <v>0.99908172635445358</v>
+      </c>
+      <c r="G83">
+        <v>0.99908163550334694</v>
+      </c>
+      <c r="H83">
+        <v>0.99632650527780064</v>
+      </c>
+      <c r="I83">
+        <v>9.1827364554637281E-4</v>
+      </c>
+      <c r="J83">
+        <v>0.99628548234154457</v>
+      </c>
+      <c r="K83">
+        <v>0.99897330595482547</v>
+      </c>
+      <c r="L83">
+        <v>486</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>602</v>
+      </c>
+      <c r="P83">
+        <v>99.86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="E84">
+        <v>0.96764430006862501</v>
+      </c>
+      <c r="F84">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="G84">
+        <v>0.96707501681991481</v>
+      </c>
+      <c r="H84">
+        <v>0.87212717603262802</v>
+      </c>
+      <c r="I84">
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="J84">
+        <v>0.86697121973503888</v>
+      </c>
+      <c r="K84">
+        <v>0.96829602558245775</v>
+      </c>
+      <c r="L84">
+        <v>162</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <v>9</v>
+      </c>
+      <c r="O84">
+        <v>190</v>
+      </c>
+      <c r="P84">
+        <v>95.76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85">
+        <v>0.96978021978021978</v>
+      </c>
+      <c r="E85">
+        <v>0.97023914109341247</v>
+      </c>
+      <c r="F85">
+        <v>0.96978021978021978</v>
+      </c>
+      <c r="G85">
+        <v>0.96982521200883465</v>
+      </c>
+      <c r="H85">
+        <v>0.88244249920796769</v>
+      </c>
+      <c r="I85">
+        <v>3.021978021978022E-2</v>
+      </c>
+      <c r="J85">
+        <v>0.87732843137254901</v>
+      </c>
+      <c r="K85">
+        <v>0.97101715686274515</v>
+      </c>
+      <c r="L85">
+        <v>157</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>8</v>
+      </c>
+      <c r="O85">
+        <v>196</v>
+      </c>
+      <c r="P85">
+        <v>96.08</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/model_results.xlsx
+++ b/model_results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2509de95a29fd27c/Documentos/Master/Lusku/TFM/Repositorio compartido/kschool_master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_738D17805BC0561DA3F93C11595ED87656CC9D5C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4019BB9-3C97-4F58-8D2C-0E93192C1F21}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_068D95805B00DC5D93F93D11595ED87656CC7696" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E8F36EF-12F5-4290-BAB1-B1426487F04D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Results Isolated" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -22,11 +23,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={7D3904E1-F4B8-467D-9050-B2EE34817348}</author>
-    <author>tc={91B284A7-25C2-4CB3-87A5-86FDFAE6F99D}</author>
+    <author>tc={2C7032AB-0A52-4BC7-A23B-701AA6B2809B}</author>
+    <author>tc={A67703B6-7743-4C29-B48F-2EBD4AE8F3B7}</author>
   </authors>
   <commentList>
-    <comment ref="A74" authorId="0" shapeId="0" xr:uid="{7D3904E1-F4B8-467D-9050-B2EE34817348}">
+    <comment ref="A92" authorId="0" shapeId="0" xr:uid="{2C7032AB-0A52-4BC7-A23B-701AA6B2809B}">
       <text>
         <t xml:space="preserve">[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -75,7 +76,7 @@
 </t>
       </text>
     </comment>
-    <comment ref="A80" authorId="1" shapeId="0" xr:uid="{91B284A7-25C2-4CB3-87A5-86FDFAE6F99D}">
+    <comment ref="A98" authorId="1" shapeId="0" xr:uid="{A67703B6-7743-4C29-B48F-2EBD4AE8F3B7}">
       <text>
         <t>[Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
@@ -128,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="37">
   <si>
     <t>Model</t>
   </si>
@@ -178,7 +179,7 @@
     <t>Global Score</t>
   </si>
   <si>
-    <t>KNN</t>
+    <t>AdaBoost</t>
   </si>
   <si>
     <t>1</t>
@@ -196,27 +197,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>SVM</t>
-  </si>
-  <si>
-    <t>Naive Bayes - Bernoulli</t>
-  </si>
-  <si>
-    <t>Gradient Boosting</t>
-  </si>
-  <si>
-    <t>Regresión polinomial</t>
-  </si>
-  <si>
-    <t>SVR</t>
-  </si>
-  <si>
-    <t>Perceptrón Multicapa (MLP)</t>
-  </si>
-  <si>
-    <t>Voting Classifier (KNN + Gradient Boosting + AdaBoost)</t>
-  </si>
-  <si>
     <t>Regresion Lineal</t>
   </si>
   <si>
@@ -229,7 +209,37 @@
     <t>Random Forest</t>
   </si>
   <si>
-    <t>AdaBoost 2</t>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Naive Bayes - Gaussian</t>
+  </si>
+  <si>
+    <t>Naive Bayes - Bernoulli</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Gradient Boosting</t>
+  </si>
+  <si>
+    <t>SVR</t>
+  </si>
+  <si>
+    <t>Regresión polinomial</t>
+  </si>
+  <si>
+    <t>Perceptrón Multicapa (MLP)</t>
+  </si>
+  <si>
+    <t>Voting Classifier (KNN + Gradient Boosting + AdaBoost)</t>
+  </si>
+  <si>
+    <t>Redes Neuronales Artificiales</t>
+  </si>
+  <si>
+    <t>ELM</t>
   </si>
 </sst>
 </file>
@@ -256,12 +266,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -291,11 +307,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -315,7 +332,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Dani del Río Alonso" id="{D3B44849-38EE-4151-BD21-99F72E7A5887}" userId="2509de95a29fd27c" providerId="Windows Live"/>
+  <person displayName="Dani del Río Alonso" id="{1A2CA212-BF64-4379-8165-6FBA2E797910}" userId="2509de95a29fd27c" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -604,7 +621,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A74" dT="2024-07-01T17:03:21.83" personId="{D3B44849-38EE-4151-BD21-99F72E7A5887}" id="{7D3904E1-F4B8-467D-9050-B2EE34817348}">
+  <threadedComment ref="A92" dT="2024-07-01T17:03:21.83" personId="{1A2CA212-BF64-4379-8165-6FBA2E797910}" id="{2C7032AB-0A52-4BC7-A23B-701AA6B2809B}">
     <text xml:space="preserve"># HIPERPARAMETROS
 best_params_knn = {
     'algorithm': 'brute',
@@ -648,7 +665,7 @@
 }
 </text>
   </threadedComment>
-  <threadedComment ref="A80" dT="2024-07-01T17:05:15.18" personId="{D3B44849-38EE-4151-BD21-99F72E7A5887}" id="{91B284A7-25C2-4CB3-87A5-86FDFAE6F99D}">
+  <threadedComment ref="A98" dT="2024-07-01T17:05:15.18" personId="{1A2CA212-BF64-4379-8165-6FBA2E797910}" id="{A67703B6-7743-4C29-B48F-2EBD4AE8F3B7}">
     <text>HIPERPARAMETROS
 best_params_knn = {
     'algorithm': 'brute',
@@ -696,16 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R79" sqref="R79"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="W92" sqref="W92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -759,7 +773,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -809,7 +823,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -859,7 +873,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -877,7 +891,7 @@
         <v>0.76098901098901095</v>
       </c>
       <c r="G4">
-        <v>0.75965060580445187</v>
+        <v>0.75965060580445209</v>
       </c>
       <c r="H4">
         <v>0.27015873237742077</v>
@@ -909,7 +923,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -918,48 +932,48 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>0.82460973370064283</v>
+        <v>0.80073461891643705</v>
       </c>
       <c r="E5">
-        <v>0.8463025189053508</v>
+        <v>0.82362151960366492</v>
       </c>
       <c r="F5">
-        <v>0.82460973370064283</v>
+        <v>0.80073461891643705</v>
       </c>
       <c r="G5">
-        <v>0.82442485096296636</v>
+        <v>0.80038236069952817</v>
       </c>
       <c r="H5">
-        <v>0.42086840196670611</v>
+        <v>0.36106528793103421</v>
       </c>
       <c r="I5">
-        <v>0.17539026629935719</v>
+        <v>0.1992653810835629</v>
       </c>
       <c r="J5">
-        <v>0.29052712723502089</v>
+        <v>0.1939496681151808</v>
       </c>
       <c r="K5">
-        <v>0.83488986062884152</v>
+        <v>0.81133388363224568</v>
       </c>
       <c r="L5">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="M5">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N5">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="O5">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="P5">
-        <v>78.98</v>
+        <v>76.17</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -968,28 +982,28 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>0.7994505494505495</v>
+        <v>0.78296703296703296</v>
       </c>
       <c r="E6">
-        <v>0.82705299373523677</v>
+        <v>0.81639194139194127</v>
       </c>
       <c r="F6">
-        <v>0.7994505494505495</v>
+        <v>0.78296703296703296</v>
       </c>
       <c r="G6">
-        <v>0.79833614155952382</v>
+        <v>0.78106878544196323</v>
       </c>
       <c r="H6">
-        <v>0.35680692041710887</v>
+        <v>0.31824148619173348</v>
       </c>
       <c r="I6">
-        <v>0.20054945054945059</v>
+        <v>0.21703296703296701</v>
       </c>
       <c r="J6">
-        <v>0.19074158672148631</v>
+        <v>0.1242271965890058</v>
       </c>
       <c r="K6">
-        <v>0.81037003197807222</v>
+        <v>0.79529465509365005</v>
       </c>
       <c r="L6">
         <v>153</v>
@@ -998,18 +1012,18 @@
         <v>12</v>
       </c>
       <c r="N6">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="O6">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="P6">
-        <v>76.23</v>
+        <v>74.510000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1018,48 +1032,48 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>0.79395604395604391</v>
+        <v>0.75824175824175821</v>
       </c>
       <c r="E7">
-        <v>0.81295689235387736</v>
+        <v>0.79522833582152408</v>
       </c>
       <c r="F7">
-        <v>0.79395604395604391</v>
+        <v>0.75824175824175821</v>
       </c>
       <c r="G7">
-        <v>0.79425934484022664</v>
+        <v>0.75675795104366539</v>
       </c>
       <c r="H7">
-        <v>0.34379118473672388</v>
+        <v>0.2644160258236668</v>
       </c>
       <c r="I7">
-        <v>0.20604395604395601</v>
+        <v>0.24175824175824179</v>
       </c>
       <c r="J7">
-        <v>0.1636029411764702</v>
+        <v>1.8627450980391761E-2</v>
       </c>
       <c r="K7">
-        <v>0.80404411764705885</v>
+        <v>0.77420343137254899</v>
       </c>
       <c r="L7">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N7">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="O7">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="P7">
-        <v>75.12</v>
+        <v>71.739999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -1109,7 +1123,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -1159,7 +1173,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -1168,34 +1182,34 @@
         <v>20</v>
       </c>
       <c r="D10">
-        <v>0.80219780219780223</v>
+        <v>0.7994505494505495</v>
       </c>
       <c r="E10">
-        <v>0.81727653789509447</v>
+        <v>0.81374320616207718</v>
       </c>
       <c r="F10">
-        <v>0.80219780219780223</v>
+        <v>0.7994505494505495</v>
       </c>
       <c r="G10">
-        <v>0.80270576880746369</v>
+        <v>0.80000049808548412</v>
       </c>
       <c r="H10">
-        <v>0.3635333961546513</v>
+        <v>0.35690886297354107</v>
       </c>
       <c r="I10">
-        <v>0.19780219780219779</v>
+        <v>0.20054945054945059</v>
       </c>
       <c r="J10">
-        <v>0.19705882352941151</v>
+        <v>0.18590686274509771</v>
       </c>
       <c r="K10">
-        <v>0.81072303921568623</v>
+        <v>0.80759803921568629</v>
       </c>
       <c r="L10">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>53</v>
@@ -1204,12 +1218,12 @@
         <v>151</v>
       </c>
       <c r="P10">
-        <v>75.89</v>
+        <v>75.52</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -1218,48 +1232,48 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>0.84022038567493118</v>
+        <v>0.83562901744719931</v>
       </c>
       <c r="E11">
-        <v>0.84587798953078841</v>
+        <v>0.84145053934104663</v>
       </c>
       <c r="F11">
-        <v>0.84022038567493118</v>
+        <v>0.83562901744719931</v>
       </c>
       <c r="G11">
-        <v>0.84066702802797466</v>
+        <v>0.83608817251456524</v>
       </c>
       <c r="H11">
-        <v>0.46251113226749219</v>
+        <v>0.45008750882534948</v>
       </c>
       <c r="I11">
-        <v>0.1597796143250689</v>
+        <v>0.16437098255280069</v>
       </c>
       <c r="J11">
-        <v>0.35367392742876252</v>
+        <v>0.33510133913648549</v>
       </c>
       <c r="K11">
-        <v>0.84410623042971067</v>
+        <v>0.83956114798720216</v>
       </c>
       <c r="L11">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="M11">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O11">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="P11">
-        <v>79.95</v>
+        <v>79.400000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -1268,28 +1282,28 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>0.84890109890109888</v>
+        <v>0.84065934065934067</v>
       </c>
       <c r="E12">
-        <v>0.86304007237742175</v>
+        <v>0.85711116097527595</v>
       </c>
       <c r="F12">
-        <v>0.84890109890109888</v>
+        <v>0.84065934065934067</v>
       </c>
       <c r="G12">
-        <v>0.84893873250037644</v>
+        <v>0.84057275031824441</v>
       </c>
       <c r="H12">
-        <v>0.48549908131073649</v>
+        <v>0.46269277485736698</v>
       </c>
       <c r="I12">
-        <v>0.15109890109890109</v>
+        <v>0.1593406593406593</v>
       </c>
       <c r="J12">
-        <v>0.39028475711892813</v>
+        <v>0.35702756205268782</v>
       </c>
       <c r="K12">
-        <v>0.85611390284757116</v>
+        <v>0.84857621440536013</v>
       </c>
       <c r="L12">
         <v>154</v>
@@ -1298,18 +1312,18 @@
         <v>11</v>
       </c>
       <c r="N12">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O12">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P12">
-        <v>81.59</v>
+        <v>80.69</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1318,48 +1332,48 @@
         <v>20</v>
       </c>
       <c r="D13">
-        <v>0.84340659340659341</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="E13">
-        <v>0.85128324563158364</v>
+        <v>0.83304610733182161</v>
       </c>
       <c r="F13">
-        <v>0.84340659340659341</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="G13">
-        <v>0.8439793442708895</v>
+        <v>0.8220158397748345</v>
       </c>
       <c r="H13">
-        <v>0.47027418649701008</v>
+        <v>0.41165785681163791</v>
       </c>
       <c r="I13">
-        <v>0.15659340659340659</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="J13">
-        <v>0.36433823529411741</v>
+        <v>0.27512254901960748</v>
       </c>
       <c r="K13">
-        <v>0.84883578431372553</v>
+        <v>0.82855392156862739</v>
       </c>
       <c r="L13">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N13">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="O13">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="P13">
-        <v>80.47</v>
+        <v>78.02</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1409,7 +1423,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1459,7 +1473,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1509,7 +1523,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1518,48 +1532,48 @@
         <v>18</v>
       </c>
       <c r="D17">
-        <v>0.84022038567493118</v>
+        <v>0.93572084481175388</v>
       </c>
       <c r="E17">
-        <v>0.84587798953078841</v>
+        <v>0.93685754706689606</v>
       </c>
       <c r="F17">
-        <v>0.84022038567493118</v>
+        <v>0.93572084481175388</v>
       </c>
       <c r="G17">
-        <v>0.84066702802797466</v>
+        <v>0.93546114711388118</v>
       </c>
       <c r="H17">
-        <v>0.46251113226749219</v>
+        <v>0.75912503557721622</v>
       </c>
       <c r="I17">
-        <v>0.1597796143250689</v>
+        <v>6.4279155188246104E-2</v>
       </c>
       <c r="J17">
-        <v>0.35367392742876252</v>
+        <v>0.73998376390812282</v>
       </c>
       <c r="K17">
-        <v>0.84410623042971067</v>
+        <v>0.9318578727990886</v>
       </c>
       <c r="L17">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="M17">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="N17">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="O17">
-        <v>486</v>
+        <v>583</v>
       </c>
       <c r="P17">
-        <v>79.95</v>
+        <v>91.04</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -1568,48 +1582,48 @@
         <v>19</v>
       </c>
       <c r="D18">
-        <v>0.84890109890109888</v>
+        <v>0.89560439560439564</v>
       </c>
       <c r="E18">
-        <v>0.86304007237742175</v>
+        <v>0.89594658702938956</v>
       </c>
       <c r="F18">
-        <v>0.84890109890109888</v>
+        <v>0.89560439560439564</v>
       </c>
       <c r="G18">
-        <v>0.84893873250037644</v>
+        <v>0.89533608392036312</v>
       </c>
       <c r="H18">
-        <v>0.48549908131073649</v>
+        <v>0.62494473778998161</v>
       </c>
       <c r="I18">
-        <v>0.15109890109890109</v>
+        <v>0.1043956043956044</v>
       </c>
       <c r="J18">
-        <v>0.39028475711892813</v>
+        <v>0.5787421958276231</v>
       </c>
       <c r="K18">
-        <v>0.85611390284757116</v>
+        <v>0.89261458809197503</v>
       </c>
       <c r="L18">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="N18">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="O18">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="P18">
-        <v>81.59</v>
+        <v>85.94</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -1618,48 +1632,48 @@
         <v>20</v>
       </c>
       <c r="D19">
-        <v>0.84340659340659341</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="E19">
-        <v>0.85128324563158364</v>
+        <v>0.88644133644133649</v>
       </c>
       <c r="F19">
-        <v>0.84340659340659341</v>
+        <v>0.88461538461538458</v>
       </c>
       <c r="G19">
-        <v>0.8439793442708895</v>
+        <v>0.88375601558322503</v>
       </c>
       <c r="H19">
-        <v>0.47027418649701008</v>
+        <v>0.59039162575885207</v>
       </c>
       <c r="I19">
-        <v>0.15659340659340659</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="J19">
-        <v>0.36433823529411741</v>
+        <v>0.53161764705882342</v>
       </c>
       <c r="K19">
-        <v>0.84883578431372553</v>
+        <v>0.87751225490196072</v>
       </c>
       <c r="L19">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N19">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="O19">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="P19">
-        <v>80.47</v>
+        <v>84.19</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -1709,7 +1723,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -1718,48 +1732,48 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>0.91758241758241754</v>
+        <v>0.91208791208791207</v>
       </c>
       <c r="E21">
-        <v>0.9180598625350771</v>
+        <v>0.91337052502371707</v>
       </c>
       <c r="F21">
-        <v>0.91758241758241754</v>
+        <v>0.91208791208791207</v>
       </c>
       <c r="G21">
-        <v>0.91737059256870779</v>
+        <v>0.91171571180775024</v>
       </c>
       <c r="H21">
-        <v>0.69663757447978814</v>
+        <v>0.67833844849239144</v>
       </c>
       <c r="I21">
-        <v>8.2417582417582416E-2</v>
+        <v>8.7912087912087919E-2</v>
       </c>
       <c r="J21">
-        <v>0.66742804933759714</v>
+        <v>0.6452565859601036</v>
       </c>
       <c r="K21">
-        <v>0.91478605146946856</v>
+        <v>0.90820770519262983</v>
       </c>
       <c r="L21">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O21">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P21">
-        <v>88.77</v>
+        <v>87.93</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -1768,48 +1782,48 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>0.90109890109890112</v>
+        <v>0.91208791208791207</v>
       </c>
       <c r="E22">
-        <v>0.90135534773072001</v>
+        <v>0.91242620338946068</v>
       </c>
       <c r="F22">
-        <v>0.90109890109890112</v>
+        <v>0.91208791208791207</v>
       </c>
       <c r="G22">
-        <v>0.90078191039729494</v>
+        <v>0.9118061425753734</v>
       </c>
       <c r="H22">
-        <v>0.64243509516782205</v>
+        <v>0.6782884867092599</v>
       </c>
       <c r="I22">
-        <v>9.8901098901098897E-2</v>
+        <v>8.7912087912087919E-2</v>
       </c>
       <c r="J22">
-        <v>0.59852941176470575</v>
+        <v>0.64313725490196072</v>
       </c>
       <c r="K22">
-        <v>0.89693627450980407</v>
+        <v>0.90808823529411764</v>
       </c>
       <c r="L22">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N22">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O22">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P22">
-        <v>86.58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -1859,7 +1873,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -1909,7 +1923,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -1918,34 +1932,34 @@
         <v>20</v>
       </c>
       <c r="D25">
-        <v>0.9505494505494505</v>
+        <v>0.93956043956043955</v>
       </c>
       <c r="E25">
-        <v>0.95084915084915089</v>
+        <v>0.94051555920714802</v>
       </c>
       <c r="F25">
-        <v>0.9505494505494505</v>
+        <v>0.93956043956043955</v>
       </c>
       <c r="G25">
-        <v>0.95043533038548267</v>
+        <v>0.93930856918972372</v>
       </c>
       <c r="H25">
-        <v>0.81141419659759362</v>
+        <v>0.77215120817931282</v>
       </c>
       <c r="I25">
-        <v>4.9450549450549448E-2</v>
+        <v>6.043956043956044E-2</v>
       </c>
       <c r="J25">
-        <v>0.79926470588235288</v>
+        <v>0.75465686274509791</v>
       </c>
       <c r="K25">
-        <v>0.9477941176470589</v>
+        <v>0.93529411764705894</v>
       </c>
       <c r="L25">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M25">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>6</v>
@@ -1954,12 +1968,12 @@
         <v>198</v>
       </c>
       <c r="P25">
-        <v>93.12</v>
+        <v>91.53</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -1968,48 +1982,48 @@
         <v>18</v>
       </c>
       <c r="D26">
-        <v>0.967860422405877</v>
+        <v>0.96326905417814512</v>
       </c>
       <c r="E26">
-        <v>0.96831173124451297</v>
+        <v>0.96336894207943058</v>
       </c>
       <c r="F26">
-        <v>0.967860422405877</v>
+        <v>0.96326905417814512</v>
       </c>
       <c r="G26">
-        <v>0.96790141951911091</v>
+        <v>0.96328951518336403</v>
       </c>
       <c r="H26">
-        <v>0.87545253015789537</v>
+        <v>0.85833112682534785</v>
       </c>
       <c r="I26">
-        <v>3.2139577594123052E-2</v>
+        <v>3.6730945821854911E-2</v>
       </c>
       <c r="J26">
-        <v>0.86999188195406141</v>
+        <v>0.85141929366178448</v>
       </c>
       <c r="K26">
-        <v>0.96896893994692579</v>
+        <v>0.96344321119881027</v>
       </c>
       <c r="L26">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N26">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O26">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="P26">
-        <v>95.83</v>
+        <v>95.11</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>17</v>
@@ -2018,48 +2032,48 @@
         <v>19</v>
       </c>
       <c r="D27">
-        <v>0.93956043956043955</v>
+        <v>0.93681318681318682</v>
       </c>
       <c r="E27">
-        <v>0.94259647946798797</v>
+        <v>0.93876768178629888</v>
       </c>
       <c r="F27">
-        <v>0.93956043956043955</v>
+        <v>0.93681318681318682</v>
       </c>
       <c r="G27">
-        <v>0.93968855151631314</v>
+        <v>0.93693432515638075</v>
       </c>
       <c r="H27">
-        <v>0.77223116127261637</v>
+        <v>0.76257313209801758</v>
       </c>
       <c r="I27">
-        <v>6.043956043956044E-2</v>
+        <v>6.3186813186813184E-2</v>
       </c>
       <c r="J27">
-        <v>0.75611390284757118</v>
+        <v>0.74502817115882447</v>
       </c>
       <c r="K27">
-        <v>0.9426526572255215</v>
+        <v>0.93910461397898581</v>
       </c>
       <c r="L27">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N27">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O27">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P27">
-        <v>92.41</v>
+        <v>91.94</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
@@ -2071,16 +2085,16 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="E28">
-        <v>0.92932770041203772</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="F28">
         <v>0.9285714285714286</v>
       </c>
       <c r="G28">
-        <v>0.92869569767289761</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H28">
-        <v>0.73394719609214454</v>
+        <v>0.7339253456273912</v>
       </c>
       <c r="I28">
         <v>7.1428571428571425E-2</v>
@@ -2089,27 +2103,27 @@
         <v>0.71004901960784306</v>
       </c>
       <c r="K28">
-        <v>0.92953431372549011</v>
+        <v>0.92751225490196076</v>
       </c>
       <c r="L28">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O28">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P28">
-        <v>90.65</v>
+        <v>90.43</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
@@ -2159,7 +2173,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
@@ -2209,7 +2223,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
@@ -2259,7 +2273,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
         <v>17</v>
@@ -2309,7 +2323,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -2327,7 +2341,7 @@
         <v>0.84890109890109888</v>
       </c>
       <c r="G33">
-        <v>0.84922700185499578</v>
+        <v>0.84922700185499611</v>
       </c>
       <c r="H33">
         <v>0.48552260735961161</v>
@@ -2359,7 +2373,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
         <v>17</v>
@@ -2409,7 +2423,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
@@ -2418,48 +2432,48 @@
         <v>18</v>
       </c>
       <c r="D35">
-        <v>0.88429752066115708</v>
+        <v>0.88337924701561066</v>
       </c>
       <c r="E35">
-        <v>0.88896977874545757</v>
+        <v>0.88575897916429669</v>
       </c>
       <c r="F35">
-        <v>0.88429752066115708</v>
+        <v>0.88337924701561066</v>
       </c>
       <c r="G35">
-        <v>0.8846182116218001</v>
+        <v>0.88365608660418626</v>
       </c>
       <c r="H35">
-        <v>0.59036560587357911</v>
+        <v>0.58753649935513186</v>
       </c>
       <c r="I35">
-        <v>0.11570247933884301</v>
+        <v>0.1166207529843893</v>
       </c>
       <c r="J35">
-        <v>0.53197077503462109</v>
+        <v>0.52825625737616577</v>
       </c>
       <c r="K35">
-        <v>0.88809205454781115</v>
+        <v>0.8854963264136656</v>
       </c>
       <c r="L35">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N35">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="O35">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="P35">
-        <v>85.4</v>
+        <v>85.06</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
@@ -2468,48 +2482,48 @@
         <v>19</v>
       </c>
       <c r="D36">
-        <v>0.8571428571428571</v>
+        <v>0.85164835164835162</v>
       </c>
       <c r="E36">
-        <v>0.86397949010112507</v>
+        <v>0.8584667243690175</v>
       </c>
       <c r="F36">
-        <v>0.8571428571428571</v>
+        <v>0.85164835164835162</v>
       </c>
       <c r="G36">
-        <v>0.85742781155015202</v>
+        <v>0.85194426584054239</v>
       </c>
       <c r="H36">
-        <v>0.50886066348440584</v>
+        <v>0.49324010766327381</v>
       </c>
       <c r="I36">
-        <v>0.14285714285714279</v>
+        <v>0.14835164835164841</v>
       </c>
       <c r="J36">
-        <v>0.42354195218516832</v>
+        <v>0.40137048880767479</v>
       </c>
       <c r="K36">
-        <v>0.86158063042485156</v>
+        <v>0.85603776458047809</v>
       </c>
       <c r="L36">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N36">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O36">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P36">
-        <v>82.16</v>
+        <v>81.48</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
@@ -2518,48 +2532,48 @@
         <v>20</v>
       </c>
       <c r="D37">
-        <v>0.84065934065934067</v>
+        <v>0.81318681318681318</v>
       </c>
       <c r="E37">
-        <v>0.84689042841216755</v>
+        <v>0.82049269411906778</v>
       </c>
       <c r="F37">
-        <v>0.84065934065934067</v>
+        <v>0.81318681318681318</v>
       </c>
       <c r="G37">
-        <v>0.8412391126157045</v>
+        <v>0.81387173260639312</v>
       </c>
       <c r="H37">
-        <v>0.4627359337122437</v>
+        <v>0.39068990604244452</v>
       </c>
       <c r="I37">
-        <v>0.1593406593406593</v>
+        <v>0.18681318681318679</v>
       </c>
       <c r="J37">
-        <v>0.35318627450980372</v>
+        <v>0.24166666666666639</v>
       </c>
       <c r="K37">
-        <v>0.84503676470588229</v>
+        <v>0.8178308823529411</v>
       </c>
       <c r="L37">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N37">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="O37">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P37">
-        <v>80.010000000000005</v>
+        <v>76.709999999999994</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
         <v>17</v>
@@ -2577,7 +2591,7 @@
         <v>0.82460973370064283</v>
       </c>
       <c r="G38">
-        <v>0.82509967011330709</v>
+        <v>0.82509967011330698</v>
       </c>
       <c r="H38">
         <v>0.42095960058141257</v>
@@ -2609,7 +2623,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
@@ -2618,48 +2632,48 @@
         <v>19</v>
       </c>
       <c r="D39">
-        <v>0.84890109890109888</v>
+        <v>0.78296703296703296</v>
       </c>
       <c r="E39">
-        <v>0.85243470297818114</v>
+        <v>0.84574951258418996</v>
       </c>
       <c r="F39">
-        <v>0.84890109890109888</v>
+        <v>0.78296703296703296</v>
       </c>
       <c r="G39">
-        <v>0.84922700185499578</v>
+        <v>0.77786535216875763</v>
       </c>
       <c r="H39">
-        <v>0.48552260735961161</v>
+        <v>0.31800382462292792</v>
       </c>
       <c r="I39">
-        <v>0.15109890109890109</v>
+        <v>0.21703296703296701</v>
       </c>
       <c r="J39">
-        <v>0.39028475711892813</v>
+        <v>0.1242271965890058</v>
       </c>
       <c r="K39">
-        <v>0.85145424090147703</v>
+        <v>0.80047205725597681</v>
       </c>
       <c r="L39">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="M39">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="O39">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="P39">
-        <v>80.86</v>
+        <v>75.489999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B40" t="s">
         <v>17</v>
@@ -2677,7 +2691,7 @@
         <v>0.80494505494505497</v>
       </c>
       <c r="G40">
-        <v>0.80553909201124063</v>
+        <v>0.80553909201124052</v>
       </c>
       <c r="H40">
         <v>0.3702380929371849</v>
@@ -2709,7 +2723,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
@@ -2718,48 +2732,48 @@
         <v>18</v>
       </c>
       <c r="D41">
-        <v>0.81450872359963267</v>
+        <v>0.81175390266299352</v>
       </c>
       <c r="E41">
-        <v>0.82222897283070961</v>
+        <v>0.81857092836789003</v>
       </c>
       <c r="F41">
-        <v>0.81450872359963267</v>
+        <v>0.81175390266299352</v>
       </c>
       <c r="G41">
-        <v>0.81500226147851829</v>
+        <v>0.81227087829241484</v>
       </c>
       <c r="H41">
-        <v>0.3951099183994628</v>
+        <v>0.38820475329337312</v>
       </c>
       <c r="I41">
-        <v>0.18549127640036731</v>
+        <v>0.1882460973370064</v>
       </c>
       <c r="J41">
-        <v>0.24966743299201169</v>
+        <v>0.23852388001664551</v>
       </c>
       <c r="K41">
-        <v>0.81928138238725123</v>
+        <v>0.81600517099060621</v>
       </c>
       <c r="L41">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="M41">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N41">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O41">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="P41">
-        <v>76.959999999999994</v>
+        <v>76.56</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
@@ -2768,48 +2782,48 @@
         <v>19</v>
       </c>
       <c r="D42">
-        <v>0.81593406593406592</v>
+        <v>0.78021978021978022</v>
       </c>
       <c r="E42">
-        <v>0.82427304999900286</v>
+        <v>0.79540979119772282</v>
       </c>
       <c r="F42">
-        <v>0.81593406593406592</v>
+        <v>0.78021978021978022</v>
       </c>
       <c r="G42">
-        <v>0.81624683136974041</v>
+        <v>0.78010034526654393</v>
       </c>
       <c r="H42">
-        <v>0.39760534890694249</v>
+        <v>0.31216924976106492</v>
       </c>
       <c r="I42">
-        <v>0.18406593406593411</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="J42">
-        <v>0.25725597685396701</v>
+        <v>0.113141464900259</v>
       </c>
       <c r="K42">
-        <v>0.82078574691640027</v>
+        <v>0.78760469011725287</v>
       </c>
       <c r="L42">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N42">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="O42">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="P42">
-        <v>77.2</v>
+        <v>73.36</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
@@ -2818,48 +2832,48 @@
         <v>20</v>
       </c>
       <c r="D43">
-        <v>0.79395604395604391</v>
+        <v>0.78846153846153844</v>
       </c>
       <c r="E43">
-        <v>0.8017983586319789</v>
+        <v>0.80121706214978616</v>
       </c>
       <c r="F43">
-        <v>0.79395604395604391</v>
+        <v>0.78846153846153844</v>
       </c>
       <c r="G43">
-        <v>0.79470966351432837</v>
+        <v>0.78910577584317654</v>
       </c>
       <c r="H43">
-        <v>0.34385924866122031</v>
+        <v>0.33100474046141659</v>
       </c>
       <c r="I43">
-        <v>0.20604395604395601</v>
+        <v>0.21153846153846151</v>
       </c>
       <c r="J43">
-        <v>0.1636029411764702</v>
+        <v>0.14129901960784291</v>
       </c>
       <c r="K43">
-        <v>0.79865196078431377</v>
+        <v>0.79577205882352942</v>
       </c>
       <c r="L43">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M43">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N43">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O43">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P43">
-        <v>74.430000000000007</v>
+        <v>74.11</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
@@ -2868,48 +2882,48 @@
         <v>18</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.76675849403122132</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0.82660651364196347</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.76675849403122132</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0.76204112424055581</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0.28331899902915131</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>0.23324150596877871</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>5.6512514752331433E-2</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>0.78589847667255619</v>
       </c>
       <c r="L44">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="O44">
-        <v>602</v>
+        <v>364</v>
       </c>
       <c r="P44">
-        <v>100</v>
+        <v>73.540000000000006</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -2918,48 +2932,48 @@
         <v>19</v>
       </c>
       <c r="D45">
-        <v>0.84890109890109888</v>
+        <v>0.78296703296703296</v>
       </c>
       <c r="E45">
-        <v>0.85243470297818114</v>
+        <v>0.84574951258418996</v>
       </c>
       <c r="F45">
-        <v>0.84890109890109888</v>
+        <v>0.78296703296703296</v>
       </c>
       <c r="G45">
-        <v>0.84922700185499578</v>
+        <v>0.77786535216875763</v>
       </c>
       <c r="H45">
-        <v>0.48552260735961161</v>
+        <v>0.31800382462292792</v>
       </c>
       <c r="I45">
-        <v>0.15109890109890109</v>
+        <v>0.21703296703296701</v>
       </c>
       <c r="J45">
-        <v>0.39028475711892813</v>
+        <v>0.1242271965890058</v>
       </c>
       <c r="K45">
-        <v>0.85145424090147703</v>
+        <v>0.80047205725597681</v>
       </c>
       <c r="L45">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="M45">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="N45">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="O45">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="P45">
-        <v>80.86</v>
+        <v>75.489999999999995</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
@@ -2968,48 +2982,48 @@
         <v>20</v>
       </c>
       <c r="D46">
-        <v>0.92307692307692313</v>
+        <v>0.70879120879120883</v>
       </c>
       <c r="E46">
-        <v>0.92307692307692313</v>
+        <v>0.79228806907378324</v>
       </c>
       <c r="F46">
-        <v>0.92307692307692313</v>
+        <v>0.70879120879120883</v>
       </c>
       <c r="G46">
-        <v>0.92296348115446047</v>
+        <v>0.69891365854251442</v>
       </c>
       <c r="H46">
-        <v>0.71513387739973777</v>
+        <v>0.17066420578840019</v>
       </c>
       <c r="I46">
-        <v>7.6923076923076927E-2</v>
+        <v>0.29120879120879117</v>
       </c>
       <c r="J46">
-        <v>0.68774509803921557</v>
+        <v>-0.18210784313725539</v>
       </c>
       <c r="K46">
-        <v>0.92058823529411771</v>
+        <v>0.73547794117647058</v>
       </c>
       <c r="L46">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N46">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="O46">
-        <v>192</v>
+        <v>105</v>
       </c>
       <c r="P46">
-        <v>89.57</v>
+        <v>67.680000000000007</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
@@ -3018,48 +3032,48 @@
         <v>18</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.7786960514233241</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0.82678909718604909</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0.7786960514233241</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0.77566437479481543</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0.30959430004923733</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>0.22130394857667579</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>0.1048012443122515</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>0.79551904329851897</v>
       </c>
       <c r="L47">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="O47">
-        <v>602</v>
+        <v>383</v>
       </c>
       <c r="P47">
-        <v>100</v>
+        <v>74.55</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
@@ -3068,48 +3082,48 @@
         <v>19</v>
       </c>
       <c r="D48">
-        <v>0.9642857142857143</v>
+        <v>0.75824175824175821</v>
       </c>
       <c r="E48">
-        <v>0.96446793002915465</v>
+        <v>0.81909781343037069</v>
       </c>
       <c r="F48">
-        <v>0.9642857142857143</v>
+        <v>0.75824175824175821</v>
       </c>
       <c r="G48">
-        <v>0.96431096557678841</v>
+        <v>0.75233890119304536</v>
       </c>
       <c r="H48">
-        <v>0.86186277542118572</v>
+        <v>0.26428270092565459</v>
       </c>
       <c r="I48">
-        <v>3.5714285714285712E-2</v>
+        <v>0.24175824175824179</v>
       </c>
       <c r="J48">
-        <v>0.85588548804629205</v>
+        <v>2.4455611390284959E-2</v>
       </c>
       <c r="K48">
-        <v>0.96474798233592207</v>
+        <v>0.77578803106441296</v>
       </c>
       <c r="L48">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N48">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="O48">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="P48">
-        <v>95.28</v>
+        <v>72.58</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
@@ -3118,48 +3132,48 @@
         <v>20</v>
       </c>
       <c r="D49">
-        <v>0.96153846153846156</v>
+        <v>0.74450549450549453</v>
       </c>
       <c r="E49">
-        <v>0.96153846153846156</v>
+        <v>0.80378008928231592</v>
       </c>
       <c r="F49">
-        <v>0.96153846153846156</v>
+        <v>0.74450549450549453</v>
       </c>
       <c r="G49">
-        <v>0.96153846153846156</v>
+        <v>0.73998939821724641</v>
       </c>
       <c r="H49">
-        <v>0.85164248902756223</v>
+        <v>0.2362880808325821</v>
       </c>
       <c r="I49">
-        <v>3.8461538461538457E-2</v>
+        <v>0.25549450549450547</v>
       </c>
       <c r="J49">
-        <v>0.84387254901960773</v>
+        <v>-3.7132352941176887E-2</v>
       </c>
       <c r="K49">
-        <v>0.96096813725490204</v>
+        <v>0.76599264705882364</v>
       </c>
       <c r="L49">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M49">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N49">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="O49">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="P49">
-        <v>94.8</v>
+        <v>70.959999999999994</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
         <v>17</v>
@@ -3168,48 +3182,48 @@
         <v>18</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0.92011019283746553</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0.92028962687561056</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.92011019283746553</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0.92016162680312641</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.7056768639865465</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>7.9889807162534437E-2</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0.67683696371438118</v>
       </c>
       <c r="K50">
-        <v>1</v>
+        <v>0.91989569334252008</v>
       </c>
       <c r="L50">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="O50">
-        <v>602</v>
+        <v>555</v>
       </c>
       <c r="P50">
-        <v>100</v>
+        <v>89.44</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
         <v>17</v>
@@ -3218,48 +3232,48 @@
         <v>19</v>
       </c>
       <c r="D51">
-        <v>0.84890109890109888</v>
+        <v>0.91208791208791207</v>
       </c>
       <c r="E51">
-        <v>0.85243470297818114</v>
+        <v>0.91208791208791207</v>
       </c>
       <c r="F51">
-        <v>0.84890109890109888</v>
+        <v>0.91208791208791207</v>
       </c>
       <c r="G51">
-        <v>0.84922700185499578</v>
+        <v>0.91208791208791207</v>
       </c>
       <c r="H51">
-        <v>0.48552260735961161</v>
+        <v>0.67837066830345039</v>
       </c>
       <c r="I51">
-        <v>0.15109890109890109</v>
+        <v>8.7912087912087919E-2</v>
       </c>
       <c r="J51">
-        <v>0.39028475711892813</v>
+        <v>0.6452565859601036</v>
       </c>
       <c r="K51">
-        <v>0.85145424090147703</v>
+        <v>0.91131414649002607</v>
       </c>
       <c r="L51">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N51">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="O51">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="P51">
-        <v>80.86</v>
+        <v>88.32</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
         <v>17</v>
@@ -3268,48 +3282,48 @@
         <v>20</v>
       </c>
       <c r="D52">
-        <v>0.92582417582417587</v>
+        <v>0.88736263736263732</v>
       </c>
       <c r="E52">
-        <v>0.92578717493581753</v>
+        <v>0.88727910459659187</v>
       </c>
       <c r="F52">
-        <v>0.92582417582417587</v>
+        <v>0.88736263736263732</v>
       </c>
       <c r="G52">
-        <v>0.92579859226853578</v>
+        <v>0.88715051426915847</v>
       </c>
       <c r="H52">
-        <v>0.72450471958723672</v>
+        <v>0.59900573030755988</v>
       </c>
       <c r="I52">
-        <v>7.4175824175824176E-2</v>
+        <v>0.1126373626373626</v>
       </c>
       <c r="J52">
-        <v>0.69889705882352926</v>
+        <v>0.5427696078431371</v>
       </c>
       <c r="K52">
-        <v>0.92438725490196083</v>
+        <v>0.88400735294117638</v>
       </c>
       <c r="L52">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N52">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O52">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P52">
-        <v>90.04</v>
+        <v>84.92</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
@@ -3318,48 +3332,48 @@
         <v>18</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0.94398530762167121</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0.94400919057167287</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.94398530762167121</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0.94393190309925301</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0.78826702767380175</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>5.6014692378328741E-2</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0.77341442283422135</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0.94247102403350913</v>
       </c>
       <c r="L53">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O53">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="P53">
-        <v>100</v>
+        <v>92.38</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
@@ -3368,48 +3382,48 @@
         <v>19</v>
       </c>
       <c r="D54">
-        <v>0.95329670329670335</v>
+        <v>0.93131868131868134</v>
       </c>
       <c r="E54">
-        <v>0.9532863173411954</v>
+        <v>0.93147018422753713</v>
       </c>
       <c r="F54">
-        <v>0.95329670329670335</v>
+        <v>0.93131868131868134</v>
       </c>
       <c r="G54">
-        <v>0.95328425107660431</v>
+        <v>0.93121642625364709</v>
       </c>
       <c r="H54">
-        <v>0.82141345277212341</v>
+        <v>0.74342008261332115</v>
       </c>
       <c r="I54">
-        <v>4.6703296703296697E-2</v>
+        <v>6.8681318681318687E-2</v>
       </c>
       <c r="J54">
-        <v>0.81154256129130498</v>
+        <v>0.72285670778133093</v>
       </c>
       <c r="K54">
-        <v>0.95262677021470987</v>
+        <v>0.92941982640475096</v>
       </c>
       <c r="L54">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M54">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N54">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O54">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P54">
-        <v>93.69</v>
+        <v>90.66</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
@@ -3418,48 +3432,48 @@
         <v>20</v>
       </c>
       <c r="D55">
-        <v>0.96978021978021978</v>
+        <v>0.95329670329670335</v>
       </c>
       <c r="E55">
-        <v>0.96977423558187492</v>
+        <v>0.95327908783960336</v>
       </c>
       <c r="F55">
-        <v>0.96978021978021978</v>
+        <v>0.95329670329670335</v>
       </c>
       <c r="G55">
-        <v>0.96976979685014431</v>
+        <v>0.95328059513204111</v>
       </c>
       <c r="H55">
-        <v>0.88243233609816907</v>
+        <v>0.82139282787615231</v>
       </c>
       <c r="I55">
-        <v>3.021978021978022E-2</v>
+        <v>4.6703296703296697E-2</v>
       </c>
       <c r="J55">
-        <v>0.87732843137254901</v>
+        <v>0.81041666666666656</v>
       </c>
       <c r="K55">
-        <v>0.9689950980392158</v>
+        <v>0.9522671568627451</v>
       </c>
       <c r="L55">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M55">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N55">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O55">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P55">
-        <v>95.87</v>
+        <v>93.66</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
         <v>17</v>
@@ -3468,48 +3482,48 @@
         <v>18</v>
       </c>
       <c r="D56">
-        <v>0.83930211202938476</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>0.84768271674097417</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>0.83930211202938476</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>0.83971818838118428</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>0.46000842986300722</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0.16069788797061521</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>0.34995940977030721</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>0.84464857047350717</v>
+        <v>1</v>
       </c>
       <c r="L56">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="M56">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>478</v>
+        <v>602</v>
       </c>
       <c r="P56">
-        <v>80.05</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -3518,48 +3532,48 @@
         <v>19</v>
       </c>
       <c r="D57">
-        <v>0.82692307692307687</v>
+        <v>0.84890109890109888</v>
       </c>
       <c r="E57">
-        <v>0.84070898980537534</v>
+        <v>0.85243470297818114</v>
       </c>
       <c r="F57">
-        <v>0.82692307692307687</v>
+        <v>0.84890109890109888</v>
       </c>
       <c r="G57">
-        <v>0.82696618450043113</v>
+        <v>0.84922700185499578</v>
       </c>
       <c r="H57">
-        <v>0.42592051067346259</v>
+        <v>0.48552260735961161</v>
       </c>
       <c r="I57">
-        <v>0.1730769230769231</v>
+        <v>0.15109890109890109</v>
       </c>
       <c r="J57">
-        <v>0.30159890360895392</v>
+        <v>0.39028475711892813</v>
       </c>
       <c r="K57">
-        <v>0.83394243947007751</v>
+        <v>0.85145424090147703</v>
       </c>
       <c r="L57">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N57">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="O57">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="P57">
-        <v>78.87</v>
+        <v>80.86</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
@@ -3568,48 +3582,48 @@
         <v>20</v>
       </c>
       <c r="D58">
-        <v>0.78296703296703296</v>
+        <v>0.92582417582417587</v>
       </c>
       <c r="E58">
-        <v>0.79855647311268618</v>
+        <v>0.92578717493581753</v>
       </c>
       <c r="F58">
-        <v>0.78296703296703296</v>
+        <v>0.92582417582417587</v>
       </c>
       <c r="G58">
-        <v>0.7834833293429373</v>
+        <v>0.92579859226853578</v>
       </c>
       <c r="H58">
-        <v>0.31838971569436381</v>
+        <v>0.72450471958723672</v>
       </c>
       <c r="I58">
-        <v>0.21703296703296701</v>
+        <v>7.4175824175824176E-2</v>
       </c>
       <c r="J58">
-        <v>0.1189950980392154</v>
+        <v>0.69889705882352926</v>
       </c>
       <c r="K58">
-        <v>0.7915441176470589</v>
+        <v>0.92438725490196083</v>
       </c>
       <c r="L58">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M58">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="N58">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="O58">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="P58">
-        <v>73.63</v>
+        <v>90.04</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
         <v>21</v>
@@ -3618,48 +3632,48 @@
         <v>18</v>
       </c>
       <c r="D59">
-        <v>0.86868686868686873</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>0.87847500537607226</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>0.86868686868686873</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>0.86900211996508281</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>0.54329765298960075</v>
+        <v>1</v>
       </c>
       <c r="I59">
-        <v>0.1313131313131313</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>0.46882397484087962</v>
+        <v>1</v>
       </c>
       <c r="K59">
-        <v>0.8749530995245145</v>
+        <v>1</v>
       </c>
       <c r="L59">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="M59">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>491</v>
+        <v>602</v>
       </c>
       <c r="P59">
-        <v>83.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
         <v>21</v>
@@ -3668,48 +3682,48 @@
         <v>19</v>
       </c>
       <c r="D60">
-        <v>0.82692307692307687</v>
+        <v>0.95329670329670335</v>
       </c>
       <c r="E60">
-        <v>0.8439265935140523</v>
+        <v>0.9532863173411954</v>
       </c>
       <c r="F60">
-        <v>0.82692307692307687</v>
+        <v>0.95329670329670335</v>
       </c>
       <c r="G60">
-        <v>0.82677806995287195</v>
+        <v>0.95328425107660431</v>
       </c>
       <c r="H60">
-        <v>0.42590550940339389</v>
+        <v>0.82141345277212341</v>
       </c>
       <c r="I60">
-        <v>0.1730769230769231</v>
+        <v>4.6703296703296697E-2</v>
       </c>
       <c r="J60">
-        <v>0.30159890360895392</v>
+        <v>0.81154256129130498</v>
       </c>
       <c r="K60">
-        <v>0.83497791990254311</v>
+        <v>0.95262677021470987</v>
       </c>
       <c r="L60">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N60">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="O60">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="P60">
-        <v>79.040000000000006</v>
+        <v>93.69</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
         <v>21</v>
@@ -3718,48 +3732,48 @@
         <v>20</v>
       </c>
       <c r="D61">
-        <v>0.83241758241758246</v>
+        <v>0.96978021978021978</v>
       </c>
       <c r="E61">
-        <v>0.84147484706143927</v>
+        <v>0.96977423558187492</v>
       </c>
       <c r="F61">
-        <v>0.83241758241758246</v>
+        <v>0.96978021978021978</v>
       </c>
       <c r="G61">
-        <v>0.83302000908993756</v>
+        <v>0.96976979685014431</v>
       </c>
       <c r="H61">
-        <v>0.44048514654560739</v>
+        <v>0.88243233609816907</v>
       </c>
       <c r="I61">
-        <v>0.1675824175824176</v>
+        <v>3.021978021978022E-2</v>
       </c>
       <c r="J61">
-        <v>0.3197303921568625</v>
+        <v>0.87732843137254901</v>
       </c>
       <c r="K61">
-        <v>0.83835784313725481</v>
+        <v>0.9689950980392158</v>
       </c>
       <c r="L61">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N61">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="O61">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="P61">
-        <v>79.2</v>
+        <v>95.87</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>25</v>
+      <c r="A62" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
@@ -3767,49 +3781,10 @@
       <c r="C62" t="s">
         <v>18</v>
       </c>
-      <c r="D62">
-        <v>0.84297520661157022</v>
-      </c>
-      <c r="E62">
-        <v>0.8446460234525629</v>
-      </c>
-      <c r="F62">
-        <v>0.84297520661157022</v>
-      </c>
-      <c r="G62">
-        <v>0.8432918745732525</v>
-      </c>
-      <c r="H62">
-        <v>0.47002926363344899</v>
-      </c>
-      <c r="I62">
-        <v>0.15702479338842981</v>
-      </c>
-      <c r="J62">
-        <v>0.36481748040412859</v>
-      </c>
-      <c r="K62">
-        <v>0.84385211512617087</v>
-      </c>
-      <c r="L62">
-        <v>415</v>
-      </c>
-      <c r="M62">
-        <v>72</v>
-      </c>
-      <c r="N62">
-        <v>99</v>
-      </c>
-      <c r="O62">
-        <v>503</v>
-      </c>
-      <c r="P62">
-        <v>79.89</v>
-      </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>25</v>
+      <c r="A63" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B63" t="s">
         <v>17</v>
@@ -3817,49 +3792,10 @@
       <c r="C63" t="s">
         <v>19</v>
       </c>
-      <c r="D63">
-        <v>0.83791208791208793</v>
-      </c>
-      <c r="E63">
-        <v>0.84006385901332725</v>
-      </c>
-      <c r="F63">
-        <v>0.83791208791208793</v>
-      </c>
-      <c r="G63">
-        <v>0.83822283409680265</v>
-      </c>
-      <c r="H63">
-        <v>0.45524716461861858</v>
-      </c>
-      <c r="I63">
-        <v>0.16208791208791209</v>
-      </c>
-      <c r="J63">
-        <v>0.34594183036394099</v>
-      </c>
-      <c r="K63">
-        <v>0.83933302878026494</v>
-      </c>
-      <c r="L63">
-        <v>141</v>
-      </c>
-      <c r="M63">
-        <v>24</v>
-      </c>
-      <c r="N63">
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="O63">
-        <v>164</v>
-      </c>
-      <c r="P63">
-        <v>79.349999999999994</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>25</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
@@ -3867,49 +3803,10 @@
       <c r="C64" t="s">
         <v>20</v>
       </c>
-      <c r="D64">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="E64">
-        <v>0.79107337026873081</v>
-      </c>
-      <c r="F64">
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="G64">
-        <v>0.78647506339814033</v>
-      </c>
-      <c r="H64">
-        <v>0.32469356609631589</v>
-      </c>
-      <c r="I64">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="J64">
-        <v>0.13014705882352909</v>
-      </c>
-      <c r="K64">
-        <v>0.78860294117647056</v>
-      </c>
-      <c r="L64">
-        <v>130</v>
-      </c>
-      <c r="M64">
-        <v>30</v>
-      </c>
-      <c r="N64">
-        <v>48</v>
-      </c>
-      <c r="O64">
-        <v>156</v>
-      </c>
-      <c r="P64">
-        <v>73.23</v>
-      </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>25</v>
+      <c r="A65" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B65" t="s">
         <v>21</v>
@@ -3917,49 +3814,10 @@
       <c r="C65" t="s">
         <v>18</v>
       </c>
-      <c r="D65">
-        <v>0.88705234159779611</v>
-      </c>
-      <c r="E65">
-        <v>0.8901478322358245</v>
-      </c>
-      <c r="F65">
-        <v>0.88705234159779611</v>
-      </c>
-      <c r="G65">
-        <v>0.88734264160804011</v>
-      </c>
-      <c r="H65">
-        <v>0.59886971317452597</v>
-      </c>
-      <c r="I65">
-        <v>0.1129476584022039</v>
-      </c>
-      <c r="J65">
-        <v>0.54311432800998727</v>
-      </c>
-      <c r="K65">
-        <v>0.88979923185548515</v>
-      </c>
-      <c r="L65">
-        <v>446</v>
-      </c>
-      <c r="M65">
-        <v>41</v>
-      </c>
-      <c r="N65">
-        <v>82</v>
-      </c>
-      <c r="O65">
-        <v>520</v>
-      </c>
-      <c r="P65">
-        <v>85.61</v>
-      </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>25</v>
+      <c r="A66" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B66" t="s">
         <v>21</v>
@@ -3967,49 +3825,10 @@
       <c r="C66" t="s">
         <v>19</v>
       </c>
-      <c r="D66">
-        <v>0.83791208791208793</v>
-      </c>
-      <c r="E66">
-        <v>0.84416086812788504</v>
-      </c>
-      <c r="F66">
-        <v>0.83791208791208793</v>
-      </c>
-      <c r="G66">
-        <v>0.83824648678760094</v>
-      </c>
-      <c r="H66">
-        <v>0.45524914155521168</v>
-      </c>
-      <c r="I66">
-        <v>0.16208791208791209</v>
-      </c>
-      <c r="J66">
-        <v>0.34594183036394099</v>
-      </c>
-      <c r="K66">
-        <v>0.84192172986142844</v>
-      </c>
-      <c r="L66">
-        <v>146</v>
-      </c>
-      <c r="M66">
-        <v>19</v>
-      </c>
-      <c r="N66">
-        <v>40</v>
-      </c>
-      <c r="O66">
-        <v>159</v>
-      </c>
-      <c r="P66">
-        <v>79.739999999999995</v>
-      </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>25</v>
+      <c r="A67" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B67" t="s">
         <v>21</v>
@@ -4017,49 +3836,10 @@
       <c r="C67" t="s">
         <v>20</v>
       </c>
-      <c r="D67">
-        <v>0.8351648351648352</v>
-      </c>
-      <c r="E67">
-        <v>0.84140255879386305</v>
-      </c>
-      <c r="F67">
-        <v>0.8351648351648352</v>
-      </c>
-      <c r="G67">
-        <v>0.83576459925762536</v>
-      </c>
-      <c r="H67">
-        <v>0.44784220367992589</v>
-      </c>
-      <c r="I67">
-        <v>0.1648351648351648</v>
-      </c>
-      <c r="J67">
-        <v>0.33088235294117618</v>
-      </c>
-      <c r="K67">
-        <v>0.83946078431372551</v>
-      </c>
-      <c r="L67">
-        <v>140</v>
-      </c>
-      <c r="M67">
-        <v>20</v>
-      </c>
-      <c r="N67">
-        <v>40</v>
-      </c>
-      <c r="O67">
-        <v>164</v>
-      </c>
-      <c r="P67">
-        <v>79.33</v>
-      </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B68" t="s">
         <v>17</v>
@@ -4068,48 +3848,48 @@
         <v>18</v>
       </c>
       <c r="D68">
-        <v>0.84848484848484851</v>
+        <v>0.83930211202938476</v>
       </c>
       <c r="E68">
-        <v>0.84838401861114887</v>
+        <v>0.84768271674097417</v>
       </c>
       <c r="F68">
-        <v>0.84848484848484851</v>
+        <v>0.83930211202938476</v>
       </c>
       <c r="G68">
-        <v>0.84811418032824126</v>
+        <v>0.83971818838118428</v>
       </c>
       <c r="H68">
-        <v>0.48518926367205989</v>
+        <v>0.46000842986300722</v>
       </c>
       <c r="I68">
-        <v>0.15151515151515149</v>
+        <v>0.16069788797061521</v>
       </c>
       <c r="J68">
-        <v>0.387104586354861</v>
+        <v>0.34995940977030721</v>
       </c>
       <c r="K68">
-        <v>0.84471678934694072</v>
+        <v>0.84464857047350717</v>
       </c>
       <c r="L68">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="M68">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="N68">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="O68">
-        <v>530</v>
+        <v>478</v>
       </c>
       <c r="P68">
-        <v>80</v>
+        <v>80.05</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
@@ -4118,48 +3898,48 @@
         <v>19</v>
       </c>
       <c r="D69">
-        <v>0.84065934065934067</v>
+        <v>0.82692307692307687</v>
       </c>
       <c r="E69">
-        <v>0.84155621451582641</v>
+        <v>0.84070898980537534</v>
       </c>
       <c r="F69">
-        <v>0.84065934065934067</v>
+        <v>0.82692307692307687</v>
       </c>
       <c r="G69">
-        <v>0.83983688672148793</v>
+        <v>0.82696618450043091</v>
       </c>
       <c r="H69">
-        <v>0.46263426734242741</v>
+        <v>0.42592051067346259</v>
       </c>
       <c r="I69">
-        <v>0.1593406593406593</v>
+        <v>0.1730769230769231</v>
       </c>
       <c r="J69">
-        <v>0.35702756205268782</v>
+        <v>0.30159890360895392</v>
       </c>
       <c r="K69">
-        <v>0.83563270899954323</v>
+        <v>0.83394243947007751</v>
       </c>
       <c r="L69">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="M69">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N69">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="O69">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="P69">
-        <v>78.83</v>
+        <v>78.87</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B70" t="s">
         <v>17</v>
@@ -4168,48 +3948,48 @@
         <v>20</v>
       </c>
       <c r="D70">
-        <v>0.7994505494505495</v>
+        <v>0.78296703296703296</v>
       </c>
       <c r="E70">
-        <v>0.79912619458451639</v>
+        <v>0.79855647311268618</v>
       </c>
       <c r="F70">
-        <v>0.7994505494505495</v>
+        <v>0.78296703296703296</v>
       </c>
       <c r="G70">
-        <v>0.7992335095883415</v>
+        <v>0.78348332934293752</v>
       </c>
       <c r="H70">
-        <v>0.35679210592435889</v>
+        <v>0.31838971569436381</v>
       </c>
       <c r="I70">
-        <v>0.20054945054945059</v>
+        <v>0.21703296703296701</v>
       </c>
       <c r="J70">
-        <v>0.18590686274509771</v>
+        <v>0.1189950980392154</v>
       </c>
       <c r="K70">
-        <v>0.79546568627450986</v>
+        <v>0.7915441176470589</v>
       </c>
       <c r="L70">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="M70">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="N70">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="O70">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="P70">
-        <v>74.06</v>
+        <v>73.63</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B71" t="s">
         <v>21</v>
@@ -4218,48 +3998,48 @@
         <v>18</v>
       </c>
       <c r="D71">
-        <v>0.87235996326905418</v>
+        <v>0.85583103764921942</v>
       </c>
       <c r="E71">
-        <v>0.87476901449965416</v>
+        <v>0.86132418664890587</v>
       </c>
       <c r="F71">
-        <v>0.87235996326905418</v>
+        <v>0.85583103764921942</v>
       </c>
       <c r="G71">
-        <v>0.8726629609289912</v>
+        <v>0.85623408172196325</v>
       </c>
       <c r="H71">
-        <v>0.55419479381738479</v>
+        <v>0.5060139370511183</v>
       </c>
       <c r="I71">
-        <v>0.12764003673094579</v>
+        <v>0.1441689623507805</v>
       </c>
       <c r="J71">
-        <v>0.48368204547470112</v>
+        <v>0.41682072762250411</v>
       </c>
       <c r="K71">
-        <v>0.87435277343829942</v>
+        <v>0.85979486584758535</v>
       </c>
       <c r="L71">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M71">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N71">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="O71">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="P71">
-        <v>83.67</v>
+        <v>81.88</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
         <v>21</v>
@@ -4268,48 +4048,48 @@
         <v>19</v>
       </c>
       <c r="D72">
-        <v>0.8571428571428571</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="E72">
-        <v>0.86028342788119316</v>
+        <v>0.85798816568047342</v>
       </c>
       <c r="F72">
-        <v>0.8571428571428571</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="G72">
-        <v>0.85744566722037663</v>
+        <v>0.84629319955406901</v>
       </c>
       <c r="H72">
-        <v>0.5088620893789112</v>
+        <v>0.47784808757993402</v>
       </c>
       <c r="I72">
-        <v>0.14285714285714279</v>
+        <v>0.15384615384615391</v>
       </c>
       <c r="J72">
-        <v>0.42354195218516832</v>
+        <v>0.37919902543018141</v>
       </c>
       <c r="K72">
-        <v>0.85950966955992081</v>
+        <v>0.85256585960103548</v>
       </c>
       <c r="L72">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M72">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N72">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O72">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="P72">
-        <v>81.849999999999994</v>
+        <v>81.12</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B73" t="s">
         <v>21</v>
@@ -4318,48 +4098,48 @@
         <v>20</v>
       </c>
       <c r="D73">
-        <v>0.84890109890109888</v>
+        <v>0.81318681318681318</v>
       </c>
       <c r="E73">
-        <v>0.8519933898985439</v>
+        <v>0.82049269411906778</v>
       </c>
       <c r="F73">
-        <v>0.84890109890109888</v>
+        <v>0.81318681318681318</v>
       </c>
       <c r="G73">
-        <v>0.84936403923745696</v>
+        <v>0.81387173260639312</v>
       </c>
       <c r="H73">
-        <v>0.48551633848326958</v>
+        <v>0.39068990604244452</v>
       </c>
       <c r="I73">
-        <v>0.15109890109890109</v>
+        <v>0.18681318681318679</v>
       </c>
       <c r="J73">
-        <v>0.38664215686274478</v>
+        <v>0.24166666666666639</v>
       </c>
       <c r="K73">
-        <v>0.8510416666666667</v>
+        <v>0.8178308823529411</v>
       </c>
       <c r="L73">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M73">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N73">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O73">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="P73">
-        <v>80.75</v>
+        <v>76.709999999999994</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B74" t="s">
         <v>17</v>
@@ -4368,48 +4148,48 @@
         <v>18</v>
       </c>
       <c r="D74">
-        <v>0.97612488521579432</v>
+        <v>0.84297520661157022</v>
       </c>
       <c r="E74">
-        <v>0.97614073435601612</v>
+        <v>0.8446460234525629</v>
       </c>
       <c r="F74">
-        <v>0.97612488521579432</v>
+        <v>0.84297520661157022</v>
       </c>
       <c r="G74">
-        <v>0.97612948459928539</v>
+        <v>0.8432918745732525</v>
       </c>
       <c r="H74">
-        <v>0.90668488390022894</v>
+        <v>0.47002926363344899</v>
       </c>
       <c r="I74">
-        <v>2.3875114784205689E-2</v>
+        <v>0.15702479338842981</v>
       </c>
       <c r="J74">
-        <v>0.90342254088015994</v>
+        <v>0.36481748040412859</v>
       </c>
       <c r="K74">
-        <v>0.97605176448116138</v>
+        <v>0.84385211512617087</v>
       </c>
       <c r="L74">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="M74">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="N74">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="O74">
-        <v>588</v>
+        <v>503</v>
       </c>
       <c r="P74">
-        <v>96.79</v>
+        <v>79.89</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B75" t="s">
         <v>17</v>
@@ -4418,48 +4198,48 @@
         <v>19</v>
       </c>
       <c r="D75">
-        <v>0.9505494505494505</v>
+        <v>0.83791208791208793</v>
       </c>
       <c r="E75">
-        <v>0.95119374762134523</v>
+        <v>0.84006385901332725</v>
       </c>
       <c r="F75">
-        <v>0.9505494505494505</v>
+        <v>0.83791208791208793</v>
       </c>
       <c r="G75">
-        <v>0.95061252522987227</v>
+        <v>0.83822283409680265</v>
       </c>
       <c r="H75">
-        <v>0.81146023966174408</v>
+        <v>0.45524716461861858</v>
       </c>
       <c r="I75">
-        <v>4.9450549450549448E-2</v>
+        <v>0.16208791208791209</v>
       </c>
       <c r="J75">
-        <v>0.80045682960255826</v>
+        <v>0.34594183036394099</v>
       </c>
       <c r="K75">
-        <v>0.95166742804933757</v>
+        <v>0.83933302878026494</v>
       </c>
       <c r="L75">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="M75">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="N75">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="O75">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="P75">
-        <v>93.57</v>
+        <v>79.349999999999994</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
@@ -4468,48 +4248,48 @@
         <v>20</v>
       </c>
       <c r="D76">
-        <v>0.94780219780219777</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="E76">
-        <v>0.94823288411244921</v>
+        <v>0.79107337026873081</v>
       </c>
       <c r="F76">
-        <v>0.94780219780219777</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="G76">
-        <v>0.94765873873614737</v>
+        <v>0.78647506339814033</v>
       </c>
       <c r="H76">
-        <v>0.80150845762577216</v>
+        <v>0.32469356609631589</v>
       </c>
       <c r="I76">
-        <v>5.21978021978022E-2</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="J76">
-        <v>0.78811274509803919</v>
+        <v>0.13014705882352909</v>
       </c>
       <c r="K76">
-        <v>0.94466911764705885</v>
+        <v>0.78860294117647056</v>
       </c>
       <c r="L76">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="M76">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N76">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="O76">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="P76">
-        <v>92.72</v>
+        <v>73.23</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
         <v>21</v>
@@ -4518,48 +4298,48 @@
         <v>18</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0.87878787878787878</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0.88257437713482634</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0.87878787878787878</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0.87911359865032523</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0.57353147636995538</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="J77">
-        <v>1</v>
+        <v>0.50968366908388885</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>0.88193189027676389</v>
       </c>
       <c r="L77">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="O77">
-        <v>602</v>
+        <v>513</v>
       </c>
       <c r="P77">
-        <v>100</v>
+        <v>84.62</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B78" t="s">
         <v>21</v>
@@ -4568,48 +4348,48 @@
         <v>19</v>
       </c>
       <c r="D78">
-        <v>0.96703296703296704</v>
+        <v>0.84890109890109888</v>
       </c>
       <c r="E78">
-        <v>0.96764430006862501</v>
+        <v>0.8574395205520432</v>
       </c>
       <c r="F78">
-        <v>0.96703296703296704</v>
+        <v>0.84890109890109888</v>
       </c>
       <c r="G78">
-        <v>0.96707501681991481</v>
+        <v>0.84915784664680183</v>
       </c>
       <c r="H78">
-        <v>0.87212717603262802</v>
+        <v>0.48551700611455301</v>
       </c>
       <c r="I78">
-        <v>3.2967032967032968E-2</v>
+        <v>0.15109890109890109</v>
       </c>
       <c r="J78">
-        <v>0.86697121973503888</v>
+        <v>0.39028475711892813</v>
       </c>
       <c r="K78">
-        <v>0.96829602558245775</v>
+        <v>0.85404294198264041</v>
       </c>
       <c r="L78">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N78">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="O78">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="P78">
-        <v>95.76</v>
+        <v>81.260000000000005</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B79" t="s">
         <v>21</v>
@@ -4618,48 +4398,48 @@
         <v>20</v>
       </c>
       <c r="D79">
-        <v>0.97252747252747251</v>
+        <v>0.80494505494505497</v>
       </c>
       <c r="E79">
-        <v>0.97262217064197265</v>
+        <v>0.8151619068867324</v>
       </c>
       <c r="F79">
-        <v>0.97252747252747251</v>
+        <v>0.80494505494505497</v>
       </c>
       <c r="G79">
-        <v>0.97254512461194831</v>
+        <v>0.80562225221736439</v>
       </c>
       <c r="H79">
-        <v>0.89282251053769246</v>
+        <v>0.37025079430833668</v>
       </c>
       <c r="I79">
-        <v>2.7472527472527469E-2</v>
+        <v>0.19505494505494511</v>
       </c>
       <c r="J79">
-        <v>0.8884803921568627</v>
+        <v>0.20821078431372519</v>
       </c>
       <c r="K79">
-        <v>0.97279411764705881</v>
+        <v>0.81115196078431373</v>
       </c>
       <c r="L79">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N79">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="O79">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="P79">
-        <v>96.34</v>
+        <v>75.92</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>28</v>
+      <c r="A80" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B80" t="s">
         <v>17</v>
@@ -4667,49 +4447,10 @@
       <c r="C80" t="s">
         <v>18</v>
       </c>
-      <c r="D80">
-        <v>0.97612488521579432</v>
-      </c>
-      <c r="E80">
-        <v>0.97614073435601612</v>
-      </c>
-      <c r="F80">
-        <v>0.97612488521579432</v>
-      </c>
-      <c r="G80">
-        <v>0.97612948459928539</v>
-      </c>
-      <c r="H80">
-        <v>0.90668488390022894</v>
-      </c>
-      <c r="I80">
-        <v>2.3875114784205689E-2</v>
-      </c>
-      <c r="J80">
-        <v>0.90342254088015994</v>
-      </c>
-      <c r="K80">
-        <v>0.97605176448116138</v>
-      </c>
-      <c r="L80">
-        <v>475</v>
-      </c>
-      <c r="M80">
-        <v>12</v>
-      </c>
-      <c r="N80">
-        <v>14</v>
-      </c>
-      <c r="O80">
-        <v>588</v>
-      </c>
-      <c r="P80">
-        <v>96.79</v>
-      </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>28</v>
+      <c r="A81" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B81" t="s">
         <v>17</v>
@@ -4717,49 +4458,10 @@
       <c r="C81" t="s">
         <v>19</v>
       </c>
-      <c r="D81">
-        <v>0.9505494505494505</v>
-      </c>
-      <c r="E81">
-        <v>0.95119374762134523</v>
-      </c>
-      <c r="F81">
-        <v>0.9505494505494505</v>
-      </c>
-      <c r="G81">
-        <v>0.95061252522987227</v>
-      </c>
-      <c r="H81">
-        <v>0.81146023966174408</v>
-      </c>
-      <c r="I81">
-        <v>4.9450549450549448E-2</v>
-      </c>
-      <c r="J81">
-        <v>0.80045682960255826</v>
-      </c>
-      <c r="K81">
-        <v>0.95166742804933757</v>
-      </c>
-      <c r="L81">
-        <v>159</v>
-      </c>
-      <c r="M81">
-        <v>6</v>
-      </c>
-      <c r="N81">
-        <v>12</v>
-      </c>
-      <c r="O81">
-        <v>187</v>
-      </c>
-      <c r="P81">
-        <v>93.57</v>
-      </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>28</v>
+      <c r="A82" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B82" t="s">
         <v>17</v>
@@ -4767,49 +4469,10 @@
       <c r="C82" t="s">
         <v>20</v>
       </c>
-      <c r="D82">
-        <v>0.94505494505494503</v>
-      </c>
-      <c r="E82">
-        <v>0.945638770365682</v>
-      </c>
-      <c r="F82">
-        <v>0.94505494505494503</v>
-      </c>
-      <c r="G82">
-        <v>0.94487883910960846</v>
-      </c>
-      <c r="H82">
-        <v>0.7916627248267798</v>
-      </c>
-      <c r="I82">
-        <v>5.4945054945054937E-2</v>
-      </c>
-      <c r="J82">
-        <v>0.77696078431372539</v>
-      </c>
-      <c r="K82">
-        <v>0.94154411764705892</v>
-      </c>
-      <c r="L82">
-        <v>146</v>
-      </c>
-      <c r="M82">
-        <v>14</v>
-      </c>
-      <c r="N82">
-        <v>6</v>
-      </c>
-      <c r="O82">
-        <v>198</v>
-      </c>
-      <c r="P82">
-        <v>92.33</v>
-      </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>28</v>
+      <c r="A83" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B83" t="s">
         <v>21</v>
@@ -4817,49 +4480,10 @@
       <c r="C83" t="s">
         <v>18</v>
       </c>
-      <c r="D83">
-        <v>0.99908172635445358</v>
-      </c>
-      <c r="E83">
-        <v>0.99908324919632019</v>
-      </c>
-      <c r="F83">
-        <v>0.99908172635445358</v>
-      </c>
-      <c r="G83">
-        <v>0.99908163550334694</v>
-      </c>
-      <c r="H83">
-        <v>0.99632650527780064</v>
-      </c>
-      <c r="I83">
-        <v>9.1827364554637281E-4</v>
-      </c>
-      <c r="J83">
-        <v>0.99628548234154457</v>
-      </c>
-      <c r="K83">
-        <v>0.99897330595482547</v>
-      </c>
-      <c r="L83">
-        <v>486</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>602</v>
-      </c>
-      <c r="P83">
-        <v>99.86</v>
-      </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>28</v>
+      <c r="A84" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B84" t="s">
         <v>21</v>
@@ -4867,49 +4491,10 @@
       <c r="C84" t="s">
         <v>19</v>
       </c>
-      <c r="D84">
-        <v>0.96703296703296704</v>
-      </c>
-      <c r="E84">
-        <v>0.96764430006862501</v>
-      </c>
-      <c r="F84">
-        <v>0.96703296703296704</v>
-      </c>
-      <c r="G84">
-        <v>0.96707501681991481</v>
-      </c>
-      <c r="H84">
-        <v>0.87212717603262802</v>
-      </c>
-      <c r="I84">
-        <v>3.2967032967032968E-2</v>
-      </c>
-      <c r="J84">
-        <v>0.86697121973503888</v>
-      </c>
-      <c r="K84">
-        <v>0.96829602558245775</v>
-      </c>
-      <c r="L84">
-        <v>162</v>
-      </c>
-      <c r="M84">
-        <v>3</v>
-      </c>
-      <c r="N84">
-        <v>9</v>
-      </c>
-      <c r="O84">
-        <v>190</v>
-      </c>
-      <c r="P84">
-        <v>95.76</v>
-      </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>28</v>
+      <c r="A85" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B85" t="s">
         <v>21</v>
@@ -4917,48 +4502,4324 @@
       <c r="C85" t="s">
         <v>20</v>
       </c>
-      <c r="D85">
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86">
+        <v>0.84756657483930209</v>
+      </c>
+      <c r="E86">
+        <v>0.84993132000266414</v>
+      </c>
+      <c r="F86">
+        <v>0.84756657483930209</v>
+      </c>
+      <c r="G86">
+        <v>0.84792253201344114</v>
+      </c>
+      <c r="H86">
+        <v>0.4827300966815633</v>
+      </c>
+      <c r="I86">
+        <v>0.15243342516069791</v>
+      </c>
+      <c r="J86">
+        <v>0.38339006869640557</v>
+      </c>
+      <c r="K86">
+        <v>0.84918171461316494</v>
+      </c>
+      <c r="L86">
+        <v>421</v>
+      </c>
+      <c r="M86">
+        <v>66</v>
+      </c>
+      <c r="N86">
+        <v>100</v>
+      </c>
+      <c r="O86">
+        <v>502</v>
+      </c>
+      <c r="P86">
+        <v>80.55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="E87">
+        <v>0.84930835433628726</v>
+      </c>
+      <c r="F87">
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="G87">
+        <v>0.84647994931425175</v>
+      </c>
+      <c r="H87">
+        <v>0.47786324689395088</v>
+      </c>
+      <c r="I87">
+        <v>0.15384615384615391</v>
+      </c>
+      <c r="J87">
+        <v>0.37919902543018141</v>
+      </c>
+      <c r="K87">
+        <v>0.84842393787117409</v>
+      </c>
+      <c r="L87">
+        <v>144</v>
+      </c>
+      <c r="M87">
+        <v>21</v>
+      </c>
+      <c r="N87">
+        <v>35</v>
+      </c>
+      <c r="O87">
+        <v>164</v>
+      </c>
+      <c r="P87">
+        <v>80.48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <v>0.79670329670329665</v>
+      </c>
+      <c r="E88">
+        <v>0.80203848344479001</v>
+      </c>
+      <c r="F88">
+        <v>0.79670329670329665</v>
+      </c>
+      <c r="G88">
+        <v>0.79742506014695358</v>
+      </c>
+      <c r="H88">
+        <v>0.35036417107884787</v>
+      </c>
+      <c r="I88">
+        <v>0.2032967032967033</v>
+      </c>
+      <c r="J88">
+        <v>0.174754901960784</v>
+      </c>
+      <c r="K88">
+        <v>0.79975490196078425</v>
+      </c>
+      <c r="L88">
+        <v>132</v>
+      </c>
+      <c r="M88">
+        <v>28</v>
+      </c>
+      <c r="N88">
+        <v>46</v>
+      </c>
+      <c r="O88">
+        <v>158</v>
+      </c>
+      <c r="P88">
+        <v>74.55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89">
+        <v>0.88062442607897151</v>
+      </c>
+      <c r="E89">
+        <v>0.88247914483187928</v>
+      </c>
+      <c r="F89">
+        <v>0.88062442607897151</v>
+      </c>
+      <c r="G89">
+        <v>0.8808826841145454</v>
+      </c>
+      <c r="H89">
+        <v>0.57910628143909981</v>
+      </c>
+      <c r="I89">
+        <v>0.1193755739210285</v>
+      </c>
+      <c r="J89">
+        <v>0.51711270440079948</v>
+      </c>
+      <c r="K89">
+        <v>0.88222011501702069</v>
+      </c>
+      <c r="L89">
+        <v>437</v>
+      </c>
+      <c r="M89">
+        <v>50</v>
+      </c>
+      <c r="N89">
+        <v>80</v>
+      </c>
+      <c r="O89">
+        <v>522</v>
+      </c>
+      <c r="P89">
+        <v>84.65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>33</v>
+      </c>
+      <c r="B90" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90">
+        <v>0.83241758241758246</v>
+      </c>
+      <c r="E90">
+        <v>0.84085628527552303</v>
+      </c>
+      <c r="F90">
+        <v>0.83241758241758246</v>
+      </c>
+      <c r="G90">
+        <v>0.83270233900827106</v>
+      </c>
+      <c r="H90">
+        <v>0.44047136357842198</v>
+      </c>
+      <c r="I90">
+        <v>0.1675824175824176</v>
+      </c>
+      <c r="J90">
+        <v>0.32377036698644751</v>
+      </c>
+      <c r="K90">
+        <v>0.83741434444952012</v>
+      </c>
+      <c r="L90">
+        <v>147</v>
+      </c>
+      <c r="M90">
+        <v>18</v>
+      </c>
+      <c r="N90">
+        <v>43</v>
+      </c>
+      <c r="O90">
+        <v>156</v>
+      </c>
+      <c r="P90">
+        <v>79.22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>33</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91">
+        <v>0.83791208791208793</v>
+      </c>
+      <c r="E91">
+        <v>0.84269402913470715</v>
+      </c>
+      <c r="F91">
+        <v>0.83791208791208793</v>
+      </c>
+      <c r="G91">
+        <v>0.83847670842897282</v>
+      </c>
+      <c r="H91">
+        <v>0.45525467690133731</v>
+      </c>
+      <c r="I91">
+        <v>0.16208791208791209</v>
+      </c>
+      <c r="J91">
+        <v>0.34203431372548998</v>
+      </c>
+      <c r="K91">
+        <v>0.84123774509803928</v>
+      </c>
+      <c r="L91">
+        <v>139</v>
+      </c>
+      <c r="M91">
+        <v>21</v>
+      </c>
+      <c r="N91">
+        <v>38</v>
+      </c>
+      <c r="O91">
+        <v>166</v>
+      </c>
+      <c r="P91">
+        <v>79.540000000000006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92">
+        <v>0.97612488521579432</v>
+      </c>
+      <c r="E92">
+        <v>0.97614073435601612</v>
+      </c>
+      <c r="F92">
+        <v>0.97612488521579432</v>
+      </c>
+      <c r="G92">
+        <v>0.97612948459928539</v>
+      </c>
+      <c r="H92">
+        <v>0.90668488390022894</v>
+      </c>
+      <c r="I92">
+        <v>2.3875114784205689E-2</v>
+      </c>
+      <c r="J92">
+        <v>0.90342254088015994</v>
+      </c>
+      <c r="K92">
+        <v>0.97605176448116138</v>
+      </c>
+      <c r="L92">
+        <v>475</v>
+      </c>
+      <c r="M92">
+        <v>12</v>
+      </c>
+      <c r="N92">
+        <v>14</v>
+      </c>
+      <c r="O92">
+        <v>588</v>
+      </c>
+      <c r="P92">
+        <v>96.79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="E93">
+        <v>0.95119374762134523</v>
+      </c>
+      <c r="F93">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="G93">
+        <v>0.95061252522987227</v>
+      </c>
+      <c r="H93">
+        <v>0.81146023966174408</v>
+      </c>
+      <c r="I93">
+        <v>4.9450549450549448E-2</v>
+      </c>
+      <c r="J93">
+        <v>0.80045682960255826</v>
+      </c>
+      <c r="K93">
+        <v>0.95166742804933757</v>
+      </c>
+      <c r="L93">
+        <v>159</v>
+      </c>
+      <c r="M93">
+        <v>6</v>
+      </c>
+      <c r="N93">
+        <v>12</v>
+      </c>
+      <c r="O93">
+        <v>187</v>
+      </c>
+      <c r="P93">
+        <v>93.57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="E94">
+        <v>0.94823288411244921</v>
+      </c>
+      <c r="F94">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="G94">
+        <v>0.94765873873614737</v>
+      </c>
+      <c r="H94">
+        <v>0.80150845762577216</v>
+      </c>
+      <c r="I94">
+        <v>5.21978021978022E-2</v>
+      </c>
+      <c r="J94">
+        <v>0.78811274509803919</v>
+      </c>
+      <c r="K94">
+        <v>0.94466911764705885</v>
+      </c>
+      <c r="L94">
+        <v>147</v>
+      </c>
+      <c r="M94">
+        <v>13</v>
+      </c>
+      <c r="N94">
+        <v>6</v>
+      </c>
+      <c r="O94">
+        <v>198</v>
+      </c>
+      <c r="P94">
+        <v>92.72</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>487</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>602</v>
+      </c>
+      <c r="P95">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>34</v>
+      </c>
+      <c r="B96" t="s">
+        <v>21</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="E96">
+        <v>0.96764430006862501</v>
+      </c>
+      <c r="F96">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="G96">
+        <v>0.96707501681991481</v>
+      </c>
+      <c r="H96">
+        <v>0.87212717603262802</v>
+      </c>
+      <c r="I96">
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="J96">
+        <v>0.86697121973503888</v>
+      </c>
+      <c r="K96">
+        <v>0.96829602558245775</v>
+      </c>
+      <c r="L96">
+        <v>162</v>
+      </c>
+      <c r="M96">
+        <v>3</v>
+      </c>
+      <c r="N96">
+        <v>9</v>
+      </c>
+      <c r="O96">
+        <v>190</v>
+      </c>
+      <c r="P96">
+        <v>95.76</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>34</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97">
+        <v>0.97252747252747251</v>
+      </c>
+      <c r="E97">
+        <v>0.97262217064197265</v>
+      </c>
+      <c r="F97">
+        <v>0.97252747252747251</v>
+      </c>
+      <c r="G97">
+        <v>0.97254512461194831</v>
+      </c>
+      <c r="H97">
+        <v>0.89282251053769246</v>
+      </c>
+      <c r="I97">
+        <v>2.7472527472527469E-2</v>
+      </c>
+      <c r="J97">
+        <v>0.8884803921568627</v>
+      </c>
+      <c r="K97">
+        <v>0.97279411764705881</v>
+      </c>
+      <c r="L97">
+        <v>156</v>
+      </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
+      <c r="N97">
+        <v>6</v>
+      </c>
+      <c r="O97">
+        <v>198</v>
+      </c>
+      <c r="P97">
+        <v>96.34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>34</v>
+      </c>
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98">
+        <v>0.97612488521579432</v>
+      </c>
+      <c r="E98">
+        <v>0.97614073435601612</v>
+      </c>
+      <c r="F98">
+        <v>0.97612488521579432</v>
+      </c>
+      <c r="G98">
+        <v>0.97612948459928539</v>
+      </c>
+      <c r="H98">
+        <v>0.90668488390022894</v>
+      </c>
+      <c r="I98">
+        <v>2.3875114784205689E-2</v>
+      </c>
+      <c r="J98">
+        <v>0.90342254088015994</v>
+      </c>
+      <c r="K98">
+        <v>0.97605176448116138</v>
+      </c>
+      <c r="L98">
+        <v>475</v>
+      </c>
+      <c r="M98">
+        <v>12</v>
+      </c>
+      <c r="N98">
+        <v>14</v>
+      </c>
+      <c r="O98">
+        <v>588</v>
+      </c>
+      <c r="P98">
+        <v>96.79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="E99">
+        <v>0.95119374762134523</v>
+      </c>
+      <c r="F99">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="G99">
+        <v>0.95061252522987227</v>
+      </c>
+      <c r="H99">
+        <v>0.81146023966174408</v>
+      </c>
+      <c r="I99">
+        <v>4.9450549450549448E-2</v>
+      </c>
+      <c r="J99">
+        <v>0.80045682960255826</v>
+      </c>
+      <c r="K99">
+        <v>0.95166742804933757</v>
+      </c>
+      <c r="L99">
+        <v>159</v>
+      </c>
+      <c r="M99">
+        <v>6</v>
+      </c>
+      <c r="N99">
+        <v>12</v>
+      </c>
+      <c r="O99">
+        <v>187</v>
+      </c>
+      <c r="P99">
+        <v>93.57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="E100">
+        <v>0.945638770365682</v>
+      </c>
+      <c r="F100">
+        <v>0.94505494505494503</v>
+      </c>
+      <c r="G100">
+        <v>0.94487883910960846</v>
+      </c>
+      <c r="H100">
+        <v>0.7916627248267798</v>
+      </c>
+      <c r="I100">
+        <v>5.4945054945054937E-2</v>
+      </c>
+      <c r="J100">
+        <v>0.77696078431372539</v>
+      </c>
+      <c r="K100">
+        <v>0.94154411764705892</v>
+      </c>
+      <c r="L100">
+        <v>146</v>
+      </c>
+      <c r="M100">
+        <v>14</v>
+      </c>
+      <c r="N100">
+        <v>6</v>
+      </c>
+      <c r="O100">
+        <v>198</v>
+      </c>
+      <c r="P100">
+        <v>92.33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101">
+        <v>0.99908172635445358</v>
+      </c>
+      <c r="E101">
+        <v>0.99908324919632019</v>
+      </c>
+      <c r="F101">
+        <v>0.99908172635445358</v>
+      </c>
+      <c r="G101">
+        <v>0.99908163550334694</v>
+      </c>
+      <c r="H101">
+        <v>0.99632650527780064</v>
+      </c>
+      <c r="I101">
+        <v>9.1827364554637281E-4</v>
+      </c>
+      <c r="J101">
+        <v>0.99628548234154457</v>
+      </c>
+      <c r="K101">
+        <v>0.99897330595482547</v>
+      </c>
+      <c r="L101">
+        <v>486</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>602</v>
+      </c>
+      <c r="P101">
+        <v>99.86</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="E102">
+        <v>0.96764430006862501</v>
+      </c>
+      <c r="F102">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="G102">
+        <v>0.96707501681991481</v>
+      </c>
+      <c r="H102">
+        <v>0.87212717603262802</v>
+      </c>
+      <c r="I102">
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="J102">
+        <v>0.86697121973503888</v>
+      </c>
+      <c r="K102">
+        <v>0.96829602558245775</v>
+      </c>
+      <c r="L102">
+        <v>162</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
+        <v>9</v>
+      </c>
+      <c r="O102">
+        <v>190</v>
+      </c>
+      <c r="P102">
+        <v>95.76</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103">
         <v>0.96978021978021978</v>
       </c>
-      <c r="E85">
+      <c r="E103">
         <v>0.97023914109341247</v>
       </c>
-      <c r="F85">
+      <c r="F103">
         <v>0.96978021978021978</v>
       </c>
-      <c r="G85">
+      <c r="G103">
         <v>0.96982521200883465</v>
       </c>
-      <c r="H85">
+      <c r="H103">
         <v>0.88244249920796769</v>
       </c>
-      <c r="I85">
+      <c r="I103">
         <v>3.021978021978022E-2</v>
       </c>
-      <c r="J85">
+      <c r="J103">
         <v>0.87732843137254901</v>
       </c>
-      <c r="K85">
+      <c r="K103">
         <v>0.97101715686274515</v>
       </c>
-      <c r="L85">
+      <c r="L103">
         <v>157</v>
       </c>
-      <c r="M85">
+      <c r="M103">
         <v>3</v>
       </c>
-      <c r="N85">
+      <c r="N103">
         <v>8</v>
       </c>
-      <c r="O85">
+      <c r="O103">
         <v>196</v>
       </c>
-      <c r="P85">
+      <c r="P103">
         <v>96.08</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>487</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>602</v>
+      </c>
+      <c r="P104">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="E105">
+        <v>0.96764430006862501</v>
+      </c>
+      <c r="F105">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="G105">
+        <v>0.96707501681991481</v>
+      </c>
+      <c r="H105">
+        <v>0.87212717603262802</v>
+      </c>
+      <c r="I105">
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="J105">
+        <v>0.86697121973503888</v>
+      </c>
+      <c r="K105">
+        <v>0.96829602558245775</v>
+      </c>
+      <c r="L105">
+        <v>162</v>
+      </c>
+      <c r="M105">
+        <v>3</v>
+      </c>
+      <c r="N105">
+        <v>9</v>
+      </c>
+      <c r="O105">
+        <v>190</v>
+      </c>
+      <c r="P105">
+        <v>95.76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="E106">
+        <v>0.96734923612972401</v>
+      </c>
+      <c r="F106">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="G106">
+        <v>0.96707326410296701</v>
+      </c>
+      <c r="H106">
+        <v>0.87211714052049649</v>
+      </c>
+      <c r="I106">
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="J106">
+        <v>0.86617647058823521</v>
+      </c>
+      <c r="K106">
+        <v>0.9678921568627451</v>
+      </c>
+      <c r="L106">
+        <v>156</v>
+      </c>
+      <c r="M106">
+        <v>4</v>
+      </c>
+      <c r="N106">
+        <v>8</v>
+      </c>
+      <c r="O106">
+        <v>196</v>
+      </c>
+      <c r="P106">
+        <v>95.68</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" t="s">
+        <v>17</v>
+      </c>
+      <c r="C107" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107">
+        <v>0.97612488521579432</v>
+      </c>
+      <c r="E107">
+        <v>0.97612488521579432</v>
+      </c>
+      <c r="F107">
+        <v>0.97612488521579432</v>
+      </c>
+      <c r="G107">
+        <v>0.97612488521579432</v>
+      </c>
+      <c r="H107">
+        <v>0.90668415456361717</v>
+      </c>
+      <c r="I107">
+        <v>2.3875114784205689E-2</v>
+      </c>
+      <c r="J107">
+        <v>0.90342254088015994</v>
+      </c>
+      <c r="K107">
+        <v>0.97585563522004004</v>
+      </c>
+      <c r="L107">
+        <v>474</v>
+      </c>
+      <c r="M107">
+        <v>13</v>
+      </c>
+      <c r="N107">
+        <v>13</v>
+      </c>
+      <c r="O107">
+        <v>589</v>
+      </c>
+      <c r="P107">
+        <v>96.76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="E108">
+        <v>0.95635606996553735</v>
+      </c>
+      <c r="F108">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="G108">
+        <v>0.95608403876132375</v>
+      </c>
+      <c r="H108">
+        <v>0.83143890025771527</v>
+      </c>
+      <c r="I108">
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="J108">
+        <v>0.8226282929800518</v>
+      </c>
+      <c r="K108">
+        <v>0.9566925536774783</v>
+      </c>
+      <c r="L108">
+        <v>159</v>
+      </c>
+      <c r="M108">
+        <v>6</v>
+      </c>
+      <c r="N108">
+        <v>10</v>
+      </c>
+      <c r="O108">
+        <v>189</v>
+      </c>
+      <c r="P108">
+        <v>94.22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" t="s">
+        <v>17</v>
+      </c>
+      <c r="C109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D109">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="E109">
+        <v>0.94823288411244921</v>
+      </c>
+      <c r="F109">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="G109">
+        <v>0.94765873873614737</v>
+      </c>
+      <c r="H109">
+        <v>0.80150845762577216</v>
+      </c>
+      <c r="I109">
+        <v>5.21978021978022E-2</v>
+      </c>
+      <c r="J109">
+        <v>0.78811274509803919</v>
+      </c>
+      <c r="K109">
+        <v>0.94466911764705885</v>
+      </c>
+      <c r="L109">
+        <v>147</v>
+      </c>
+      <c r="M109">
+        <v>13</v>
+      </c>
+      <c r="N109">
+        <v>6</v>
+      </c>
+      <c r="O109">
+        <v>198</v>
+      </c>
+      <c r="P109">
+        <v>92.72</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" t="s">
+        <v>21</v>
+      </c>
+      <c r="C110" t="s">
+        <v>18</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>487</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>602</v>
+      </c>
+      <c r="P110">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" t="s">
+        <v>21</v>
+      </c>
+      <c r="C111" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="E111">
+        <v>0.96764430006862501</v>
+      </c>
+      <c r="F111">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="G111">
+        <v>0.96707501681991481</v>
+      </c>
+      <c r="H111">
+        <v>0.87212717603262802</v>
+      </c>
+      <c r="I111">
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="J111">
+        <v>0.86697121973503888</v>
+      </c>
+      <c r="K111">
+        <v>0.96829602558245775</v>
+      </c>
+      <c r="L111">
+        <v>162</v>
+      </c>
+      <c r="M111">
+        <v>3</v>
+      </c>
+      <c r="N111">
+        <v>9</v>
+      </c>
+      <c r="O111">
+        <v>190</v>
+      </c>
+      <c r="P111">
+        <v>95.76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112">
+        <v>0.96978021978021978</v>
+      </c>
+      <c r="E112">
+        <v>0.97023914109341247</v>
+      </c>
+      <c r="F112">
+        <v>0.96978021978021978</v>
+      </c>
+      <c r="G112">
+        <v>0.96982521200883487</v>
+      </c>
+      <c r="H112">
+        <v>0.88244249920796769</v>
+      </c>
+      <c r="I112">
+        <v>3.021978021978022E-2</v>
+      </c>
+      <c r="J112">
+        <v>0.87732843137254901</v>
+      </c>
+      <c r="K112">
+        <v>0.97101715686274515</v>
+      </c>
+      <c r="L112">
+        <v>157</v>
+      </c>
+      <c r="M112">
+        <v>3</v>
+      </c>
+      <c r="N112">
+        <v>8</v>
+      </c>
+      <c r="O112">
+        <v>196</v>
+      </c>
+      <c r="P112">
+        <v>96.08</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113">
+        <v>0.97887970615243347</v>
+      </c>
+      <c r="E113">
+        <v>0.97888547964675421</v>
+      </c>
+      <c r="F113">
+        <v>0.97887970615243347</v>
+      </c>
+      <c r="G113">
+        <v>0.97888175889536133</v>
+      </c>
+      <c r="H113">
+        <v>0.91721872500494128</v>
+      </c>
+      <c r="I113">
+        <v>2.1120293847566571E-2</v>
+      </c>
+      <c r="J113">
+        <v>0.91456609385552612</v>
+      </c>
+      <c r="K113">
+        <v>0.97873958809444228</v>
+      </c>
+      <c r="L113">
+        <v>476</v>
+      </c>
+      <c r="M113">
+        <v>11</v>
+      </c>
+      <c r="N113">
+        <v>12</v>
+      </c>
+      <c r="O113">
+        <v>590</v>
+      </c>
+      <c r="P113">
+        <v>97.15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="E114">
+        <v>0.95924519688922349</v>
+      </c>
+      <c r="F114">
+        <v>0.95879120879120883</v>
+      </c>
+      <c r="G114">
+        <v>0.95883659464609672</v>
+      </c>
+      <c r="H114">
+        <v>0.84152059013391967</v>
+      </c>
+      <c r="I114">
+        <v>4.1208791208791208E-2</v>
+      </c>
+      <c r="J114">
+        <v>0.83371402466879863</v>
+      </c>
+      <c r="K114">
+        <v>0.95972285670778135</v>
+      </c>
+      <c r="L114">
+        <v>160</v>
+      </c>
+      <c r="M114">
+        <v>5</v>
+      </c>
+      <c r="N114">
+        <v>10</v>
+      </c>
+      <c r="O114">
+        <v>189</v>
+      </c>
+      <c r="P114">
+        <v>94.62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="E115">
+        <v>0.95084915084915089</v>
+      </c>
+      <c r="F115">
+        <v>0.9505494505494505</v>
+      </c>
+      <c r="G115">
+        <v>0.95043533038548267</v>
+      </c>
+      <c r="H115">
+        <v>0.81141419659759362</v>
+      </c>
+      <c r="I115">
+        <v>4.9450549450549448E-2</v>
+      </c>
+      <c r="J115">
+        <v>0.79926470588235288</v>
+      </c>
+      <c r="K115">
+        <v>0.9477941176470589</v>
+      </c>
+      <c r="L115">
+        <v>148</v>
+      </c>
+      <c r="M115">
+        <v>12</v>
+      </c>
+      <c r="N115">
+        <v>6</v>
+      </c>
+      <c r="O115">
+        <v>198</v>
+      </c>
+      <c r="P115">
+        <v>93.12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116" t="s">
+        <v>21</v>
+      </c>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>487</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>602</v>
+      </c>
+      <c r="P116">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="E117">
+        <v>0.96764430006862501</v>
+      </c>
+      <c r="F117">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="G117">
+        <v>0.96707501681991481</v>
+      </c>
+      <c r="H117">
+        <v>0.87212717603262802</v>
+      </c>
+      <c r="I117">
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="J117">
+        <v>0.86697121973503888</v>
+      </c>
+      <c r="K117">
+        <v>0.96829602558245775</v>
+      </c>
+      <c r="L117">
+        <v>162</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>9</v>
+      </c>
+      <c r="O117">
+        <v>190</v>
+      </c>
+      <c r="P117">
+        <v>95.76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118">
+        <v>0.97252747252747251</v>
+      </c>
+      <c r="E118">
+        <v>0.97262217064197265</v>
+      </c>
+      <c r="F118">
+        <v>0.97252747252747251</v>
+      </c>
+      <c r="G118">
+        <v>0.97254512461194831</v>
+      </c>
+      <c r="H118">
+        <v>0.89282251053769246</v>
+      </c>
+      <c r="I118">
+        <v>2.7472527472527469E-2</v>
+      </c>
+      <c r="J118">
+        <v>0.8884803921568627</v>
+      </c>
+      <c r="K118">
+        <v>0.97279411764705881</v>
+      </c>
+      <c r="L118">
+        <v>156</v>
+      </c>
+      <c r="M118">
+        <v>4</v>
+      </c>
+      <c r="N118">
+        <v>6</v>
+      </c>
+      <c r="O118">
+        <v>198</v>
+      </c>
+      <c r="P118">
+        <v>96.34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119">
+        <v>0.97887970615243347</v>
+      </c>
+      <c r="E119">
+        <v>0.97888547964675421</v>
+      </c>
+      <c r="F119">
+        <v>0.97887970615243347</v>
+      </c>
+      <c r="G119">
+        <v>0.97888175889536133</v>
+      </c>
+      <c r="H119">
+        <v>0.91721872500494128</v>
+      </c>
+      <c r="I119">
+        <v>2.1120293847566571E-2</v>
+      </c>
+      <c r="J119">
+        <v>0.91456609385552612</v>
+      </c>
+      <c r="K119">
+        <v>0.97873958809444228</v>
+      </c>
+      <c r="L119">
+        <v>476</v>
+      </c>
+      <c r="M119">
+        <v>11</v>
+      </c>
+      <c r="N119">
+        <v>12</v>
+      </c>
+      <c r="O119">
+        <v>590</v>
+      </c>
+      <c r="P119">
+        <v>97.15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" t="s">
+        <v>17</v>
+      </c>
+      <c r="C120" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="E120">
+        <v>0.95635606996553735</v>
+      </c>
+      <c r="F120">
+        <v>0.95604395604395609</v>
+      </c>
+      <c r="G120">
+        <v>0.95608403876132375</v>
+      </c>
+      <c r="H120">
+        <v>0.83143890025771527</v>
+      </c>
+      <c r="I120">
+        <v>4.3956043956043959E-2</v>
+      </c>
+      <c r="J120">
+        <v>0.8226282929800518</v>
+      </c>
+      <c r="K120">
+        <v>0.9566925536774783</v>
+      </c>
+      <c r="L120">
+        <v>159</v>
+      </c>
+      <c r="M120">
+        <v>6</v>
+      </c>
+      <c r="N120">
+        <v>10</v>
+      </c>
+      <c r="O120">
+        <v>189</v>
+      </c>
+      <c r="P120">
+        <v>94.22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" t="s">
+        <v>17</v>
+      </c>
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="E121">
+        <v>0.94823288411244921</v>
+      </c>
+      <c r="F121">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="G121">
+        <v>0.94765873873614737</v>
+      </c>
+      <c r="H121">
+        <v>0.80150845762577216</v>
+      </c>
+      <c r="I121">
+        <v>5.21978021978022E-2</v>
+      </c>
+      <c r="J121">
+        <v>0.78811274509803919</v>
+      </c>
+      <c r="K121">
+        <v>0.94466911764705885</v>
+      </c>
+      <c r="L121">
+        <v>147</v>
+      </c>
+      <c r="M121">
+        <v>13</v>
+      </c>
+      <c r="N121">
+        <v>6</v>
+      </c>
+      <c r="O121">
+        <v>198</v>
+      </c>
+      <c r="P121">
+        <v>92.72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>487</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>602</v>
+      </c>
+      <c r="P122">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="E123">
+        <v>0.96764430006862501</v>
+      </c>
+      <c r="F123">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="G123">
+        <v>0.96707501681991481</v>
+      </c>
+      <c r="H123">
+        <v>0.87212717603262802</v>
+      </c>
+      <c r="I123">
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="J123">
+        <v>0.86697121973503888</v>
+      </c>
+      <c r="K123">
+        <v>0.96829602558245775</v>
+      </c>
+      <c r="L123">
+        <v>162</v>
+      </c>
+      <c r="M123">
+        <v>3</v>
+      </c>
+      <c r="N123">
+        <v>9</v>
+      </c>
+      <c r="O123">
+        <v>190</v>
+      </c>
+      <c r="P123">
+        <v>95.76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>34</v>
+      </c>
+      <c r="B124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124">
+        <v>0.97252747252747251</v>
+      </c>
+      <c r="E124">
+        <v>0.97262217064197265</v>
+      </c>
+      <c r="F124">
+        <v>0.97252747252747251</v>
+      </c>
+      <c r="G124">
+        <v>0.97254512461194831</v>
+      </c>
+      <c r="H124">
+        <v>0.89282251053769246</v>
+      </c>
+      <c r="I124">
+        <v>2.7472527472527469E-2</v>
+      </c>
+      <c r="J124">
+        <v>0.8884803921568627</v>
+      </c>
+      <c r="K124">
+        <v>0.97279411764705881</v>
+      </c>
+      <c r="L124">
+        <v>156</v>
+      </c>
+      <c r="M124">
+        <v>4</v>
+      </c>
+      <c r="N124">
+        <v>6</v>
+      </c>
+      <c r="O124">
+        <v>198</v>
+      </c>
+      <c r="P124">
+        <v>96.34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>34</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125">
+        <v>0.98347107438016534</v>
+      </c>
+      <c r="E125">
+        <v>0.98348414428726749</v>
+      </c>
+      <c r="F125">
+        <v>0.98347107438016534</v>
+      </c>
+      <c r="G125">
+        <v>0.98347425856873605</v>
+      </c>
+      <c r="H125">
+        <v>0.9349110352351333</v>
+      </c>
+      <c r="I125">
+        <v>1.6528925619834711E-2</v>
+      </c>
+      <c r="J125">
+        <v>0.93313868214780304</v>
+      </c>
+      <c r="K125">
+        <v>0.98348079979807201</v>
+      </c>
+      <c r="L125">
+        <v>479</v>
+      </c>
+      <c r="M125">
+        <v>8</v>
+      </c>
+      <c r="N125">
+        <v>10</v>
+      </c>
+      <c r="O125">
+        <v>592</v>
+      </c>
+      <c r="P125">
+        <v>97.78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="E126">
+        <v>0.96732774129223831</v>
+      </c>
+      <c r="F126">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="G126">
+        <v>0.96706302907099284</v>
+      </c>
+      <c r="H126">
+        <v>0.87212606226447364</v>
+      </c>
+      <c r="I126">
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="J126">
+        <v>0.86697121973503888</v>
+      </c>
+      <c r="K126">
+        <v>0.96777828536622501</v>
+      </c>
+      <c r="L126">
+        <v>161</v>
+      </c>
+      <c r="M126">
+        <v>4</v>
+      </c>
+      <c r="N126">
+        <v>8</v>
+      </c>
+      <c r="O126">
+        <v>191</v>
+      </c>
+      <c r="P126">
+        <v>95.69</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="E127">
+        <v>0.95348793820780231</v>
+      </c>
+      <c r="F127">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="G127">
+        <v>0.95320874981891934</v>
+      </c>
+      <c r="H127">
+        <v>0.821379959456641</v>
+      </c>
+      <c r="I127">
+        <v>4.6703296703296697E-2</v>
+      </c>
+      <c r="J127">
+        <v>0.81041666666666656</v>
+      </c>
+      <c r="K127">
+        <v>0.95091911764705883</v>
+      </c>
+      <c r="L127">
+        <v>149</v>
+      </c>
+      <c r="M127">
+        <v>11</v>
+      </c>
+      <c r="N127">
+        <v>6</v>
+      </c>
+      <c r="O127">
+        <v>198</v>
+      </c>
+      <c r="P127">
+        <v>93.52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>34</v>
+      </c>
+      <c r="B128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>487</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>602</v>
+      </c>
+      <c r="P128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>34</v>
+      </c>
+      <c r="B129" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="E129">
+        <v>0.96764430006862501</v>
+      </c>
+      <c r="F129">
+        <v>0.96703296703296704</v>
+      </c>
+      <c r="G129">
+        <v>0.96707501681991481</v>
+      </c>
+      <c r="H129">
+        <v>0.87212717603262802</v>
+      </c>
+      <c r="I129">
+        <v>3.2967032967032968E-2</v>
+      </c>
+      <c r="J129">
+        <v>0.86697121973503888</v>
+      </c>
+      <c r="K129">
+        <v>0.96829602558245775</v>
+      </c>
+      <c r="L129">
+        <v>162</v>
+      </c>
+      <c r="M129">
+        <v>3</v>
+      </c>
+      <c r="N129">
+        <v>9</v>
+      </c>
+      <c r="O129">
+        <v>190</v>
+      </c>
+      <c r="P129">
+        <v>95.76</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130">
+        <v>0.97252747252747251</v>
+      </c>
+      <c r="E130">
+        <v>0.97262217064197265</v>
+      </c>
+      <c r="F130">
+        <v>0.97252747252747251</v>
+      </c>
+      <c r="G130">
+        <v>0.97254512461194831</v>
+      </c>
+      <c r="H130">
+        <v>0.89282251053769246</v>
+      </c>
+      <c r="I130">
+        <v>2.7472527472527469E-2</v>
+      </c>
+      <c r="J130">
+        <v>0.8884803921568627</v>
+      </c>
+      <c r="K130">
+        <v>0.97279411764705881</v>
+      </c>
+      <c r="L130">
+        <v>156</v>
+      </c>
+      <c r="M130">
+        <v>4</v>
+      </c>
+      <c r="N130">
+        <v>6</v>
+      </c>
+      <c r="O130">
+        <v>198</v>
+      </c>
+      <c r="P130">
+        <v>96.34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1910CD5-691E-4070-924E-90529622AF14}">
+  <dimension ref="A1:P45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>0.76098901098901095</v>
+      </c>
+      <c r="E2">
+        <v>0.79696735127939866</v>
+      </c>
+      <c r="F2">
+        <v>0.76098901098901095</v>
+      </c>
+      <c r="G2">
+        <v>0.75965060580445209</v>
+      </c>
+      <c r="H2">
+        <v>0.27015873237742077</v>
+      </c>
+      <c r="I2">
+        <v>0.23901098901098899</v>
+      </c>
+      <c r="J2">
+        <v>2.9779411764705551E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.77665441176470584</v>
+      </c>
+      <c r="L2">
+        <v>145</v>
+      </c>
+      <c r="M2">
+        <v>15</v>
+      </c>
+      <c r="N2">
+        <v>72</v>
+      </c>
+      <c r="O2">
+        <v>132</v>
+      </c>
+      <c r="P2">
+        <v>72.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>0.75824175824175821</v>
+      </c>
+      <c r="E3">
+        <v>0.79522833582152408</v>
+      </c>
+      <c r="F3">
+        <v>0.75824175824175821</v>
+      </c>
+      <c r="G3">
+        <v>0.75675795104366539</v>
+      </c>
+      <c r="H3">
+        <v>0.2644160258236668</v>
+      </c>
+      <c r="I3">
+        <v>0.24175824175824179</v>
+      </c>
+      <c r="J3">
+        <v>1.8627450980391761E-2</v>
+      </c>
+      <c r="K3">
+        <v>0.77420343137254899</v>
+      </c>
+      <c r="L3">
+        <v>145</v>
+      </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
+      <c r="N3">
+        <v>73</v>
+      </c>
+      <c r="O3">
+        <v>131</v>
+      </c>
+      <c r="P3">
+        <v>71.739999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>0.7994505494505495</v>
+      </c>
+      <c r="E4">
+        <v>0.81374320616207718</v>
+      </c>
+      <c r="F4">
+        <v>0.7994505494505495</v>
+      </c>
+      <c r="G4">
+        <v>0.80000049808548412</v>
+      </c>
+      <c r="H4">
+        <v>0.35690886297354107</v>
+      </c>
+      <c r="I4">
+        <v>0.20054945054945059</v>
+      </c>
+      <c r="J4">
+        <v>0.18590686274509771</v>
+      </c>
+      <c r="K4">
+        <v>0.80759803921568629</v>
+      </c>
+      <c r="L4">
+        <v>140</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>53</v>
+      </c>
+      <c r="O4">
+        <v>151</v>
+      </c>
+      <c r="P4">
+        <v>75.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="E5">
+        <v>0.83304610733182161</v>
+      </c>
+      <c r="F5">
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="G5">
+        <v>0.8220158397748345</v>
+      </c>
+      <c r="H5">
+        <v>0.41165785681163791</v>
+      </c>
+      <c r="I5">
+        <v>0.1785714285714286</v>
+      </c>
+      <c r="J5">
+        <v>0.27512254901960748</v>
+      </c>
+      <c r="K5">
+        <v>0.82855392156862739</v>
+      </c>
+      <c r="L5">
+        <v>142</v>
+      </c>
+      <c r="M5">
+        <v>18</v>
+      </c>
+      <c r="N5">
+        <v>47</v>
+      </c>
+      <c r="O5">
+        <v>157</v>
+      </c>
+      <c r="P5">
+        <v>78.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0.85164835164835162</v>
+      </c>
+      <c r="E6">
+        <v>0.85153649726638803</v>
+      </c>
+      <c r="F6">
+        <v>0.85164835164835162</v>
+      </c>
+      <c r="G6">
+        <v>0.85117286559594252</v>
+      </c>
+      <c r="H6">
+        <v>0.49308633918608918</v>
+      </c>
+      <c r="I6">
+        <v>0.14835164835164841</v>
+      </c>
+      <c r="J6">
+        <v>0.39779411764705858</v>
+      </c>
+      <c r="K6">
+        <v>0.8467524509803922</v>
+      </c>
+      <c r="L6">
+        <v>129</v>
+      </c>
+      <c r="M6">
+        <v>31</v>
+      </c>
+      <c r="N6">
+        <v>23</v>
+      </c>
+      <c r="O6">
+        <v>181</v>
+      </c>
+      <c r="P6">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="E7">
+        <v>0.88644133644133649</v>
+      </c>
+      <c r="F7">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="G7">
+        <v>0.88375601558322503</v>
+      </c>
+      <c r="H7">
+        <v>0.59039162575885207</v>
+      </c>
+      <c r="I7">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="J7">
+        <v>0.53161764705882342</v>
+      </c>
+      <c r="K7">
+        <v>0.87751225490196072</v>
+      </c>
+      <c r="L7">
+        <v>131</v>
+      </c>
+      <c r="M7">
+        <v>29</v>
+      </c>
+      <c r="N7">
+        <v>13</v>
+      </c>
+      <c r="O7">
+        <v>191</v>
+      </c>
+      <c r="P7">
+        <v>84.19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>0.91208791208791207</v>
+      </c>
+      <c r="E8">
+        <v>0.91242620338946068</v>
+      </c>
+      <c r="F8">
+        <v>0.91208791208791207</v>
+      </c>
+      <c r="G8">
+        <v>0.9118061425753734</v>
+      </c>
+      <c r="H8">
+        <v>0.6782884867092599</v>
+      </c>
+      <c r="I8">
+        <v>8.7912087912087919E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.64313725490196072</v>
+      </c>
+      <c r="K8">
+        <v>0.90808823529411764</v>
+      </c>
+      <c r="L8">
+        <v>140</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8">
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <v>192</v>
+      </c>
+      <c r="P8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="E9">
+        <v>0.94051555920714802</v>
+      </c>
+      <c r="F9">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="G9">
+        <v>0.93930856918972372</v>
+      </c>
+      <c r="H9">
+        <v>0.77215120817931282</v>
+      </c>
+      <c r="I9">
+        <v>6.043956043956044E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.75465686274509791</v>
+      </c>
+      <c r="K9">
+        <v>0.93529411764705894</v>
+      </c>
+      <c r="L9">
+        <v>144</v>
+      </c>
+      <c r="M9">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>198</v>
+      </c>
+      <c r="P9">
+        <v>91.53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="E10">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="F10">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G10">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="H10">
+        <v>0.7339253456273912</v>
+      </c>
+      <c r="I10">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.71004901960784306</v>
+      </c>
+      <c r="K10">
+        <v>0.92751225490196076</v>
+      </c>
+      <c r="L10">
+        <v>147</v>
+      </c>
+      <c r="M10">
+        <v>13</v>
+      </c>
+      <c r="N10">
+        <v>13</v>
+      </c>
+      <c r="O10">
+        <v>191</v>
+      </c>
+      <c r="P10">
+        <v>90.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="E11">
+        <v>0.95530109983341505</v>
+      </c>
+      <c r="F11">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="G11">
+        <v>0.9534257169466861</v>
+      </c>
+      <c r="H11">
+        <v>0.82141907370338085</v>
+      </c>
+      <c r="I11">
+        <v>4.6703296703296697E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.81041666666666656</v>
+      </c>
+      <c r="K11">
+        <v>0.95631127450980391</v>
+      </c>
+      <c r="L11">
+        <v>157</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>14</v>
+      </c>
+      <c r="O11">
+        <v>190</v>
+      </c>
+      <c r="P11">
+        <v>94.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>0.80494505494505497</v>
+      </c>
+      <c r="E12">
+        <v>0.81172572559222311</v>
+      </c>
+      <c r="F12">
+        <v>0.80494505494505497</v>
+      </c>
+      <c r="G12">
+        <v>0.80565895719684166</v>
+      </c>
+      <c r="H12">
+        <v>0.37025623759627979</v>
+      </c>
+      <c r="I12">
+        <v>0.19505494505494511</v>
+      </c>
+      <c r="J12">
+        <v>0.20821078431372519</v>
+      </c>
+      <c r="K12">
+        <v>0.80912990196078427</v>
+      </c>
+      <c r="L12">
+        <v>135</v>
+      </c>
+      <c r="M12">
+        <v>25</v>
+      </c>
+      <c r="N12">
+        <v>46</v>
+      </c>
+      <c r="O12">
+        <v>158</v>
+      </c>
+      <c r="P12">
+        <v>75.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>0.81318681318681318</v>
+      </c>
+      <c r="E13">
+        <v>0.82049269411906778</v>
+      </c>
+      <c r="F13">
+        <v>0.81318681318681318</v>
+      </c>
+      <c r="G13">
+        <v>0.81387173260639312</v>
+      </c>
+      <c r="H13">
+        <v>0.39068990604244452</v>
+      </c>
+      <c r="I13">
+        <v>0.18681318681318679</v>
+      </c>
+      <c r="J13">
+        <v>0.24166666666666639</v>
+      </c>
+      <c r="K13">
+        <v>0.8178308823529411</v>
+      </c>
+      <c r="L13">
+        <v>137</v>
+      </c>
+      <c r="M13">
+        <v>23</v>
+      </c>
+      <c r="N13">
+        <v>45</v>
+      </c>
+      <c r="O13">
+        <v>159</v>
+      </c>
+      <c r="P13">
+        <v>76.709999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>0.80494505494505497</v>
+      </c>
+      <c r="E14">
+        <v>0.81783975791783803</v>
+      </c>
+      <c r="F14">
+        <v>0.80494505494505497</v>
+      </c>
+      <c r="G14">
+        <v>0.80553909201124052</v>
+      </c>
+      <c r="H14">
+        <v>0.3702380929371849</v>
+      </c>
+      <c r="I14">
+        <v>0.19505494505494511</v>
+      </c>
+      <c r="J14">
+        <v>0.20821078431372519</v>
+      </c>
+      <c r="K14">
+        <v>0.8125</v>
+      </c>
+      <c r="L14">
+        <v>140</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>51</v>
+      </c>
+      <c r="O14">
+        <v>153</v>
+      </c>
+      <c r="P14">
+        <v>76.099999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>0.78846153846153844</v>
+      </c>
+      <c r="E15">
+        <v>0.80121706214978616</v>
+      </c>
+      <c r="F15">
+        <v>0.78846153846153844</v>
+      </c>
+      <c r="G15">
+        <v>0.78910577584317654</v>
+      </c>
+      <c r="H15">
+        <v>0.33100474046141659</v>
+      </c>
+      <c r="I15">
+        <v>0.21153846153846151</v>
+      </c>
+      <c r="J15">
+        <v>0.14129901960784291</v>
+      </c>
+      <c r="K15">
+        <v>0.79577205882352942</v>
+      </c>
+      <c r="L15">
+        <v>137</v>
+      </c>
+      <c r="M15">
+        <v>23</v>
+      </c>
+      <c r="N15">
+        <v>54</v>
+      </c>
+      <c r="O15">
+        <v>150</v>
+      </c>
+      <c r="P15">
+        <v>74.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>0.70879120879120883</v>
+      </c>
+      <c r="E16">
+        <v>0.79228806907378324</v>
+      </c>
+      <c r="F16">
+        <v>0.70879120879120883</v>
+      </c>
+      <c r="G16">
+        <v>0.69891365854251442</v>
+      </c>
+      <c r="H16">
+        <v>0.17066420578840019</v>
+      </c>
+      <c r="I16">
+        <v>0.29120879120879117</v>
+      </c>
+      <c r="J16">
+        <v>-0.18210784313725539</v>
+      </c>
+      <c r="K16">
+        <v>0.73547794117647058</v>
+      </c>
+      <c r="L16">
+        <v>153</v>
+      </c>
+      <c r="M16">
+        <v>7</v>
+      </c>
+      <c r="N16">
+        <v>99</v>
+      </c>
+      <c r="O16">
+        <v>105</v>
+      </c>
+      <c r="P16">
+        <v>67.680000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>0.74450549450549453</v>
+      </c>
+      <c r="E17">
+        <v>0.80378008928231592</v>
+      </c>
+      <c r="F17">
+        <v>0.74450549450549453</v>
+      </c>
+      <c r="G17">
+        <v>0.73998939821724641</v>
+      </c>
+      <c r="H17">
+        <v>0.2362880808325821</v>
+      </c>
+      <c r="I17">
+        <v>0.25549450549450547</v>
+      </c>
+      <c r="J17">
+        <v>-3.7132352941176887E-2</v>
+      </c>
+      <c r="K17">
+        <v>0.76599264705882364</v>
+      </c>
+      <c r="L17">
+        <v>151</v>
+      </c>
+      <c r="M17">
+        <v>9</v>
+      </c>
+      <c r="N17">
+        <v>84</v>
+      </c>
+      <c r="O17">
+        <v>120</v>
+      </c>
+      <c r="P17">
+        <v>70.959999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>0.88736263736263732</v>
+      </c>
+      <c r="E18">
+        <v>0.88727910459659187</v>
+      </c>
+      <c r="F18">
+        <v>0.88736263736263732</v>
+      </c>
+      <c r="G18">
+        <v>0.88715051426915847</v>
+      </c>
+      <c r="H18">
+        <v>0.59900573030755988</v>
+      </c>
+      <c r="I18">
+        <v>0.1126373626373626</v>
+      </c>
+      <c r="J18">
+        <v>0.5427696078431371</v>
+      </c>
+      <c r="K18">
+        <v>0.88400735294117638</v>
+      </c>
+      <c r="L18">
+        <v>137</v>
+      </c>
+      <c r="M18">
+        <v>23</v>
+      </c>
+      <c r="N18">
+        <v>18</v>
+      </c>
+      <c r="O18">
+        <v>186</v>
+      </c>
+      <c r="P18">
+        <v>84.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="E19">
+        <v>0.95327908783960336</v>
+      </c>
+      <c r="F19">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="G19">
+        <v>0.95328059513204111</v>
+      </c>
+      <c r="H19">
+        <v>0.82139282787615231</v>
+      </c>
+      <c r="I19">
+        <v>4.6703296703296697E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.81041666666666656</v>
+      </c>
+      <c r="K19">
+        <v>0.9522671568627451</v>
+      </c>
+      <c r="L19">
+        <v>151</v>
+      </c>
+      <c r="M19">
+        <v>9</v>
+      </c>
+      <c r="N19">
+        <v>8</v>
+      </c>
+      <c r="O19">
+        <v>196</v>
+      </c>
+      <c r="P19">
+        <v>93.66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>0.92582417582417587</v>
+      </c>
+      <c r="E20">
+        <v>0.92578717493581753</v>
+      </c>
+      <c r="F20">
+        <v>0.92582417582417587</v>
+      </c>
+      <c r="G20">
+        <v>0.92579859226853578</v>
+      </c>
+      <c r="H20">
+        <v>0.72450471958723672</v>
+      </c>
+      <c r="I20">
+        <v>7.4175824175824176E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.69889705882352926</v>
+      </c>
+      <c r="K20">
+        <v>0.92438725490196083</v>
+      </c>
+      <c r="L20">
+        <v>146</v>
+      </c>
+      <c r="M20">
+        <v>14</v>
+      </c>
+      <c r="N20">
+        <v>13</v>
+      </c>
+      <c r="O20">
+        <v>191</v>
+      </c>
+      <c r="P20">
+        <v>90.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>0.96978021978021978</v>
+      </c>
+      <c r="E21">
+        <v>0.96977423558187492</v>
+      </c>
+      <c r="F21">
+        <v>0.96978021978021978</v>
+      </c>
+      <c r="G21">
+        <v>0.96976979685014431</v>
+      </c>
+      <c r="H21">
+        <v>0.88243233609816907</v>
+      </c>
+      <c r="I21">
+        <v>3.021978021978022E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.87732843137254901</v>
+      </c>
+      <c r="K21">
+        <v>0.9689950980392158</v>
+      </c>
+      <c r="L21">
+        <v>154</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <v>199</v>
+      </c>
+      <c r="P21">
+        <v>95.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>0.78296703296703296</v>
+      </c>
+      <c r="E22">
+        <v>0.79855647311268618</v>
+      </c>
+      <c r="F22">
+        <v>0.78296703296703296</v>
+      </c>
+      <c r="G22">
+        <v>0.78348332934293752</v>
+      </c>
+      <c r="H22">
+        <v>0.31838971569436381</v>
+      </c>
+      <c r="I22">
+        <v>0.21703296703296701</v>
+      </c>
+      <c r="J22">
+        <v>0.1189950980392154</v>
+      </c>
+      <c r="K22">
+        <v>0.7915441176470589</v>
+      </c>
+      <c r="L22">
+        <v>138</v>
+      </c>
+      <c r="M22">
+        <v>22</v>
+      </c>
+      <c r="N22">
+        <v>57</v>
+      </c>
+      <c r="O22">
+        <v>147</v>
+      </c>
+      <c r="P22">
+        <v>73.63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>0.81318681318681318</v>
+      </c>
+      <c r="E23">
+        <v>0.82049269411906778</v>
+      </c>
+      <c r="F23">
+        <v>0.81318681318681318</v>
+      </c>
+      <c r="G23">
+        <v>0.81387173260639312</v>
+      </c>
+      <c r="H23">
+        <v>0.39068990604244452</v>
+      </c>
+      <c r="I23">
+        <v>0.18681318681318679</v>
+      </c>
+      <c r="J23">
+        <v>0.24166666666666639</v>
+      </c>
+      <c r="K23">
+        <v>0.8178308823529411</v>
+      </c>
+      <c r="L23">
+        <v>137</v>
+      </c>
+      <c r="M23">
+        <v>23</v>
+      </c>
+      <c r="N23">
+        <v>45</v>
+      </c>
+      <c r="O23">
+        <v>159</v>
+      </c>
+      <c r="P23">
+        <v>76.709999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="E24">
+        <v>0.79107337026873081</v>
+      </c>
+      <c r="F24">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="G24">
+        <v>0.78647506339814033</v>
+      </c>
+      <c r="H24">
+        <v>0.32469356609631589</v>
+      </c>
+      <c r="I24">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="J24">
+        <v>0.13014705882352909</v>
+      </c>
+      <c r="K24">
+        <v>0.78860294117647056</v>
+      </c>
+      <c r="L24">
+        <v>130</v>
+      </c>
+      <c r="M24">
+        <v>30</v>
+      </c>
+      <c r="N24">
+        <v>48</v>
+      </c>
+      <c r="O24">
+        <v>156</v>
+      </c>
+      <c r="P24">
+        <v>73.23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>0.80494505494505497</v>
+      </c>
+      <c r="E25">
+        <v>0.8151619068867324</v>
+      </c>
+      <c r="F25">
+        <v>0.80494505494505497</v>
+      </c>
+      <c r="G25">
+        <v>0.80562225221736439</v>
+      </c>
+      <c r="H25">
+        <v>0.37025079430833668</v>
+      </c>
+      <c r="I25">
+        <v>0.19505494505494511</v>
+      </c>
+      <c r="J25">
+        <v>0.20821078431372519</v>
+      </c>
+      <c r="K25">
+        <v>0.81115196078431373</v>
+      </c>
+      <c r="L25">
+        <v>138</v>
+      </c>
+      <c r="M25">
+        <v>22</v>
+      </c>
+      <c r="N25">
+        <v>49</v>
+      </c>
+      <c r="O25">
+        <v>155</v>
+      </c>
+      <c r="P25">
+        <v>75.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>0.79670329670329665</v>
+      </c>
+      <c r="E26">
+        <v>0.80203848344479001</v>
+      </c>
+      <c r="F26">
+        <v>0.79670329670329665</v>
+      </c>
+      <c r="G26">
+        <v>0.79742506014695358</v>
+      </c>
+      <c r="H26">
+        <v>0.35036417107884787</v>
+      </c>
+      <c r="I26">
+        <v>0.2032967032967033</v>
+      </c>
+      <c r="J26">
+        <v>0.174754901960784</v>
+      </c>
+      <c r="K26">
+        <v>0.79975490196078425</v>
+      </c>
+      <c r="L26">
+        <v>132</v>
+      </c>
+      <c r="M26">
+        <v>28</v>
+      </c>
+      <c r="N26">
+        <v>46</v>
+      </c>
+      <c r="O26">
+        <v>158</v>
+      </c>
+      <c r="P26">
+        <v>74.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>0.83791208791208793</v>
+      </c>
+      <c r="E27">
+        <v>0.84269402913470715</v>
+      </c>
+      <c r="F27">
+        <v>0.83791208791208793</v>
+      </c>
+      <c r="G27">
+        <v>0.83847670842897282</v>
+      </c>
+      <c r="H27">
+        <v>0.45525467690133731</v>
+      </c>
+      <c r="I27">
+        <v>0.16208791208791209</v>
+      </c>
+      <c r="J27">
+        <v>0.34203431372548998</v>
+      </c>
+      <c r="K27">
+        <v>0.84123774509803928</v>
+      </c>
+      <c r="L27">
+        <v>139</v>
+      </c>
+      <c r="M27">
+        <v>21</v>
+      </c>
+      <c r="N27">
+        <v>38</v>
+      </c>
+      <c r="O27">
+        <v>166</v>
+      </c>
+      <c r="P27">
+        <v>79.540000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="E28">
+        <v>0.94823288411244921</v>
+      </c>
+      <c r="F28">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="G28">
+        <v>0.94765873873614737</v>
+      </c>
+      <c r="H28">
+        <v>0.80150845762577216</v>
+      </c>
+      <c r="I28">
+        <v>5.21978021978022E-2</v>
+      </c>
+      <c r="J28">
+        <v>0.78811274509803919</v>
+      </c>
+      <c r="K28">
+        <v>0.94466911764705885</v>
+      </c>
+      <c r="L28">
+        <v>147</v>
+      </c>
+      <c r="M28">
+        <v>13</v>
+      </c>
+      <c r="N28">
+        <v>6</v>
+      </c>
+      <c r="O28">
+        <v>198</v>
+      </c>
+      <c r="P28">
+        <v>92.72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>0.97252747252747251</v>
+      </c>
+      <c r="E29">
+        <v>0.97262217064197265</v>
+      </c>
+      <c r="F29">
+        <v>0.97252747252747251</v>
+      </c>
+      <c r="G29">
+        <v>0.97254512461194831</v>
+      </c>
+      <c r="H29">
+        <v>0.89282251053769246</v>
+      </c>
+      <c r="I29">
+        <v>2.7472527472527469E-2</v>
+      </c>
+      <c r="J29">
+        <v>0.8884803921568627</v>
+      </c>
+      <c r="K29">
+        <v>0.97279411764705881</v>
+      </c>
+      <c r="L29">
+        <v>156</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>6</v>
+      </c>
+      <c r="O29">
+        <v>198</v>
+      </c>
+      <c r="P29">
+        <v>96.34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>0.91208791208791207</v>
+      </c>
+      <c r="E33">
+        <v>0.91242620338946068</v>
+      </c>
+      <c r="F33">
+        <v>0.91208791208791207</v>
+      </c>
+      <c r="G33">
+        <v>0.9118061425753734</v>
+      </c>
+      <c r="H33">
+        <v>0.6782884867092599</v>
+      </c>
+      <c r="I33">
+        <v>8.7912087912087919E-2</v>
+      </c>
+      <c r="J33">
+        <v>0.64313725490196072</v>
+      </c>
+      <c r="K33">
+        <v>0.90808823529411764</v>
+      </c>
+      <c r="L33">
+        <v>140</v>
+      </c>
+      <c r="M33">
+        <v>20</v>
+      </c>
+      <c r="N33">
+        <v>12</v>
+      </c>
+      <c r="O33">
+        <v>192</v>
+      </c>
+      <c r="P33">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="E34">
+        <v>0.94051555920714802</v>
+      </c>
+      <c r="F34">
+        <v>0.93956043956043955</v>
+      </c>
+      <c r="G34">
+        <v>0.93930856918972372</v>
+      </c>
+      <c r="H34">
+        <v>0.77215120817931282</v>
+      </c>
+      <c r="I34">
+        <v>6.043956043956044E-2</v>
+      </c>
+      <c r="J34">
+        <v>0.75465686274509791</v>
+      </c>
+      <c r="K34">
+        <v>0.93529411764705894</v>
+      </c>
+      <c r="L34">
+        <v>144</v>
+      </c>
+      <c r="M34">
+        <v>16</v>
+      </c>
+      <c r="N34">
+        <v>6</v>
+      </c>
+      <c r="O34">
+        <v>198</v>
+      </c>
+      <c r="P34">
+        <v>91.53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="E35">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="F35">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="G35">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="H35">
+        <v>0.7339253456273912</v>
+      </c>
+      <c r="I35">
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="J35">
+        <v>0.71004901960784306</v>
+      </c>
+      <c r="K35">
+        <v>0.92751225490196076</v>
+      </c>
+      <c r="L35">
+        <v>147</v>
+      </c>
+      <c r="M35">
+        <v>13</v>
+      </c>
+      <c r="N35">
+        <v>13</v>
+      </c>
+      <c r="O35">
+        <v>191</v>
+      </c>
+      <c r="P35">
+        <v>90.43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="E36">
+        <v>0.95530109983341505</v>
+      </c>
+      <c r="F36">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="G36">
+        <v>0.9534257169466861</v>
+      </c>
+      <c r="H36">
+        <v>0.82141907370338085</v>
+      </c>
+      <c r="I36">
+        <v>4.6703296703296697E-2</v>
+      </c>
+      <c r="J36">
+        <v>0.81041666666666656</v>
+      </c>
+      <c r="K36">
+        <v>0.95631127450980391</v>
+      </c>
+      <c r="L36">
+        <v>157</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>14</v>
+      </c>
+      <c r="O36">
+        <v>190</v>
+      </c>
+      <c r="P36">
+        <v>94.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>0.88736263736263732</v>
+      </c>
+      <c r="E37">
+        <v>0.88727910459659187</v>
+      </c>
+      <c r="F37">
+        <v>0.88736263736263732</v>
+      </c>
+      <c r="G37">
+        <v>0.88715051426915847</v>
+      </c>
+      <c r="H37">
+        <v>0.59900573030755988</v>
+      </c>
+      <c r="I37">
+        <v>0.1126373626373626</v>
+      </c>
+      <c r="J37">
+        <v>0.5427696078431371</v>
+      </c>
+      <c r="K37">
+        <v>0.88400735294117638</v>
+      </c>
+      <c r="L37">
+        <v>137</v>
+      </c>
+      <c r="M37">
+        <v>23</v>
+      </c>
+      <c r="N37">
+        <v>18</v>
+      </c>
+      <c r="O37">
+        <v>186</v>
+      </c>
+      <c r="P37">
+        <v>84.92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="E38">
+        <v>0.95327908783960336</v>
+      </c>
+      <c r="F38">
+        <v>0.95329670329670335</v>
+      </c>
+      <c r="G38">
+        <v>0.95328059513204111</v>
+      </c>
+      <c r="H38">
+        <v>0.82139282787615231</v>
+      </c>
+      <c r="I38">
+        <v>4.6703296703296697E-2</v>
+      </c>
+      <c r="J38">
+        <v>0.81041666666666656</v>
+      </c>
+      <c r="K38">
+        <v>0.9522671568627451</v>
+      </c>
+      <c r="L38">
+        <v>151</v>
+      </c>
+      <c r="M38">
+        <v>9</v>
+      </c>
+      <c r="N38">
+        <v>8</v>
+      </c>
+      <c r="O38">
+        <v>196</v>
+      </c>
+      <c r="P38">
+        <v>93.66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39">
+        <v>0.92582417582417587</v>
+      </c>
+      <c r="E39">
+        <v>0.92578717493581753</v>
+      </c>
+      <c r="F39">
+        <v>0.92582417582417587</v>
+      </c>
+      <c r="G39">
+        <v>0.92579859226853578</v>
+      </c>
+      <c r="H39">
+        <v>0.72450471958723672</v>
+      </c>
+      <c r="I39">
+        <v>7.4175824175824176E-2</v>
+      </c>
+      <c r="J39">
+        <v>0.69889705882352926</v>
+      </c>
+      <c r="K39">
+        <v>0.92438725490196083</v>
+      </c>
+      <c r="L39">
+        <v>146</v>
+      </c>
+      <c r="M39">
+        <v>14</v>
+      </c>
+      <c r="N39">
+        <v>13</v>
+      </c>
+      <c r="O39">
+        <v>191</v>
+      </c>
+      <c r="P39">
+        <v>90.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>0.96978021978021978</v>
+      </c>
+      <c r="E40">
+        <v>0.96977423558187492</v>
+      </c>
+      <c r="F40">
+        <v>0.96978021978021978</v>
+      </c>
+      <c r="G40">
+        <v>0.96976979685014431</v>
+      </c>
+      <c r="H40">
+        <v>0.88243233609816907</v>
+      </c>
+      <c r="I40">
+        <v>3.021978021978022E-2</v>
+      </c>
+      <c r="J40">
+        <v>0.87732843137254901</v>
+      </c>
+      <c r="K40">
+        <v>0.9689950980392158</v>
+      </c>
+      <c r="L40">
+        <v>154</v>
+      </c>
+      <c r="M40">
+        <v>6</v>
+      </c>
+      <c r="N40">
+        <v>5</v>
+      </c>
+      <c r="O40">
+        <v>199</v>
+      </c>
+      <c r="P40">
+        <v>95.87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="E44">
+        <v>0.94823288411244921</v>
+      </c>
+      <c r="F44">
+        <v>0.94780219780219777</v>
+      </c>
+      <c r="G44">
+        <v>0.94765873873614737</v>
+      </c>
+      <c r="H44">
+        <v>0.80150845762577216</v>
+      </c>
+      <c r="I44">
+        <v>5.21978021978022E-2</v>
+      </c>
+      <c r="J44">
+        <v>0.78811274509803919</v>
+      </c>
+      <c r="K44">
+        <v>0.94466911764705885</v>
+      </c>
+      <c r="L44">
+        <v>147</v>
+      </c>
+      <c r="M44">
+        <v>13</v>
+      </c>
+      <c r="N44">
+        <v>6</v>
+      </c>
+      <c r="O44">
+        <v>198</v>
+      </c>
+      <c r="P44">
+        <v>92.72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>0.97252747252747251</v>
+      </c>
+      <c r="E45">
+        <v>0.97262217064197265</v>
+      </c>
+      <c r="F45">
+        <v>0.97252747252747251</v>
+      </c>
+      <c r="G45">
+        <v>0.97254512461194831</v>
+      </c>
+      <c r="H45">
+        <v>0.89282251053769246</v>
+      </c>
+      <c r="I45">
+        <v>2.7472527472527469E-2</v>
+      </c>
+      <c r="J45">
+        <v>0.8884803921568627</v>
+      </c>
+      <c r="K45">
+        <v>0.97279411764705881</v>
+      </c>
+      <c r="L45">
+        <v>156</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>6</v>
+      </c>
+      <c r="O45">
+        <v>198</v>
+      </c>
+      <c r="P45">
+        <v>96.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>